--- a/myapp/files/80_distances/distances_pValue.xlsx
+++ b/myapp/files/80_distances/distances_pValue.xlsx
@@ -860,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3348</v>
+        <v>0.3349</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0212</v>
+        <v>0.0211</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0064</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="21">
@@ -1060,10 +1060,10 @@
         <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0109</v>
+        <v>0.0111</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7128</v>
+        <v>0.6902</v>
       </c>
     </row>
     <row r="22">
@@ -1200,10 +1200,10 @@
         <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0745</v>
+        <v>0.0746</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8315</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1340,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2062</v>
+        <v>0.2063</v>
       </c>
       <c r="F35" t="n">
         <v>0.0052</v>
@@ -1420,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1698</v>
+        <v>0.1697</v>
       </c>
       <c r="F39" t="n">
         <v>0.0024</v>
@@ -1480,7 +1480,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5157</v>
+        <v>0.5158</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6151</v>
+        <v>0.6152</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2306</v>
+        <v>0.2309</v>
       </c>
       <c r="F52" t="n">
         <v>0.0009</v>
@@ -1700,7 +1700,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2992</v>
+        <v>0.2991</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0155</v>
+        <v>0.0156</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2436</v>
+        <v>0.2378</v>
       </c>
     </row>
     <row r="64">
@@ -2043,7 +2043,7 @@
         <v>0.0831</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7032</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="71">
@@ -2060,10 +2060,10 @@
         <v>14</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0577</v>
+        <v>0.0575</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9704</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="72">
@@ -2160,10 +2160,10 @@
         <v>14</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1955</v>
+        <v>0.1952</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0082</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="77">
@@ -2180,10 +2180,10 @@
         <v>14</v>
       </c>
       <c r="E77" t="n">
-        <v>0.202</v>
+        <v>0.2019</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0056</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="78">
@@ -2240,7 +2240,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="n">
-        <v>0.167</v>
+        <v>0.1672</v>
       </c>
       <c r="F80" t="n">
         <v>0.0003</v>
@@ -2260,7 +2260,7 @@
         <v>14</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1701</v>
+        <v>0.17</v>
       </c>
       <c r="F81" t="n">
         <v>0.0026</v>
@@ -2520,10 +2520,10 @@
         <v>14</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2568</v>
+        <v>0.2571</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="95">
@@ -2540,7 +2540,7 @@
         <v>14</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4378</v>
+        <v>0.4376</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>14</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0396</v>
+        <v>0.0395</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -2740,10 +2740,10 @@
         <v>14</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0055</v>
+        <v>0.0056</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9995</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="106">
@@ -2880,10 +2880,10 @@
         <v>14</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0832</v>
+        <v>0.0833</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7013</v>
+        <v>0.6994</v>
       </c>
     </row>
     <row r="113">
@@ -2900,10 +2900,10 @@
         <v>14</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0945</v>
+        <v>0.0943</v>
       </c>
       <c r="F113" t="n">
-        <v>0.541</v>
+        <v>0.5442</v>
       </c>
     </row>
     <row r="114">
@@ -3000,10 +3000,10 @@
         <v>14</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1846</v>
+        <v>0.1849</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0158</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="119">
@@ -3020,7 +3020,7 @@
         <v>14</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2434</v>
+        <v>0.2431</v>
       </c>
       <c r="F119" t="n">
         <v>0.0004</v>
@@ -3100,7 +3100,7 @@
         <v>14</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2115</v>
+        <v>0.2112</v>
       </c>
       <c r="F123" t="n">
         <v>0.0001</v>
@@ -3160,7 +3160,7 @@
         <v>15</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5599</v>
+        <v>0.5596</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>14</v>
       </c>
       <c r="E136" t="n">
-        <v>0.26</v>
+        <v>0.2601</v>
       </c>
       <c r="F136" t="n">
         <v>0.0002</v>
@@ -3380,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3576</v>
+        <v>0.3574</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -3580,10 +3580,10 @@
         <v>14</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0067</v>
+        <v>0.0066</v>
       </c>
       <c r="F147" t="n">
-        <v>0.993</v>
+        <v>0.9944</v>
       </c>
     </row>
     <row r="148">
@@ -3720,10 +3720,10 @@
         <v>14</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0887</v>
+        <v>0.0886</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6406</v>
+        <v>0.6421</v>
       </c>
     </row>
     <row r="155">
@@ -3740,10 +3740,10 @@
         <v>14</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0648</v>
+        <v>0.0649</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9307</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="156">
@@ -3863,7 +3863,7 @@
         <v>0.1761</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0261</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="162">
@@ -3940,10 +3940,10 @@
         <v>14</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1455</v>
+        <v>0.1453</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0136</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="166">
@@ -4000,7 +4000,7 @@
         <v>15</v>
       </c>
       <c r="E168" t="n">
-        <v>0.568</v>
+        <v>0.5679</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>14</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3511</v>
+        <v>0.3507</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>14</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4093</v>
+        <v>0.4091</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>14</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0367</v>
+        <v>0.0363</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -4420,10 +4420,10 @@
         <v>14</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0136</v>
+        <v>0.0138</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3887</v>
+        <v>0.3703</v>
       </c>
     </row>
     <row r="190">
@@ -4560,10 +4560,10 @@
         <v>14</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0964</v>
+        <v>0.0966</v>
       </c>
       <c r="F196" t="n">
-        <v>0.5247</v>
+        <v>0.5209</v>
       </c>
     </row>
     <row r="197">
@@ -4580,10 +4580,10 @@
         <v>14</v>
       </c>
       <c r="E197" t="n">
-        <v>0.049</v>
+        <v>0.0495</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9957</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="198">
@@ -4680,10 +4680,10 @@
         <v>14</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2072</v>
+        <v>0.2068</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0049</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="203">
@@ -4700,10 +4700,10 @@
         <v>14</v>
       </c>
       <c r="E203" t="n">
-        <v>0.1635</v>
+        <v>0.1637</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0449</v>
+        <v>0.0444</v>
       </c>
     </row>
     <row r="204">
@@ -4760,7 +4760,7 @@
         <v>14</v>
       </c>
       <c r="E206" t="n">
-        <v>0.1403</v>
+        <v>0.1401</v>
       </c>
       <c r="F206" t="n">
         <v>0.0037</v>
@@ -4840,7 +4840,7 @@
         <v>15</v>
       </c>
       <c r="E210" t="n">
-        <v>0.6738</v>
+        <v>0.6736</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>15</v>
       </c>
       <c r="E211" t="n">
-        <v>0.6096</v>
+        <v>0.6092</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>14</v>
       </c>
       <c r="E220" t="n">
-        <v>0.2979</v>
+        <v>0.2981</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -5060,10 +5060,10 @@
         <v>14</v>
       </c>
       <c r="E221" t="n">
-        <v>0.2369</v>
+        <v>0.2372</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0014</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="222">
@@ -5240,10 +5240,10 @@
         <v>14</v>
       </c>
       <c r="E230" t="n">
-        <v>0.0098</v>
+        <v>0.0097</v>
       </c>
       <c r="F230" t="n">
-        <v>0.6135</v>
+        <v>0.6272</v>
       </c>
     </row>
     <row r="231">
@@ -5260,10 +5260,10 @@
         <v>14</v>
       </c>
       <c r="E231" t="n">
-        <v>0.023</v>
+        <v>0.0234</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0335</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="232">
@@ -5400,10 +5400,10 @@
         <v>14</v>
       </c>
       <c r="E238" t="n">
-        <v>0.1064</v>
+        <v>0.1065</v>
       </c>
       <c r="F238" t="n">
-        <v>0.454</v>
+        <v>0.4524</v>
       </c>
     </row>
     <row r="239">
@@ -5420,10 +5420,10 @@
         <v>14</v>
       </c>
       <c r="E239" t="n">
-        <v>0.0673</v>
+        <v>0.0677</v>
       </c>
       <c r="F239" t="n">
-        <v>0.9297</v>
+        <v>0.9268</v>
       </c>
     </row>
     <row r="240">
@@ -5520,7 +5520,7 @@
         <v>14</v>
       </c>
       <c r="E244" t="n">
-        <v>0.2056</v>
+        <v>0.2057</v>
       </c>
       <c r="F244" t="n">
         <v>0.0082</v>
@@ -5600,7 +5600,7 @@
         <v>14</v>
       </c>
       <c r="E248" t="n">
-        <v>0.1734</v>
+        <v>0.1735</v>
       </c>
       <c r="F248" t="n">
         <v>0.0007</v>
@@ -5620,7 +5620,7 @@
         <v>14</v>
       </c>
       <c r="E249" t="n">
-        <v>0.2094</v>
+        <v>0.2098</v>
       </c>
       <c r="F249" t="n">
         <v>0.0002</v>
@@ -5680,7 +5680,7 @@
         <v>15</v>
       </c>
       <c r="E252" t="n">
-        <v>0.5609</v>
+        <v>0.561</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>15</v>
       </c>
       <c r="E253" t="n">
-        <v>0.7639</v>
+        <v>0.7643</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -5880,10 +5880,10 @@
         <v>14</v>
       </c>
       <c r="E262" t="n">
-        <v>0.226</v>
+        <v>0.2261</v>
       </c>
       <c r="F262" t="n">
-        <v>0.0024</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="263">
@@ -5900,7 +5900,7 @@
         <v>14</v>
       </c>
       <c r="E263" t="n">
-        <v>0.3644</v>
+        <v>0.3645</v>
       </c>
       <c r="F263" t="n">
         <v>0</v>
@@ -6080,7 +6080,7 @@
         <v>14</v>
       </c>
       <c r="E272" t="n">
-        <v>0.0712</v>
+        <v>0.071</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
@@ -6240,10 +6240,10 @@
         <v>14</v>
       </c>
       <c r="E280" t="n">
-        <v>0.1217</v>
+        <v>0.1215</v>
       </c>
       <c r="F280" t="n">
-        <v>0.2828</v>
+        <v>0.2837</v>
       </c>
     </row>
     <row r="281">
@@ -6263,7 +6263,7 @@
         <v>0.1003</v>
       </c>
       <c r="F281" t="n">
-        <v>0.52</v>
+        <v>0.5208</v>
       </c>
     </row>
     <row r="282">
@@ -6360,7 +6360,7 @@
         <v>14</v>
       </c>
       <c r="E286" t="n">
-        <v>0.3007</v>
+        <v>0.3008</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>14</v>
       </c>
       <c r="E287" t="n">
-        <v>0.2986</v>
+        <v>0.2983</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>14</v>
       </c>
       <c r="E290" t="n">
-        <v>0.2736</v>
+        <v>0.2735</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>14</v>
       </c>
       <c r="E291" t="n">
-        <v>0.1881</v>
+        <v>0.1879</v>
       </c>
       <c r="F291" t="n">
         <v>0.0003</v>
@@ -6520,7 +6520,7 @@
         <v>15</v>
       </c>
       <c r="E294" t="n">
-        <v>0.5701</v>
+        <v>0.5699</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
@@ -6540,7 +6540,7 @@
         <v>15</v>
       </c>
       <c r="E295" t="n">
-        <v>0.5308</v>
+        <v>0.5309</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>14</v>
       </c>
       <c r="E304" t="n">
-        <v>0.2832</v>
+        <v>0.2831</v>
       </c>
       <c r="F304" t="n">
         <v>0.0001</v>
@@ -6740,7 +6740,7 @@
         <v>14</v>
       </c>
       <c r="E305" t="n">
-        <v>0.3153</v>
+        <v>0.3155</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
@@ -6920,10 +6920,10 @@
         <v>14</v>
       </c>
       <c r="E314" t="n">
-        <v>0.0293</v>
+        <v>0.0296</v>
       </c>
       <c r="F314" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -6940,10 +6940,10 @@
         <v>14</v>
       </c>
       <c r="E315" t="n">
-        <v>0.0066</v>
+        <v>0.0065</v>
       </c>
       <c r="F315" t="n">
-        <v>0.9967</v>
+        <v>0.9977</v>
       </c>
     </row>
     <row r="316">
@@ -7080,10 +7080,10 @@
         <v>14</v>
       </c>
       <c r="E322" t="n">
-        <v>0.0821</v>
+        <v>0.0818</v>
       </c>
       <c r="F322" t="n">
-        <v>0.7653</v>
+        <v>0.7689</v>
       </c>
     </row>
     <row r="323">
@@ -7100,10 +7100,10 @@
         <v>14</v>
       </c>
       <c r="E323" t="n">
-        <v>0.0752</v>
+        <v>0.0753</v>
       </c>
       <c r="F323" t="n">
-        <v>0.8496</v>
+        <v>0.8482</v>
       </c>
     </row>
     <row r="324">
@@ -7200,10 +7200,10 @@
         <v>14</v>
       </c>
       <c r="E328" t="n">
-        <v>0.1674</v>
+        <v>0.1675</v>
       </c>
       <c r="F328" t="n">
-        <v>0.0495</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="329">
@@ -7220,10 +7220,10 @@
         <v>14</v>
       </c>
       <c r="E329" t="n">
-        <v>0.1941</v>
+        <v>0.1943</v>
       </c>
       <c r="F329" t="n">
-        <v>0.0139</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="330">
@@ -7280,10 +7280,10 @@
         <v>14</v>
       </c>
       <c r="E332" t="n">
-        <v>0.1724</v>
+        <v>0.1727</v>
       </c>
       <c r="F332" t="n">
-        <v>0.0007</v>
+        <v>0.0006</v>
       </c>
     </row>
     <row r="333">
@@ -7300,10 +7300,10 @@
         <v>14</v>
       </c>
       <c r="E333" t="n">
-        <v>0.147</v>
+        <v>0.1467</v>
       </c>
       <c r="F333" t="n">
-        <v>0.0205</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="334">
@@ -7360,7 +7360,7 @@
         <v>15</v>
       </c>
       <c r="E336" t="n">
-        <v>0.5147</v>
+        <v>0.5149</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>15</v>
       </c>
       <c r="E337" t="n">
-        <v>0.5962</v>
+        <v>0.5968</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0.0147</v>
       </c>
       <c r="F357" t="n">
-        <v>0.3461</v>
+        <v>0.3498</v>
       </c>
     </row>
     <row r="358">
@@ -7920,10 +7920,10 @@
         <v>14</v>
       </c>
       <c r="E364" t="n">
-        <v>0.0701</v>
+        <v>0.0705</v>
       </c>
       <c r="F364" t="n">
-        <v>0.8919</v>
+        <v>0.8882</v>
       </c>
     </row>
     <row r="365">
@@ -7943,7 +7943,7 @@
         <v>0.0782</v>
       </c>
       <c r="F365" t="n">
-        <v>0.7997</v>
+        <v>0.8002</v>
       </c>
     </row>
     <row r="366">
@@ -8040,7 +8040,7 @@
         <v>14</v>
       </c>
       <c r="E370" t="n">
-        <v>0.2173</v>
+        <v>0.2174</v>
       </c>
       <c r="F370" t="n">
         <v>0.0032</v>
@@ -8060,10 +8060,10 @@
         <v>14</v>
       </c>
       <c r="E371" t="n">
-        <v>0.203</v>
+        <v>0.2033</v>
       </c>
       <c r="F371" t="n">
-        <v>0.0074</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="372">
@@ -8140,7 +8140,7 @@
         <v>14</v>
       </c>
       <c r="E375" t="n">
-        <v>0.1843</v>
+        <v>0.1844</v>
       </c>
       <c r="F375" t="n">
         <v>0.001</v>
@@ -8200,7 +8200,7 @@
         <v>15</v>
       </c>
       <c r="E378" t="n">
-        <v>0.6641</v>
+        <v>0.6638</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
@@ -8220,7 +8220,7 @@
         <v>15</v>
       </c>
       <c r="E379" t="n">
-        <v>0.9183</v>
+        <v>0.9184</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
@@ -8400,7 +8400,7 @@
         <v>14</v>
       </c>
       <c r="E388" t="n">
-        <v>0.3251</v>
+        <v>0.325</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -8420,7 +8420,7 @@
         <v>14</v>
       </c>
       <c r="E389" t="n">
-        <v>0.3177</v>
+        <v>0.3174</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>14</v>
       </c>
       <c r="E399" t="n">
-        <v>0.0388</v>
+        <v>0.0387</v>
       </c>
       <c r="F399" t="n">
         <v>0</v>
@@ -8760,10 +8760,10 @@
         <v>14</v>
       </c>
       <c r="E406" t="n">
-        <v>0.0864</v>
+        <v>0.0863</v>
       </c>
       <c r="F406" t="n">
-        <v>0.6909</v>
+        <v>0.6916</v>
       </c>
     </row>
     <row r="407">
@@ -8780,10 +8780,10 @@
         <v>14</v>
       </c>
       <c r="E407" t="n">
-        <v>0.1147</v>
+        <v>0.1146</v>
       </c>
       <c r="F407" t="n">
-        <v>0.3328</v>
+        <v>0.3334</v>
       </c>
     </row>
     <row r="408">
@@ -8880,7 +8880,7 @@
         <v>14</v>
       </c>
       <c r="E412" t="n">
-        <v>0.1918</v>
+        <v>0.1919</v>
       </c>
       <c r="F412" t="n">
         <v>0.0134</v>
@@ -8900,7 +8900,7 @@
         <v>14</v>
       </c>
       <c r="E413" t="n">
-        <v>0.292</v>
+        <v>0.2918</v>
       </c>
       <c r="F413" t="n">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>14</v>
       </c>
       <c r="E416" t="n">
-        <v>0.1579</v>
+        <v>0.158</v>
       </c>
       <c r="F416" t="n">
         <v>0.0014</v>
@@ -8980,7 +8980,7 @@
         <v>14</v>
       </c>
       <c r="E417" t="n">
-        <v>0.1774</v>
+        <v>0.1773</v>
       </c>
       <c r="F417" t="n">
         <v>0.0013</v>
@@ -9060,7 +9060,7 @@
         <v>15</v>
       </c>
       <c r="E421" t="n">
-        <v>0.4997</v>
+        <v>0.4999</v>
       </c>
       <c r="F421" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>14</v>
       </c>
       <c r="E430" t="n">
-        <v>0.1921</v>
+        <v>0.1919</v>
       </c>
       <c r="F430" t="n">
-        <v>0.0106</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="431">
@@ -9440,7 +9440,7 @@
         <v>14</v>
       </c>
       <c r="E440" t="n">
-        <v>0.0324</v>
+        <v>0.0325</v>
       </c>
       <c r="F440" t="n">
         <v>0</v>
@@ -9460,10 +9460,10 @@
         <v>14</v>
       </c>
       <c r="E441" t="n">
-        <v>0.011</v>
+        <v>0.0112</v>
       </c>
       <c r="F441" t="n">
-        <v>0.6515</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="442">
@@ -9600,10 +9600,10 @@
         <v>14</v>
       </c>
       <c r="E448" t="n">
-        <v>0.0688</v>
+        <v>0.0687</v>
       </c>
       <c r="F448" t="n">
-        <v>0.8895</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="449">
@@ -9620,10 +9620,10 @@
         <v>14</v>
       </c>
       <c r="E449" t="n">
-        <v>0.0574</v>
+        <v>0.0575</v>
       </c>
       <c r="F449" t="n">
-        <v>0.9733</v>
+        <v>0.9729</v>
       </c>
     </row>
     <row r="450">
@@ -9743,7 +9743,7 @@
         <v>0.1531</v>
       </c>
       <c r="F455" t="n">
-        <v>0.0718</v>
+        <v>0.0716</v>
       </c>
     </row>
     <row r="456">
@@ -9800,7 +9800,7 @@
         <v>14</v>
       </c>
       <c r="E458" t="n">
-        <v>0.1983</v>
+        <v>0.1984</v>
       </c>
       <c r="F458" t="n">
         <v>0</v>
@@ -9823,7 +9823,7 @@
         <v>0.1476</v>
       </c>
       <c r="F459" t="n">
-        <v>0.0139</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="460">
@@ -9880,7 +9880,7 @@
         <v>15</v>
       </c>
       <c r="E462" t="n">
-        <v>0.56</v>
+        <v>0.5599</v>
       </c>
       <c r="F462" t="n">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>15</v>
       </c>
       <c r="E463" t="n">
-        <v>0.7423</v>
+        <v>0.7421</v>
       </c>
       <c r="F463" t="n">
         <v>0</v>
@@ -10080,7 +10080,7 @@
         <v>14</v>
       </c>
       <c r="E472" t="n">
-        <v>0.2946</v>
+        <v>0.2944</v>
       </c>
       <c r="F472" t="n">
         <v>0</v>
@@ -10280,7 +10280,7 @@
         <v>14</v>
       </c>
       <c r="E482" t="n">
-        <v>0.0554</v>
+        <v>0.0553</v>
       </c>
       <c r="F482" t="n">
         <v>0</v>
@@ -10300,10 +10300,10 @@
         <v>14</v>
       </c>
       <c r="E483" t="n">
-        <v>0.0214</v>
+        <v>0.0216</v>
       </c>
       <c r="F483" t="n">
-        <v>0.0159</v>
+        <v>0.0145</v>
       </c>
     </row>
     <row r="484">
@@ -10440,10 +10440,10 @@
         <v>14</v>
       </c>
       <c r="E490" t="n">
-        <v>0.0836</v>
+        <v>0.0837</v>
       </c>
       <c r="F490" t="n">
-        <v>0.7127</v>
+        <v>0.7112</v>
       </c>
     </row>
     <row r="491">
@@ -10460,10 +10460,10 @@
         <v>14</v>
       </c>
       <c r="E491" t="n">
-        <v>0.0757</v>
+        <v>0.0759</v>
       </c>
       <c r="F491" t="n">
-        <v>0.8169</v>
+        <v>0.8152</v>
       </c>
     </row>
     <row r="492">
@@ -10580,7 +10580,7 @@
         <v>14</v>
       </c>
       <c r="E497" t="n">
-        <v>0.2326</v>
+        <v>0.2328</v>
       </c>
       <c r="F497" t="n">
         <v>0.0011</v>
@@ -10640,7 +10640,7 @@
         <v>14</v>
       </c>
       <c r="E500" t="n">
-        <v>0.2477</v>
+        <v>0.2475</v>
       </c>
       <c r="F500" t="n">
         <v>0</v>
@@ -10660,7 +10660,7 @@
         <v>14</v>
       </c>
       <c r="E501" t="n">
-        <v>0.179</v>
+        <v>0.1792</v>
       </c>
       <c r="F501" t="n">
         <v>0.0005</v>
@@ -10720,7 +10720,7 @@
         <v>15</v>
       </c>
       <c r="E504" t="n">
-        <v>0.5978</v>
+        <v>0.5979</v>
       </c>
       <c r="F504" t="n">
         <v>0</v>
@@ -10740,7 +10740,7 @@
         <v>15</v>
       </c>
       <c r="E505" t="n">
-        <v>0.755</v>
+        <v>0.7549</v>
       </c>
       <c r="F505" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>14</v>
       </c>
       <c r="E514" t="n">
-        <v>0.2414</v>
+        <v>0.2413</v>
       </c>
       <c r="F514" t="n">
         <v>0.0026</v>
@@ -10940,7 +10940,7 @@
         <v>14</v>
       </c>
       <c r="E515" t="n">
-        <v>0.2674</v>
+        <v>0.2672</v>
       </c>
       <c r="F515" t="n">
         <v>0.0006</v>
@@ -11140,10 +11140,10 @@
         <v>14</v>
       </c>
       <c r="E525" t="n">
-        <v>0.0253</v>
+        <v>0.0256</v>
       </c>
       <c r="F525" t="n">
-        <v>0.011</v>
+        <v>0.0099</v>
       </c>
     </row>
     <row r="526">
@@ -11283,7 +11283,7 @@
         <v>0.1062</v>
       </c>
       <c r="F532" t="n">
-        <v>0.5413</v>
+        <v>0.5415</v>
       </c>
     </row>
     <row r="533">
@@ -11300,10 +11300,10 @@
         <v>14</v>
       </c>
       <c r="E533" t="n">
-        <v>0.0645</v>
+        <v>0.0644</v>
       </c>
       <c r="F533" t="n">
-        <v>0.9716</v>
+        <v>0.9721</v>
       </c>
     </row>
     <row r="534">
@@ -11400,7 +11400,7 @@
         <v>14</v>
       </c>
       <c r="E538" t="n">
-        <v>0.2311</v>
+        <v>0.2312</v>
       </c>
       <c r="F538" t="n">
         <v>0.0045</v>
@@ -11500,7 +11500,7 @@
         <v>14</v>
       </c>
       <c r="E543" t="n">
-        <v>0.201</v>
+        <v>0.2012</v>
       </c>
       <c r="F543" t="n">
         <v>0.0006</v>
@@ -11580,7 +11580,7 @@
         <v>15</v>
       </c>
       <c r="E547" t="n">
-        <v>0.5313</v>
+        <v>0.531</v>
       </c>
       <c r="F547" t="n">
         <v>0</v>
@@ -11780,7 +11780,7 @@
         <v>14</v>
       </c>
       <c r="E557" t="n">
-        <v>0.266</v>
+        <v>0.2661</v>
       </c>
       <c r="F557" t="n">
         <v>0.0002</v>
@@ -11960,7 +11960,7 @@
         <v>14</v>
       </c>
       <c r="E566" t="n">
-        <v>0.065</v>
+        <v>0.0649</v>
       </c>
       <c r="F566" t="n">
         <v>0</v>
@@ -11980,7 +11980,7 @@
         <v>14</v>
       </c>
       <c r="E567" t="n">
-        <v>0.0408</v>
+        <v>0.0409</v>
       </c>
       <c r="F567" t="n">
         <v>0</v>
@@ -12120,10 +12120,10 @@
         <v>14</v>
       </c>
       <c r="E574" t="n">
-        <v>0.093</v>
+        <v>0.0927</v>
       </c>
       <c r="F574" t="n">
-        <v>0.6279</v>
+        <v>0.6321</v>
       </c>
     </row>
     <row r="575">
@@ -12140,10 +12140,10 @@
         <v>14</v>
       </c>
       <c r="E575" t="n">
-        <v>0.0966</v>
+        <v>0.0964</v>
       </c>
       <c r="F575" t="n">
-        <v>0.5792</v>
+        <v>0.5823</v>
       </c>
     </row>
     <row r="576">
@@ -12260,7 +12260,7 @@
         <v>14</v>
       </c>
       <c r="E581" t="n">
-        <v>0.3583</v>
+        <v>0.3584</v>
       </c>
       <c r="F581" t="n">
         <v>0</v>
@@ -12320,7 +12320,7 @@
         <v>14</v>
       </c>
       <c r="E584" t="n">
-        <v>0.2275</v>
+        <v>0.2278</v>
       </c>
       <c r="F584" t="n">
         <v>0</v>
@@ -12340,7 +12340,7 @@
         <v>14</v>
       </c>
       <c r="E585" t="n">
-        <v>0.2353</v>
+        <v>0.2354</v>
       </c>
       <c r="F585" t="n">
         <v>0</v>
@@ -12400,7 +12400,7 @@
         <v>15</v>
       </c>
       <c r="E588" t="n">
-        <v>0.5195</v>
+        <v>0.5192</v>
       </c>
       <c r="F588" t="n">
         <v>0</v>
@@ -12600,7 +12600,7 @@
         <v>14</v>
       </c>
       <c r="E598" t="n">
-        <v>0.3452</v>
+        <v>0.3453</v>
       </c>
       <c r="F598" t="n">
         <v>0</v>
@@ -12620,7 +12620,7 @@
         <v>14</v>
       </c>
       <c r="E599" t="n">
-        <v>0.2967</v>
+        <v>0.2965</v>
       </c>
       <c r="F599" t="n">
         <v>0</v>
@@ -12800,7 +12800,7 @@
         <v>14</v>
       </c>
       <c r="E608" t="n">
-        <v>0.0504</v>
+        <v>0.0503</v>
       </c>
       <c r="F608" t="n">
         <v>0</v>
@@ -12820,10 +12820,10 @@
         <v>14</v>
       </c>
       <c r="E609" t="n">
-        <v>0.0209</v>
+        <v>0.021</v>
       </c>
       <c r="F609" t="n">
-        <v>0.0284</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="610">
@@ -12960,10 +12960,10 @@
         <v>14</v>
       </c>
       <c r="E616" t="n">
-        <v>0.0935</v>
+        <v>0.0936</v>
       </c>
       <c r="F616" t="n">
-        <v>0.5456</v>
+        <v>0.5451</v>
       </c>
     </row>
     <row r="617">
@@ -12980,10 +12980,10 @@
         <v>14</v>
       </c>
       <c r="E617" t="n">
-        <v>0.0742</v>
+        <v>0.0743</v>
       </c>
       <c r="F617" t="n">
-        <v>0.8161</v>
+        <v>0.8157</v>
       </c>
     </row>
     <row r="618">
@@ -13100,7 +13100,7 @@
         <v>14</v>
       </c>
       <c r="E623" t="n">
-        <v>0.1947</v>
+        <v>0.1948</v>
       </c>
       <c r="F623" t="n">
         <v>0.0079</v>
@@ -13180,7 +13180,7 @@
         <v>14</v>
       </c>
       <c r="E627" t="n">
-        <v>0.1997</v>
+        <v>0.1995</v>
       </c>
       <c r="F627" t="n">
         <v>0.0001</v>
@@ -13260,7 +13260,7 @@
         <v>15</v>
       </c>
       <c r="E631" t="n">
-        <v>0.6362</v>
+        <v>0.636</v>
       </c>
       <c r="F631" t="n">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>14</v>
       </c>
       <c r="E640" t="n">
-        <v>0.28</v>
+        <v>0.2798</v>
       </c>
       <c r="F640" t="n">
         <v>0</v>
@@ -13460,7 +13460,7 @@
         <v>14</v>
       </c>
       <c r="E641" t="n">
-        <v>0.3225</v>
+        <v>0.3224</v>
       </c>
       <c r="F641" t="n">
         <v>0</v>
@@ -13660,10 +13660,10 @@
         <v>14</v>
       </c>
       <c r="E651" t="n">
-        <v>0.0195</v>
+        <v>0.0196</v>
       </c>
       <c r="F651" t="n">
-        <v>0.0587</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="652">
@@ -13800,10 +13800,10 @@
         <v>14</v>
       </c>
       <c r="E658" t="n">
-        <v>0.0852</v>
+        <v>0.0854</v>
       </c>
       <c r="F658" t="n">
-        <v>0.6902</v>
+        <v>0.6874</v>
       </c>
     </row>
     <row r="659">
@@ -13820,7 +13820,7 @@
         <v>14</v>
       </c>
       <c r="E659" t="n">
-        <v>0.0489</v>
+        <v>0.0488</v>
       </c>
       <c r="F659" t="n">
         <v>0.9962</v>
@@ -13920,7 +13920,7 @@
         <v>14</v>
       </c>
       <c r="E664" t="n">
-        <v>0.2297</v>
+        <v>0.2298</v>
       </c>
       <c r="F664" t="n">
         <v>0.0012</v>
@@ -13940,10 +13940,10 @@
         <v>14</v>
       </c>
       <c r="E665" t="n">
-        <v>0.1594</v>
+        <v>0.1595</v>
       </c>
       <c r="F665" t="n">
-        <v>0.0569</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="666">
@@ -14000,7 +14000,7 @@
         <v>14</v>
       </c>
       <c r="E668" t="n">
-        <v>0.1681</v>
+        <v>0.1682</v>
       </c>
       <c r="F668" t="n">
         <v>0.0003</v>
@@ -14020,7 +14020,7 @@
         <v>14</v>
       </c>
       <c r="E669" t="n">
-        <v>0.1602</v>
+        <v>0.1603</v>
       </c>
       <c r="F669" t="n">
         <v>0.0023</v>
@@ -14080,7 +14080,7 @@
         <v>15</v>
       </c>
       <c r="E672" t="n">
-        <v>0.681</v>
+        <v>0.6812</v>
       </c>
       <c r="F672" t="n">
         <v>0</v>
@@ -14300,7 +14300,7 @@
         <v>14</v>
       </c>
       <c r="E683" t="n">
-        <v>0.2621</v>
+        <v>0.2625</v>
       </c>
       <c r="F683" t="n">
         <v>0.0002</v>
@@ -14480,7 +14480,7 @@
         <v>14</v>
       </c>
       <c r="E692" t="n">
-        <v>0.0378</v>
+        <v>0.0377</v>
       </c>
       <c r="F692" t="n">
         <v>0</v>
@@ -14500,10 +14500,10 @@
         <v>14</v>
       </c>
       <c r="E693" t="n">
-        <v>0.0281</v>
+        <v>0.0277</v>
       </c>
       <c r="F693" t="n">
-        <v>0.002</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="694">
@@ -14640,10 +14640,10 @@
         <v>14</v>
       </c>
       <c r="E700" t="n">
-        <v>0.0764</v>
+        <v>0.0767</v>
       </c>
       <c r="F700" t="n">
-        <v>0.8218</v>
+        <v>0.8186</v>
       </c>
     </row>
     <row r="701">
@@ -14660,10 +14660,10 @@
         <v>14</v>
       </c>
       <c r="E701" t="n">
-        <v>0.0847</v>
+        <v>0.0851</v>
       </c>
       <c r="F701" t="n">
-        <v>0.7143</v>
+        <v>0.7085</v>
       </c>
     </row>
     <row r="702">
@@ -14760,7 +14760,7 @@
         <v>14</v>
       </c>
       <c r="E706" t="n">
-        <v>0.2731</v>
+        <v>0.2734</v>
       </c>
       <c r="F706" t="n">
         <v>0.0001</v>
@@ -14780,7 +14780,7 @@
         <v>14</v>
       </c>
       <c r="E707" t="n">
-        <v>0.2629</v>
+        <v>0.263</v>
       </c>
       <c r="F707" t="n">
         <v>0.0002</v>
@@ -14840,7 +14840,7 @@
         <v>14</v>
       </c>
       <c r="E710" t="n">
-        <v>0.1841</v>
+        <v>0.1839</v>
       </c>
       <c r="F710" t="n">
         <v>0.0002</v>
@@ -14920,7 +14920,7 @@
         <v>15</v>
       </c>
       <c r="E714" t="n">
-        <v>0.6971</v>
+        <v>0.6972</v>
       </c>
       <c r="F714" t="n">
         <v>0</v>
@@ -14940,7 +14940,7 @@
         <v>15</v>
       </c>
       <c r="E715" t="n">
-        <v>0.6826</v>
+        <v>0.6832</v>
       </c>
       <c r="F715" t="n">
         <v>0</v>
@@ -15120,10 +15120,10 @@
         <v>14</v>
       </c>
       <c r="E724" t="n">
-        <v>0.21</v>
+        <v>0.2104</v>
       </c>
       <c r="F724" t="n">
-        <v>0.0054</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="725">
@@ -15140,7 +15140,7 @@
         <v>14</v>
       </c>
       <c r="E725" t="n">
-        <v>0.4027</v>
+        <v>0.4025</v>
       </c>
       <c r="F725" t="n">
         <v>0</v>
@@ -15320,10 +15320,10 @@
         <v>14</v>
       </c>
       <c r="E734" t="n">
-        <v>0.0176</v>
+        <v>0.018</v>
       </c>
       <c r="F734" t="n">
-        <v>0.0433</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="735">
@@ -15340,7 +15340,7 @@
         <v>14</v>
       </c>
       <c r="E735" t="n">
-        <v>0.0474</v>
+        <v>0.0472</v>
       </c>
       <c r="F735" t="n">
         <v>0</v>
@@ -15480,10 +15480,10 @@
         <v>14</v>
       </c>
       <c r="E742" t="n">
-        <v>0.0674</v>
+        <v>0.0669</v>
       </c>
       <c r="F742" t="n">
-        <v>0.9214</v>
+        <v>0.9249</v>
       </c>
     </row>
     <row r="743">
@@ -15500,10 +15500,10 @@
         <v>14</v>
       </c>
       <c r="E743" t="n">
-        <v>0.0744</v>
+        <v>0.0743</v>
       </c>
       <c r="F743" t="n">
-        <v>0.8527</v>
+        <v>0.8528</v>
       </c>
     </row>
     <row r="744">
@@ -15600,10 +15600,10 @@
         <v>14</v>
       </c>
       <c r="E748" t="n">
-        <v>0.1844</v>
+        <v>0.184</v>
       </c>
       <c r="F748" t="n">
-        <v>0.0225</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="749">
@@ -15620,7 +15620,7 @@
         <v>14</v>
       </c>
       <c r="E749" t="n">
-        <v>0.3225</v>
+        <v>0.3223</v>
       </c>
       <c r="F749" t="n">
         <v>0</v>
@@ -15680,10 +15680,10 @@
         <v>14</v>
       </c>
       <c r="E752" t="n">
-        <v>0.1407</v>
+        <v>0.1402</v>
       </c>
       <c r="F752" t="n">
-        <v>0.0088</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="753">
@@ -15700,7 +15700,7 @@
         <v>14</v>
       </c>
       <c r="E753" t="n">
-        <v>0.2521</v>
+        <v>0.2519</v>
       </c>
       <c r="F753" t="n">
         <v>0</v>
@@ -15760,7 +15760,7 @@
         <v>15</v>
       </c>
       <c r="E756" t="n">
-        <v>0.555</v>
+        <v>0.5545</v>
       </c>
       <c r="F756" t="n">
         <v>0</v>
@@ -15780,7 +15780,7 @@
         <v>15</v>
       </c>
       <c r="E757" t="n">
-        <v>0.8525</v>
+        <v>0.8523</v>
       </c>
       <c r="F757" t="n">
         <v>0</v>
@@ -15960,7 +15960,7 @@
         <v>14</v>
       </c>
       <c r="E766" t="n">
-        <v>0.2972</v>
+        <v>0.2973</v>
       </c>
       <c r="F766" t="n">
         <v>0</v>
@@ -15980,7 +15980,7 @@
         <v>14</v>
       </c>
       <c r="E767" t="n">
-        <v>0.2447</v>
+        <v>0.2452</v>
       </c>
       <c r="F767" t="n">
         <v>0.0004</v>
@@ -16180,7 +16180,7 @@
         <v>14</v>
       </c>
       <c r="E777" t="n">
-        <v>0.0022</v>
+        <v>0.0023</v>
       </c>
       <c r="F777" t="n">
         <v>1</v>
@@ -16320,10 +16320,10 @@
         <v>14</v>
       </c>
       <c r="E784" t="n">
-        <v>0.0894</v>
+        <v>0.0893</v>
       </c>
       <c r="F784" t="n">
-        <v>0.621</v>
+        <v>0.6228</v>
       </c>
     </row>
     <row r="785">
@@ -16340,10 +16340,10 @@
         <v>14</v>
       </c>
       <c r="E785" t="n">
-        <v>0.0522</v>
+        <v>0.0517</v>
       </c>
       <c r="F785" t="n">
-        <v>0.9904</v>
+        <v>0.9914</v>
       </c>
     </row>
     <row r="786">
@@ -16460,10 +16460,10 @@
         <v>14</v>
       </c>
       <c r="E791" t="n">
-        <v>0.1737</v>
+        <v>0.1732</v>
       </c>
       <c r="F791" t="n">
-        <v>0.0275</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="792">
@@ -16540,10 +16540,10 @@
         <v>14</v>
       </c>
       <c r="E795" t="n">
-        <v>0.1535</v>
+        <v>0.1542</v>
       </c>
       <c r="F795" t="n">
-        <v>0.0097</v>
+        <v>0.0093</v>
       </c>
     </row>
     <row r="796">
@@ -16600,7 +16600,7 @@
         <v>15</v>
       </c>
       <c r="E798" t="n">
-        <v>0.5793</v>
+        <v>0.5792</v>
       </c>
       <c r="F798" t="n">
         <v>0</v>
@@ -16620,7 +16620,7 @@
         <v>15</v>
       </c>
       <c r="E799" t="n">
-        <v>0.8167</v>
+        <v>0.817</v>
       </c>
       <c r="F799" t="n">
         <v>0</v>
@@ -16800,7 +16800,7 @@
         <v>14</v>
       </c>
       <c r="E808" t="n">
-        <v>0.3218</v>
+        <v>0.3213</v>
       </c>
       <c r="F808" t="n">
         <v>0</v>
@@ -16820,7 +16820,7 @@
         <v>14</v>
       </c>
       <c r="E809" t="n">
-        <v>0.3094</v>
+        <v>0.3096</v>
       </c>
       <c r="F809" t="n">
         <v>0</v>
@@ -17000,7 +17000,7 @@
         <v>14</v>
       </c>
       <c r="E818" t="n">
-        <v>0.0587</v>
+        <v>0.0582</v>
       </c>
       <c r="F818" t="n">
         <v>0</v>
@@ -17020,10 +17020,10 @@
         <v>14</v>
       </c>
       <c r="E819" t="n">
-        <v>0.025</v>
+        <v>0.0251</v>
       </c>
       <c r="F819" t="n">
-        <v>0.0077</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="820">
@@ -17160,10 +17160,10 @@
         <v>14</v>
       </c>
       <c r="E826" t="n">
-        <v>0.0992</v>
+        <v>0.0998</v>
       </c>
       <c r="F826" t="n">
-        <v>0.4685</v>
+        <v>0.4618</v>
       </c>
     </row>
     <row r="827">
@@ -17183,7 +17183,7 @@
         <v>0.067</v>
       </c>
       <c r="F827" t="n">
-        <v>0.8983</v>
+        <v>0.8987</v>
       </c>
     </row>
     <row r="828">
@@ -17280,7 +17280,7 @@
         <v>14</v>
       </c>
       <c r="E832" t="n">
-        <v>0.2168</v>
+        <v>0.2167</v>
       </c>
       <c r="F832" t="n">
         <v>0.0021</v>
@@ -17300,10 +17300,10 @@
         <v>14</v>
       </c>
       <c r="E833" t="n">
-        <v>0.1998</v>
+        <v>0.2</v>
       </c>
       <c r="F833" t="n">
-        <v>0.0059</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="834">
@@ -17360,7 +17360,7 @@
         <v>14</v>
       </c>
       <c r="E836" t="n">
-        <v>0.1876</v>
+        <v>0.1872</v>
       </c>
       <c r="F836" t="n">
         <v>0</v>
@@ -17380,10 +17380,10 @@
         <v>14</v>
       </c>
       <c r="E837" t="n">
-        <v>0.1536</v>
+        <v>0.1539</v>
       </c>
       <c r="F837" t="n">
-        <v>0.0055</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="838">
@@ -17440,7 +17440,7 @@
         <v>15</v>
       </c>
       <c r="E840" t="n">
-        <v>0.7437</v>
+        <v>0.7439</v>
       </c>
       <c r="F840" t="n">
         <v>0</v>
@@ -17460,7 +17460,7 @@
         <v>15</v>
       </c>
       <c r="E841" t="n">
-        <v>0.8911</v>
+        <v>0.8912</v>
       </c>
       <c r="F841" t="n">
         <v>0</v>
@@ -17640,7 +17640,7 @@
         <v>14</v>
       </c>
       <c r="E850" t="n">
-        <v>0.2239</v>
+        <v>0.224</v>
       </c>
       <c r="F850" t="n">
         <v>0.0016</v>
@@ -17660,7 +17660,7 @@
         <v>14</v>
       </c>
       <c r="E851" t="n">
-        <v>0.2545</v>
+        <v>0.2544</v>
       </c>
       <c r="F851" t="n">
         <v>0.0002</v>
@@ -17840,7 +17840,7 @@
         <v>14</v>
       </c>
       <c r="E860" t="n">
-        <v>0.0295</v>
+        <v>0.0294</v>
       </c>
       <c r="F860" t="n">
         <v>0</v>
@@ -17860,10 +17860,10 @@
         <v>14</v>
       </c>
       <c r="E861" t="n">
-        <v>0.0226</v>
+        <v>0.0223</v>
       </c>
       <c r="F861" t="n">
-        <v>0.0169</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="862">
@@ -18000,10 +18000,10 @@
         <v>14</v>
       </c>
       <c r="E868" t="n">
-        <v>0.0746</v>
+        <v>0.0747</v>
       </c>
       <c r="F868" t="n">
-        <v>0.8245</v>
+        <v>0.8229</v>
       </c>
     </row>
     <row r="869">
@@ -18020,10 +18020,10 @@
         <v>14</v>
       </c>
       <c r="E869" t="n">
-        <v>0.0533</v>
+        <v>0.0534</v>
       </c>
       <c r="F869" t="n">
-        <v>0.9878</v>
+        <v>0.9875</v>
       </c>
     </row>
     <row r="870">
@@ -18140,7 +18140,7 @@
         <v>14</v>
       </c>
       <c r="E875" t="n">
-        <v>0.2066</v>
+        <v>0.2065</v>
       </c>
       <c r="F875" t="n">
         <v>0.0051</v>
@@ -18200,7 +18200,7 @@
         <v>14</v>
       </c>
       <c r="E878" t="n">
-        <v>0.1862</v>
+        <v>0.1861</v>
       </c>
       <c r="F878" t="n">
         <v>0</v>
@@ -18220,7 +18220,7 @@
         <v>14</v>
       </c>
       <c r="E879" t="n">
-        <v>0.1757</v>
+        <v>0.1756</v>
       </c>
       <c r="F879" t="n">
         <v>0.001</v>
@@ -18300,7 +18300,7 @@
         <v>15</v>
       </c>
       <c r="E883" t="n">
-        <v>0.6674</v>
+        <v>0.6672</v>
       </c>
       <c r="F883" t="n">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>14</v>
       </c>
       <c r="E892" t="n">
-        <v>0.2841</v>
+        <v>0.2836</v>
       </c>
       <c r="F892" t="n">
         <v>0</v>
@@ -18500,7 +18500,7 @@
         <v>14</v>
       </c>
       <c r="E893" t="n">
-        <v>0.2766</v>
+        <v>0.2768</v>
       </c>
       <c r="F893" t="n">
         <v>0</v>
@@ -18680,10 +18680,10 @@
         <v>14</v>
       </c>
       <c r="E902" t="n">
-        <v>0.0253</v>
+        <v>0.0249</v>
       </c>
       <c r="F902" t="n">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="903">
@@ -18703,7 +18703,7 @@
         <v>0.0193</v>
       </c>
       <c r="F903" t="n">
-        <v>0.0728</v>
+        <v>0.0727</v>
       </c>
     </row>
     <row r="904">
@@ -18863,7 +18863,7 @@
         <v>0.0572</v>
       </c>
       <c r="F911" t="n">
-        <v>0.9742</v>
+        <v>0.9744</v>
       </c>
     </row>
     <row r="912">
@@ -18960,10 +18960,10 @@
         <v>14</v>
       </c>
       <c r="E916" t="n">
-        <v>0.1573</v>
+        <v>0.1568</v>
       </c>
       <c r="F916" t="n">
-        <v>0.0595</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="917">
@@ -19040,7 +19040,7 @@
         <v>14</v>
       </c>
       <c r="E920" t="n">
-        <v>0.1805</v>
+        <v>0.1801</v>
       </c>
       <c r="F920" t="n">
         <v>0.0001</v>
@@ -19120,7 +19120,7 @@
         <v>15</v>
       </c>
       <c r="E924" t="n">
-        <v>0.5228</v>
+        <v>0.5224</v>
       </c>
       <c r="F924" t="n">
         <v>0</v>
@@ -19340,7 +19340,7 @@
         <v>14</v>
       </c>
       <c r="E935" t="n">
-        <v>0.2082</v>
+        <v>0.2081</v>
       </c>
       <c r="F935" t="n">
         <v>0.0036</v>
@@ -19520,7 +19520,7 @@
         <v>14</v>
       </c>
       <c r="E944" t="n">
-        <v>0.0706</v>
+        <v>0.0707</v>
       </c>
       <c r="F944" t="n">
         <v>0</v>
@@ -19540,10 +19540,10 @@
         <v>14</v>
       </c>
       <c r="E945" t="n">
-        <v>0.0074</v>
+        <v>0.0073</v>
       </c>
       <c r="F945" t="n">
-        <v>0.961</v>
+        <v>0.9651</v>
       </c>
     </row>
     <row r="946">
@@ -19680,10 +19680,10 @@
         <v>14</v>
       </c>
       <c r="E952" t="n">
-        <v>0.0931</v>
+        <v>0.093</v>
       </c>
       <c r="F952" t="n">
-        <v>0.5516</v>
+        <v>0.5525</v>
       </c>
     </row>
     <row r="953">
@@ -19703,7 +19703,7 @@
         <v>0.0555</v>
       </c>
       <c r="F953" t="n">
-        <v>0.9779</v>
+        <v>0.9782</v>
       </c>
     </row>
     <row r="954">
@@ -19800,7 +19800,7 @@
         <v>14</v>
       </c>
       <c r="E958" t="n">
-        <v>0.2338</v>
+        <v>0.2337</v>
       </c>
       <c r="F958" t="n">
         <v>0.0007</v>
@@ -19823,7 +19823,7 @@
         <v>0.152</v>
       </c>
       <c r="F959" t="n">
-        <v>0.0686</v>
+        <v>0.0684</v>
       </c>
     </row>
     <row r="960">
@@ -19880,7 +19880,7 @@
         <v>14</v>
       </c>
       <c r="E962" t="n">
-        <v>0.2153</v>
+        <v>0.2154</v>
       </c>
       <c r="F962" t="n">
         <v>0</v>
@@ -19900,10 +19900,10 @@
         <v>14</v>
       </c>
       <c r="E963" t="n">
-        <v>0.1425</v>
+        <v>0.1424</v>
       </c>
       <c r="F963" t="n">
-        <v>0.0115</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="964">
@@ -19980,7 +19980,7 @@
         <v>15</v>
       </c>
       <c r="E967" t="n">
-        <v>0.7814</v>
+        <v>0.7816</v>
       </c>
       <c r="F967" t="n">
         <v>0</v>
@@ -20160,7 +20160,7 @@
         <v>14</v>
       </c>
       <c r="E976" t="n">
-        <v>0.27</v>
+        <v>0.2702</v>
       </c>
       <c r="F976" t="n">
         <v>0.0001</v>
@@ -20180,7 +20180,7 @@
         <v>14</v>
       </c>
       <c r="E977" t="n">
-        <v>0.3113</v>
+        <v>0.3111</v>
       </c>
       <c r="F977" t="n">
         <v>0</v>
@@ -20360,10 +20360,10 @@
         <v>14</v>
       </c>
       <c r="E986" t="n">
-        <v>0.0212</v>
+        <v>0.0208</v>
       </c>
       <c r="F986" t="n">
-        <v>0.0034</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="987">
@@ -20380,7 +20380,7 @@
         <v>14</v>
       </c>
       <c r="E987" t="n">
-        <v>0.0035</v>
+        <v>0.0036</v>
       </c>
       <c r="F987" t="n">
         <v>1</v>
@@ -20520,10 +20520,10 @@
         <v>14</v>
       </c>
       <c r="E994" t="n">
-        <v>0.0684</v>
+        <v>0.0686</v>
       </c>
       <c r="F994" t="n">
-        <v>0.8941</v>
+        <v>0.8916</v>
       </c>
     </row>
     <row r="995">
@@ -20540,10 +20540,10 @@
         <v>14</v>
       </c>
       <c r="E995" t="n">
-        <v>0.0586</v>
+        <v>0.0584</v>
       </c>
       <c r="F995" t="n">
-        <v>0.9679</v>
+        <v>0.9687</v>
       </c>
     </row>
     <row r="996">
@@ -20640,7 +20640,7 @@
         <v>14</v>
       </c>
       <c r="E1000" t="n">
-        <v>0.2115</v>
+        <v>0.2117</v>
       </c>
       <c r="F1000" t="n">
         <v>0.0038</v>
@@ -20663,7 +20663,7 @@
         <v>0.1858</v>
       </c>
       <c r="F1001" t="n">
-        <v>0.0159</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="1002">
@@ -20720,7 +20720,7 @@
         <v>14</v>
       </c>
       <c r="E1004" t="n">
-        <v>0.1593</v>
+        <v>0.1595</v>
       </c>
       <c r="F1004" t="n">
         <v>0.0011</v>
@@ -20800,7 +20800,7 @@
         <v>15</v>
       </c>
       <c r="E1008" t="n">
-        <v>0.5749</v>
+        <v>0.5753</v>
       </c>
       <c r="F1008" t="n">
         <v>0</v>
@@ -20820,7 +20820,7 @@
         <v>15</v>
       </c>
       <c r="E1009" t="n">
-        <v>0.5721</v>
+        <v>0.572</v>
       </c>
       <c r="F1009" t="n">
         <v>0</v>
@@ -21000,7 +21000,7 @@
         <v>14</v>
       </c>
       <c r="E1018" t="n">
-        <v>0.2538</v>
+        <v>0.2539</v>
       </c>
       <c r="F1018" t="n">
         <v>0.0002</v>
@@ -21020,7 +21020,7 @@
         <v>14</v>
       </c>
       <c r="E1019" t="n">
-        <v>0.3765</v>
+        <v>0.3764</v>
       </c>
       <c r="F1019" t="n">
         <v>0</v>
@@ -21220,10 +21220,10 @@
         <v>14</v>
       </c>
       <c r="E1029" t="n">
-        <v>0.0133</v>
+        <v>0.0134</v>
       </c>
       <c r="F1029" t="n">
-        <v>0.4981</v>
+        <v>0.4851</v>
       </c>
     </row>
     <row r="1030">
@@ -21363,7 +21363,7 @@
         <v>0.0752</v>
       </c>
       <c r="F1036" t="n">
-        <v>0.8098</v>
+        <v>0.8099</v>
       </c>
     </row>
     <row r="1037">
@@ -21380,10 +21380,10 @@
         <v>14</v>
       </c>
       <c r="E1037" t="n">
-        <v>0.0655</v>
+        <v>0.0656</v>
       </c>
       <c r="F1037" t="n">
-        <v>0.9167</v>
+        <v>0.9159</v>
       </c>
     </row>
     <row r="1038">
@@ -21500,7 +21500,7 @@
         <v>14</v>
       </c>
       <c r="E1043" t="n">
-        <v>0.2993</v>
+        <v>0.2991</v>
       </c>
       <c r="F1043" t="n">
         <v>0</v>
@@ -21560,7 +21560,7 @@
         <v>14</v>
       </c>
       <c r="E1046" t="n">
-        <v>0.1894</v>
+        <v>0.1895</v>
       </c>
       <c r="F1046" t="n">
         <v>0</v>
@@ -21580,7 +21580,7 @@
         <v>14</v>
       </c>
       <c r="E1047" t="n">
-        <v>0.2363</v>
+        <v>0.2362</v>
       </c>
       <c r="F1047" t="n">
         <v>0</v>
@@ -21640,7 +21640,7 @@
         <v>15</v>
       </c>
       <c r="E1050" t="n">
-        <v>0.5498</v>
+        <v>0.5496</v>
       </c>
       <c r="F1050" t="n">
         <v>0</v>
@@ -21660,7 +21660,7 @@
         <v>15</v>
       </c>
       <c r="E1051" t="n">
-        <v>0.9457</v>
+        <v>0.9456</v>
       </c>
       <c r="F1051" t="n">
         <v>0</v>
@@ -21840,7 +21840,7 @@
         <v>14</v>
       </c>
       <c r="E1060" t="n">
-        <v>0.3001</v>
+        <v>0.3</v>
       </c>
       <c r="F1060" t="n">
         <v>0</v>
@@ -21860,7 +21860,7 @@
         <v>14</v>
       </c>
       <c r="E1061" t="n">
-        <v>0.4185</v>
+        <v>0.4187</v>
       </c>
       <c r="F1061" t="n">
         <v>0</v>
@@ -22040,7 +22040,7 @@
         <v>14</v>
       </c>
       <c r="E1070" t="n">
-        <v>0.0698</v>
+        <v>0.0697</v>
       </c>
       <c r="F1070" t="n">
         <v>0</v>
@@ -22060,10 +22060,10 @@
         <v>14</v>
       </c>
       <c r="E1071" t="n">
-        <v>0.0284</v>
+        <v>0.0286</v>
       </c>
       <c r="F1071" t="n">
-        <v>0.0018</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="1072">
@@ -22200,10 +22200,10 @@
         <v>14</v>
       </c>
       <c r="E1078" t="n">
-        <v>0.0914</v>
+        <v>0.0913</v>
       </c>
       <c r="F1078" t="n">
-        <v>0.6307</v>
+        <v>0.6312</v>
       </c>
     </row>
     <row r="1079">
@@ -22220,10 +22220,10 @@
         <v>14</v>
       </c>
       <c r="E1079" t="n">
-        <v>0.0499</v>
+        <v>0.0501</v>
       </c>
       <c r="F1079" t="n">
-        <v>0.9962</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="1080">
@@ -22340,7 +22340,7 @@
         <v>14</v>
       </c>
       <c r="E1085" t="n">
-        <v>0.2244</v>
+        <v>0.2246</v>
       </c>
       <c r="F1085" t="n">
         <v>0.0023</v>
@@ -22400,7 +22400,7 @@
         <v>14</v>
       </c>
       <c r="E1088" t="n">
-        <v>0.2239</v>
+        <v>0.2238</v>
       </c>
       <c r="F1088" t="n">
         <v>0</v>
@@ -22420,7 +22420,7 @@
         <v>14</v>
       </c>
       <c r="E1089" t="n">
-        <v>0.1963</v>
+        <v>0.1966</v>
       </c>
       <c r="F1089" t="n">
         <v>0.0002</v>
@@ -22500,7 +22500,7 @@
         <v>15</v>
       </c>
       <c r="E1093" t="n">
-        <v>0.9625</v>
+        <v>0.9626</v>
       </c>
       <c r="F1093" t="n">
         <v>0</v>
@@ -22680,7 +22680,7 @@
         <v>14</v>
       </c>
       <c r="E1102" t="n">
-        <v>0.3344</v>
+        <v>0.3343</v>
       </c>
       <c r="F1102" t="n">
         <v>0</v>
@@ -22700,7 +22700,7 @@
         <v>14</v>
       </c>
       <c r="E1103" t="n">
-        <v>0.247</v>
+        <v>0.2473</v>
       </c>
       <c r="F1103" t="n">
         <v>0.0003</v>
@@ -22880,7 +22880,7 @@
         <v>14</v>
       </c>
       <c r="E1112" t="n">
-        <v>0.0533</v>
+        <v>0.0531</v>
       </c>
       <c r="F1112" t="n">
         <v>0</v>
@@ -22900,10 +22900,10 @@
         <v>14</v>
       </c>
       <c r="E1113" t="n">
-        <v>0.0127</v>
+        <v>0.013</v>
       </c>
       <c r="F1113" t="n">
-        <v>0.4682</v>
+        <v>0.4367</v>
       </c>
     </row>
     <row r="1114">
@@ -23040,10 +23040,10 @@
         <v>14</v>
       </c>
       <c r="E1120" t="n">
-        <v>0.0606</v>
+        <v>0.0609</v>
       </c>
       <c r="F1120" t="n">
-        <v>0.9569</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="1121">
@@ -23060,10 +23060,10 @@
         <v>14</v>
       </c>
       <c r="E1121" t="n">
-        <v>0.0702</v>
+        <v>0.07</v>
       </c>
       <c r="F1121" t="n">
-        <v>0.875</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="1122">
@@ -23160,7 +23160,7 @@
         <v>14</v>
       </c>
       <c r="E1126" t="n">
-        <v>0.1821</v>
+        <v>0.1822</v>
       </c>
       <c r="F1126" t="n">
         <v>0.018</v>
@@ -23180,7 +23180,7 @@
         <v>14</v>
       </c>
       <c r="E1127" t="n">
-        <v>0.2255</v>
+        <v>0.2252</v>
       </c>
       <c r="F1127" t="n">
         <v>0.0015</v>
@@ -23240,7 +23240,7 @@
         <v>14</v>
       </c>
       <c r="E1130" t="n">
-        <v>0.2043</v>
+        <v>0.204</v>
       </c>
       <c r="F1130" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>14</v>
       </c>
       <c r="E1131" t="n">
-        <v>0.1939</v>
+        <v>0.1936</v>
       </c>
       <c r="F1131" t="n">
         <v>0.0002</v>
@@ -23320,7 +23320,7 @@
         <v>15</v>
       </c>
       <c r="E1134" t="n">
-        <v>0.5793</v>
+        <v>0.5792</v>
       </c>
       <c r="F1134" t="n">
         <v>0</v>
@@ -23340,7 +23340,7 @@
         <v>15</v>
       </c>
       <c r="E1135" t="n">
-        <v>0.6984</v>
+        <v>0.6987</v>
       </c>
       <c r="F1135" t="n">
         <v>0</v>
@@ -23520,7 +23520,7 @@
         <v>14</v>
       </c>
       <c r="E1144" t="n">
-        <v>0.2852</v>
+        <v>0.2849</v>
       </c>
       <c r="F1144" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>14</v>
       </c>
       <c r="E1145" t="n">
-        <v>0.2501</v>
+        <v>0.2502</v>
       </c>
       <c r="F1145" t="n">
         <v>0.0005</v>
@@ -23720,7 +23720,7 @@
         <v>14</v>
       </c>
       <c r="E1154" t="n">
-        <v>0.0279</v>
+        <v>0.0282</v>
       </c>
       <c r="F1154" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>14</v>
       </c>
       <c r="E1155" t="n">
-        <v>0.0157</v>
+        <v>0.0156</v>
       </c>
       <c r="F1155" t="n">
-        <v>0.2616</v>
+        <v>0.2702</v>
       </c>
     </row>
     <row r="1156">
@@ -23883,7 +23883,7 @@
         <v>0.0844</v>
       </c>
       <c r="F1162" t="n">
-        <v>0.7345</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="1163">
@@ -23900,10 +23900,10 @@
         <v>14</v>
       </c>
       <c r="E1163" t="n">
-        <v>0.0691</v>
+        <v>0.0692</v>
       </c>
       <c r="F1163" t="n">
-        <v>0.9112</v>
+        <v>0.9101</v>
       </c>
     </row>
     <row r="1164">
@@ -24020,7 +24020,7 @@
         <v>14</v>
       </c>
       <c r="E1169" t="n">
-        <v>0.2474</v>
+        <v>0.2473</v>
       </c>
       <c r="F1169" t="n">
         <v>0.0006</v>
@@ -24080,7 +24080,7 @@
         <v>14</v>
       </c>
       <c r="E1172" t="n">
-        <v>0.1531</v>
+        <v>0.1534</v>
       </c>
       <c r="F1172" t="n">
         <v>0.002</v>
@@ -24100,10 +24100,10 @@
         <v>14</v>
       </c>
       <c r="E1173" t="n">
-        <v>0.1552</v>
+        <v>0.1551</v>
       </c>
       <c r="F1173" t="n">
-        <v>0.0091</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="1174">
@@ -24160,7 +24160,7 @@
         <v>15</v>
       </c>
       <c r="E1176" t="n">
-        <v>0.6027</v>
+        <v>0.6024</v>
       </c>
       <c r="F1176" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>15</v>
       </c>
       <c r="E1177" t="n">
-        <v>0.8348</v>
+        <v>0.8349</v>
       </c>
       <c r="F1177" t="n">
         <v>0</v>
@@ -24360,7 +24360,7 @@
         <v>14</v>
       </c>
       <c r="E1186" t="n">
-        <v>0.3556</v>
+        <v>0.3559</v>
       </c>
       <c r="F1186" t="n">
         <v>0</v>
@@ -24380,7 +24380,7 @@
         <v>14</v>
       </c>
       <c r="E1187" t="n">
-        <v>0.3367</v>
+        <v>0.337</v>
       </c>
       <c r="F1187" t="n">
         <v>0</v>
@@ -24560,7 +24560,7 @@
         <v>14</v>
       </c>
       <c r="E1196" t="n">
-        <v>0.0383</v>
+        <v>0.0385</v>
       </c>
       <c r="F1196" t="n">
         <v>0</v>
@@ -24580,10 +24580,10 @@
         <v>14</v>
       </c>
       <c r="E1197" t="n">
-        <v>0.0162</v>
+        <v>0.016</v>
       </c>
       <c r="F1197" t="n">
-        <v>0.1853</v>
+        <v>0.1965</v>
       </c>
     </row>
     <row r="1198">
@@ -24720,10 +24720,10 @@
         <v>14</v>
       </c>
       <c r="E1204" t="n">
-        <v>0.1045</v>
+        <v>0.1043</v>
       </c>
       <c r="F1204" t="n">
-        <v>0.4382</v>
+        <v>0.4412</v>
       </c>
     </row>
     <row r="1205">
@@ -24740,10 +24740,10 @@
         <v>14</v>
       </c>
       <c r="E1205" t="n">
-        <v>0.084</v>
+        <v>0.0842</v>
       </c>
       <c r="F1205" t="n">
-        <v>0.7148</v>
+        <v>0.7121</v>
       </c>
     </row>
     <row r="1206">
@@ -24840,7 +24840,7 @@
         <v>14</v>
       </c>
       <c r="E1210" t="n">
-        <v>0.195</v>
+        <v>0.1951</v>
       </c>
       <c r="F1210" t="n">
         <v>0.0105</v>
@@ -24860,7 +24860,7 @@
         <v>14</v>
       </c>
       <c r="E1211" t="n">
-        <v>0.2459</v>
+        <v>0.2461</v>
       </c>
       <c r="F1211" t="n">
         <v>0.0005</v>
@@ -24920,7 +24920,7 @@
         <v>14</v>
       </c>
       <c r="E1214" t="n">
-        <v>0.1877</v>
+        <v>0.1879</v>
       </c>
       <c r="F1214" t="n">
         <v>0.0001</v>
@@ -24940,7 +24940,7 @@
         <v>14</v>
       </c>
       <c r="E1215" t="n">
-        <v>0.1856</v>
+        <v>0.1858</v>
       </c>
       <c r="F1215" t="n">
         <v>0.0008</v>
@@ -25000,7 +25000,7 @@
         <v>15</v>
       </c>
       <c r="E1218" t="n">
-        <v>0.6162</v>
+        <v>0.6164</v>
       </c>
       <c r="F1218" t="n">
         <v>0</v>
@@ -25020,7 +25020,7 @@
         <v>15</v>
       </c>
       <c r="E1219" t="n">
-        <v>0.5983</v>
+        <v>0.5986</v>
       </c>
       <c r="F1219" t="n">
         <v>0</v>
@@ -25200,7 +25200,7 @@
         <v>14</v>
       </c>
       <c r="E1228" t="n">
-        <v>0.2257</v>
+        <v>0.2258</v>
       </c>
       <c r="F1228" t="n">
         <v>0.0022</v>
@@ -25220,7 +25220,7 @@
         <v>14</v>
       </c>
       <c r="E1229" t="n">
-        <v>0.3641</v>
+        <v>0.364</v>
       </c>
       <c r="F1229" t="n">
         <v>0</v>
@@ -25400,7 +25400,7 @@
         <v>14</v>
       </c>
       <c r="E1238" t="n">
-        <v>0.0452</v>
+        <v>0.0451</v>
       </c>
       <c r="F1238" t="n">
         <v>0</v>
@@ -25420,7 +25420,7 @@
         <v>14</v>
       </c>
       <c r="E1239" t="n">
-        <v>0.0378</v>
+        <v>0.038</v>
       </c>
       <c r="F1239" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>14</v>
       </c>
       <c r="E1246" t="n">
-        <v>0.071</v>
+        <v>0.0712</v>
       </c>
       <c r="F1246" t="n">
-        <v>0.8881</v>
+        <v>0.8858</v>
       </c>
     </row>
     <row r="1247">
@@ -25580,10 +25580,10 @@
         <v>14</v>
       </c>
       <c r="E1247" t="n">
-        <v>0.0787</v>
+        <v>0.0789</v>
       </c>
       <c r="F1247" t="n">
-        <v>0.8011</v>
+        <v>0.7987</v>
       </c>
     </row>
     <row r="1248">
@@ -25680,7 +25680,7 @@
         <v>14</v>
       </c>
       <c r="E1252" t="n">
-        <v>0.2387</v>
+        <v>0.2388</v>
       </c>
       <c r="F1252" t="n">
         <v>0.001</v>
@@ -25700,7 +25700,7 @@
         <v>14</v>
       </c>
       <c r="E1253" t="n">
-        <v>0.3597</v>
+        <v>0.3596</v>
       </c>
       <c r="F1253" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>14</v>
       </c>
       <c r="E1256" t="n">
-        <v>0.1886</v>
+        <v>0.1885</v>
       </c>
       <c r="F1256" t="n">
         <v>0.0001</v>
@@ -25780,7 +25780,7 @@
         <v>14</v>
       </c>
       <c r="E1257" t="n">
-        <v>0.267</v>
+        <v>0.2669</v>
       </c>
       <c r="F1257" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>15</v>
       </c>
       <c r="E1260" t="n">
-        <v>0.563</v>
+        <v>0.5633</v>
       </c>
       <c r="F1260" t="n">
         <v>0</v>
@@ -26060,10 +26060,10 @@
         <v>14</v>
       </c>
       <c r="E1271" t="n">
-        <v>0.2066</v>
+        <v>0.2063</v>
       </c>
       <c r="F1271" t="n">
-        <v>0.006</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="1272">
@@ -26240,7 +26240,7 @@
         <v>14</v>
       </c>
       <c r="E1280" t="n">
-        <v>0.0857</v>
+        <v>0.0858</v>
       </c>
       <c r="F1280" t="n">
         <v>0</v>
@@ -26260,10 +26260,10 @@
         <v>14</v>
       </c>
       <c r="E1281" t="n">
-        <v>0.0225</v>
+        <v>0.0224</v>
       </c>
       <c r="F1281" t="n">
-        <v>0.0262</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="1282">
@@ -26400,10 +26400,10 @@
         <v>14</v>
       </c>
       <c r="E1288" t="n">
-        <v>0.1194</v>
+        <v>0.1195</v>
       </c>
       <c r="F1288" t="n">
-        <v>0.2869</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="1289">
@@ -26420,10 +26420,10 @@
         <v>14</v>
       </c>
       <c r="E1289" t="n">
-        <v>0.0784</v>
+        <v>0.0786</v>
       </c>
       <c r="F1289" t="n">
-        <v>0.7971</v>
+        <v>0.7946</v>
       </c>
     </row>
     <row r="1290">
@@ -26520,7 +26520,7 @@
         <v>14</v>
       </c>
       <c r="E1294" t="n">
-        <v>0.3628</v>
+        <v>0.3629</v>
       </c>
       <c r="F1294" t="n">
         <v>0</v>
@@ -26540,7 +26540,7 @@
         <v>14</v>
       </c>
       <c r="E1295" t="n">
-        <v>0.2122</v>
+        <v>0.2123</v>
       </c>
       <c r="F1295" t="n">
         <v>0.0044</v>
@@ -26600,7 +26600,7 @@
         <v>14</v>
       </c>
       <c r="E1298" t="n">
-        <v>0.2569</v>
+        <v>0.2571</v>
       </c>
       <c r="F1298" t="n">
         <v>0</v>
@@ -26620,7 +26620,7 @@
         <v>14</v>
       </c>
       <c r="E1299" t="n">
-        <v>0.1865</v>
+        <v>0.1868</v>
       </c>
       <c r="F1299" t="n">
         <v>0.0007</v>
@@ -26700,7 +26700,7 @@
         <v>15</v>
       </c>
       <c r="E1303" t="n">
-        <v>0.9729</v>
+        <v>0.9728</v>
       </c>
       <c r="F1303" t="n">
         <v>0</v>
@@ -26880,7 +26880,7 @@
         <v>14</v>
       </c>
       <c r="E1312" t="n">
-        <v>0.3117</v>
+        <v>0.3119</v>
       </c>
       <c r="F1312" t="n">
         <v>0</v>
@@ -26900,7 +26900,7 @@
         <v>14</v>
       </c>
       <c r="E1313" t="n">
-        <v>0.3256</v>
+        <v>0.3254</v>
       </c>
       <c r="F1313" t="n">
         <v>0</v>
@@ -27080,7 +27080,7 @@
         <v>14</v>
       </c>
       <c r="E1322" t="n">
-        <v>0.0284</v>
+        <v>0.0283</v>
       </c>
       <c r="F1322" t="n">
         <v>0.0001</v>
@@ -27100,10 +27100,10 @@
         <v>14</v>
       </c>
       <c r="E1323" t="n">
-        <v>0.0255</v>
+        <v>0.0254</v>
       </c>
       <c r="F1323" t="n">
-        <v>0.0132</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="1324">
@@ -27240,10 +27240,10 @@
         <v>14</v>
       </c>
       <c r="E1330" t="n">
-        <v>0.0865</v>
+        <v>0.0867</v>
       </c>
       <c r="F1330" t="n">
-        <v>0.7598</v>
+        <v>0.7578</v>
       </c>
     </row>
     <row r="1331">
@@ -27260,10 +27260,10 @@
         <v>14</v>
       </c>
       <c r="E1331" t="n">
-        <v>0.0592</v>
+        <v>0.0597</v>
       </c>
       <c r="F1331" t="n">
-        <v>0.9844</v>
+        <v>0.9832</v>
       </c>
     </row>
     <row r="1332">
@@ -27360,10 +27360,10 @@
         <v>14</v>
       </c>
       <c r="E1336" t="n">
-        <v>0.1835</v>
+        <v>0.1836</v>
       </c>
       <c r="F1336" t="n">
-        <v>0.0352</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="1337">
@@ -27380,10 +27380,10 @@
         <v>14</v>
       </c>
       <c r="E1337" t="n">
-        <v>0.1787</v>
+        <v>0.1788</v>
       </c>
       <c r="F1337" t="n">
-        <v>0.0433</v>
+        <v>0.0431</v>
       </c>
     </row>
     <row r="1338">
@@ -27440,10 +27440,10 @@
         <v>14</v>
       </c>
       <c r="E1340" t="n">
-        <v>0.1535</v>
+        <v>0.1536</v>
       </c>
       <c r="F1340" t="n">
-        <v>0.0061</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="1341">
@@ -27460,10 +27460,10 @@
         <v>14</v>
       </c>
       <c r="E1341" t="n">
-        <v>0.1779</v>
+        <v>0.1774</v>
       </c>
       <c r="F1341" t="n">
-        <v>0.0034</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="1342">
@@ -27520,7 +27520,7 @@
         <v>15</v>
       </c>
       <c r="E1344" t="n">
-        <v>0.6707</v>
+        <v>0.6709</v>
       </c>
       <c r="F1344" t="n">
         <v>0</v>
@@ -27720,7 +27720,7 @@
         <v>14</v>
       </c>
       <c r="E1354" t="n">
-        <v>0.2925</v>
+        <v>0.2924</v>
       </c>
       <c r="F1354" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>14</v>
       </c>
       <c r="E1355" t="n">
-        <v>0.3063</v>
+        <v>0.3062</v>
       </c>
       <c r="F1355" t="n">
         <v>0</v>
@@ -27920,7 +27920,7 @@
         <v>14</v>
       </c>
       <c r="E1364" t="n">
-        <v>0.0523</v>
+        <v>0.0524</v>
       </c>
       <c r="F1364" t="n">
         <v>0</v>
@@ -27940,10 +27940,10 @@
         <v>14</v>
       </c>
       <c r="E1365" t="n">
-        <v>0.0056</v>
+        <v>0.0055</v>
       </c>
       <c r="F1365" t="n">
-        <v>0.999</v>
+        <v>0.9992</v>
       </c>
     </row>
     <row r="1366">
@@ -28083,7 +28083,7 @@
         <v>0.0895</v>
       </c>
       <c r="F1372" t="n">
-        <v>0.6381</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="1373">
@@ -28103,7 +28103,7 @@
         <v>0.0804</v>
       </c>
       <c r="F1373" t="n">
-        <v>0.7641</v>
+        <v>0.7636</v>
       </c>
     </row>
     <row r="1374">
@@ -28200,10 +28200,10 @@
         <v>14</v>
       </c>
       <c r="E1378" t="n">
-        <v>0.1866</v>
+        <v>0.1865</v>
       </c>
       <c r="F1378" t="n">
-        <v>0.0176</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="1379">
@@ -28280,7 +28280,7 @@
         <v>14</v>
       </c>
       <c r="E1382" t="n">
-        <v>0.2031</v>
+        <v>0.2032</v>
       </c>
       <c r="F1382" t="n">
         <v>0</v>
@@ -28300,7 +28300,7 @@
         <v>14</v>
       </c>
       <c r="E1383" t="n">
-        <v>0.1472</v>
+        <v>0.1473</v>
       </c>
       <c r="F1383" t="n">
         <v>0.011</v>
@@ -28360,7 +28360,7 @@
         <v>15</v>
       </c>
       <c r="E1386" t="n">
-        <v>0.5209</v>
+        <v>0.521</v>
       </c>
       <c r="F1386" t="n">
         <v>0</v>
@@ -28560,7 +28560,7 @@
         <v>14</v>
       </c>
       <c r="E1396" t="n">
-        <v>0.2887</v>
+        <v>0.2888</v>
       </c>
       <c r="F1396" t="n">
         <v>0.0001</v>
@@ -28580,7 +28580,7 @@
         <v>14</v>
       </c>
       <c r="E1397" t="n">
-        <v>0.2976</v>
+        <v>0.2975</v>
       </c>
       <c r="F1397" t="n">
         <v>0</v>
@@ -28783,7 +28783,7 @@
         <v>0.0074</v>
       </c>
       <c r="F1407" t="n">
-        <v>0.9771</v>
+        <v>0.9775</v>
       </c>
     </row>
     <row r="1408">
@@ -28920,10 +28920,10 @@
         <v>14</v>
       </c>
       <c r="E1414" t="n">
-        <v>0.0871</v>
+        <v>0.087</v>
       </c>
       <c r="F1414" t="n">
-        <v>0.7439</v>
+        <v>0.7451</v>
       </c>
     </row>
     <row r="1415">
@@ -28940,10 +28940,10 @@
         <v>14</v>
       </c>
       <c r="E1415" t="n">
-        <v>0.0675</v>
+        <v>0.0674</v>
       </c>
       <c r="F1415" t="n">
-        <v>0.9442</v>
+        <v>0.9447</v>
       </c>
     </row>
     <row r="1416">
@@ -29040,7 +29040,7 @@
         <v>14</v>
       </c>
       <c r="E1420" t="n">
-        <v>0.1828</v>
+        <v>0.1827</v>
       </c>
       <c r="F1420" t="n">
         <v>0.034</v>
@@ -29060,7 +29060,7 @@
         <v>14</v>
       </c>
       <c r="E1421" t="n">
-        <v>0.2219</v>
+        <v>0.222</v>
       </c>
       <c r="F1421" t="n">
         <v>0.0049</v>
@@ -29140,7 +29140,7 @@
         <v>14</v>
       </c>
       <c r="E1425" t="n">
-        <v>0.1802</v>
+        <v>0.1801</v>
       </c>
       <c r="F1425" t="n">
         <v>0.0018</v>
@@ -29200,7 +29200,7 @@
         <v>15</v>
       </c>
       <c r="E1428" t="n">
-        <v>0.5641</v>
+        <v>0.5639</v>
       </c>
       <c r="F1428" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>14</v>
       </c>
       <c r="E1439" t="n">
-        <v>0.2373</v>
+        <v>0.237</v>
       </c>
       <c r="F1439" t="n">
         <v>0.0013</v>
@@ -29600,7 +29600,7 @@
         <v>14</v>
       </c>
       <c r="E1448" t="n">
-        <v>0.0287</v>
+        <v>0.0286</v>
       </c>
       <c r="F1448" t="n">
         <v>0</v>
@@ -29620,10 +29620,10 @@
         <v>14</v>
       </c>
       <c r="E1449" t="n">
-        <v>0.0232</v>
+        <v>0.023</v>
       </c>
       <c r="F1449" t="n">
-        <v>0.0286</v>
+        <v>0.0304</v>
       </c>
     </row>
     <row r="1450">
@@ -29763,7 +29763,7 @@
         <v>0.1262</v>
       </c>
       <c r="F1456" t="n">
-        <v>0.2516</v>
+        <v>0.2517</v>
       </c>
     </row>
     <row r="1457">
@@ -29780,10 +29780,10 @@
         <v>14</v>
       </c>
       <c r="E1457" t="n">
-        <v>0.0815</v>
+        <v>0.0817</v>
       </c>
       <c r="F1457" t="n">
-        <v>0.7804</v>
+        <v>0.7788</v>
       </c>
     </row>
     <row r="1458">
@@ -29880,10 +29880,10 @@
         <v>14</v>
       </c>
       <c r="E1462" t="n">
-        <v>0.2075</v>
+        <v>0.2074</v>
       </c>
       <c r="F1462" t="n">
-        <v>0.0074</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="1463">
@@ -29900,7 +29900,7 @@
         <v>14</v>
       </c>
       <c r="E1463" t="n">
-        <v>0.2883</v>
+        <v>0.2882</v>
       </c>
       <c r="F1463" t="n">
         <v>0</v>
@@ -29960,7 +29960,7 @@
         <v>14</v>
       </c>
       <c r="E1466" t="n">
-        <v>0.1933</v>
+        <v>0.1931</v>
       </c>
       <c r="F1466" t="n">
         <v>0</v>
@@ -29980,7 +29980,7 @@
         <v>14</v>
       </c>
       <c r="E1467" t="n">
-        <v>0.1918</v>
+        <v>0.1917</v>
       </c>
       <c r="F1467" t="n">
         <v>0.0006</v>
@@ -30040,7 +30040,7 @@
         <v>15</v>
       </c>
       <c r="E1470" t="n">
-        <v>0.5528</v>
+        <v>0.5527</v>
       </c>
       <c r="F1470" t="n">
         <v>0</v>
@@ -30060,7 +30060,7 @@
         <v>15</v>
       </c>
       <c r="E1471" t="n">
-        <v>0.8677</v>
+        <v>0.8676</v>
       </c>
       <c r="F1471" t="n">
         <v>0</v>
@@ -30440,7 +30440,7 @@
         <v>14</v>
       </c>
       <c r="E1490" t="n">
-        <v>0.0836</v>
+        <v>0.0835</v>
       </c>
       <c r="F1490" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0.0062</v>
       </c>
       <c r="F1491" t="n">
-        <v>0.9986</v>
+        <v>0.9985</v>
       </c>
     </row>
     <row r="1492">
@@ -30603,7 +30603,7 @@
         <v>0.0676</v>
       </c>
       <c r="F1498" t="n">
-        <v>0.9355</v>
+        <v>0.9354</v>
       </c>
     </row>
     <row r="1499">
@@ -30620,10 +30620,10 @@
         <v>14</v>
       </c>
       <c r="E1499" t="n">
-        <v>0.1045</v>
+        <v>0.1046</v>
       </c>
       <c r="F1499" t="n">
-        <v>0.4972</v>
+        <v>0.4963</v>
       </c>
     </row>
     <row r="1500">
@@ -30720,7 +30720,7 @@
         <v>14</v>
       </c>
       <c r="E1504" t="n">
-        <v>0.237</v>
+        <v>0.2372</v>
       </c>
       <c r="F1504" t="n">
         <v>0.0017</v>
@@ -30740,7 +30740,7 @@
         <v>14</v>
       </c>
       <c r="E1505" t="n">
-        <v>0.1627</v>
+        <v>0.1628</v>
       </c>
       <c r="F1505" t="n">
         <v>0.0711</v>
@@ -30880,7 +30880,7 @@
         <v>15</v>
       </c>
       <c r="E1512" t="n">
-        <v>0.5292</v>
+        <v>0.5293</v>
       </c>
       <c r="F1512" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>15</v>
       </c>
       <c r="E1513" t="n">
-        <v>0.9377</v>
+        <v>0.9378</v>
       </c>
       <c r="F1513" t="n">
         <v>0</v>
@@ -31080,7 +31080,7 @@
         <v>14</v>
       </c>
       <c r="E1522" t="n">
-        <v>0.2536</v>
+        <v>0.2537</v>
       </c>
       <c r="F1522" t="n">
         <v>0.0004</v>
@@ -31100,7 +31100,7 @@
         <v>14</v>
       </c>
       <c r="E1523" t="n">
-        <v>0.2879</v>
+        <v>0.2882</v>
       </c>
       <c r="F1523" t="n">
         <v>0</v>
@@ -31280,7 +31280,7 @@
         <v>14</v>
       </c>
       <c r="E1532" t="n">
-        <v>0.0452</v>
+        <v>0.0453</v>
       </c>
       <c r="F1532" t="n">
         <v>0</v>
@@ -31300,7 +31300,7 @@
         <v>14</v>
       </c>
       <c r="E1533" t="n">
-        <v>0.0359</v>
+        <v>0.0355</v>
       </c>
       <c r="F1533" t="n">
         <v>0</v>
@@ -31440,10 +31440,10 @@
         <v>14</v>
       </c>
       <c r="E1540" t="n">
-        <v>0.0959</v>
+        <v>0.0962</v>
       </c>
       <c r="F1540" t="n">
-        <v>0.5784</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="1541">
@@ -31463,7 +31463,7 @@
         <v>0.0886</v>
       </c>
       <c r="F1541" t="n">
-        <v>0.6781</v>
+        <v>0.6787</v>
       </c>
     </row>
     <row r="1542">
@@ -31560,10 +31560,10 @@
         <v>14</v>
       </c>
       <c r="E1546" t="n">
-        <v>0.2223</v>
+        <v>0.222</v>
       </c>
       <c r="F1546" t="n">
-        <v>0.0029</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="1547">
@@ -31580,7 +31580,7 @@
         <v>14</v>
       </c>
       <c r="E1547" t="n">
-        <v>0.2964</v>
+        <v>0.2963</v>
       </c>
       <c r="F1547" t="n">
         <v>0</v>
@@ -31660,7 +31660,7 @@
         <v>14</v>
       </c>
       <c r="E1551" t="n">
-        <v>0.2299</v>
+        <v>0.2296</v>
       </c>
       <c r="F1551" t="n">
         <v>0</v>
@@ -31720,7 +31720,7 @@
         <v>15</v>
       </c>
       <c r="E1554" t="n">
-        <v>0.5615</v>
+        <v>0.5614</v>
       </c>
       <c r="F1554" t="n">
         <v>0</v>
@@ -31740,7 +31740,7 @@
         <v>15</v>
       </c>
       <c r="E1555" t="n">
-        <v>0.4974</v>
+        <v>0.4977</v>
       </c>
       <c r="F1555" t="n">
         <v>0</v>
@@ -31940,7 +31940,7 @@
         <v>14</v>
       </c>
       <c r="E1565" t="n">
-        <v>0.3943</v>
+        <v>0.3942</v>
       </c>
       <c r="F1565" t="n">
         <v>0</v>
@@ -32120,7 +32120,7 @@
         <v>14</v>
       </c>
       <c r="E1574" t="n">
-        <v>0.0805</v>
+        <v>0.0806</v>
       </c>
       <c r="F1574" t="n">
         <v>0</v>
@@ -32140,10 +32140,10 @@
         <v>14</v>
       </c>
       <c r="E1575" t="n">
-        <v>0.0108</v>
+        <v>0.0109</v>
       </c>
       <c r="F1575" t="n">
-        <v>0.7222</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="1576">
@@ -32283,7 +32283,7 @@
         <v>0.091</v>
       </c>
       <c r="F1582" t="n">
-        <v>0.6842</v>
+        <v>0.683</v>
       </c>
     </row>
     <row r="1583">
@@ -32300,10 +32300,10 @@
         <v>14</v>
       </c>
       <c r="E1583" t="n">
-        <v>0.0504</v>
+        <v>0.0508</v>
       </c>
       <c r="F1583" t="n">
-        <v>0.9975</v>
+        <v>0.9972</v>
       </c>
     </row>
     <row r="1584">
@@ -32400,7 +32400,7 @@
         <v>14</v>
       </c>
       <c r="E1588" t="n">
-        <v>0.2346</v>
+        <v>0.2345</v>
       </c>
       <c r="F1588" t="n">
         <v>0.0022</v>
@@ -32423,7 +32423,7 @@
         <v>0.1523</v>
       </c>
       <c r="F1589" t="n">
-        <v>0.1125</v>
+        <v>0.1126</v>
       </c>
     </row>
     <row r="1590">
@@ -32480,7 +32480,7 @@
         <v>14</v>
       </c>
       <c r="E1592" t="n">
-        <v>0.2487</v>
+        <v>0.2488</v>
       </c>
       <c r="F1592" t="n">
         <v>0</v>
@@ -32503,7 +32503,7 @@
         <v>0.155</v>
       </c>
       <c r="F1593" t="n">
-        <v>0.0111</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="1594">
@@ -32560,7 +32560,7 @@
         <v>15</v>
       </c>
       <c r="E1596" t="n">
-        <v>0.4882</v>
+        <v>0.4883</v>
       </c>
       <c r="F1596" t="n">
         <v>0</v>
@@ -32760,7 +32760,7 @@
         <v>14</v>
       </c>
       <c r="E1606" t="n">
-        <v>0.3097</v>
+        <v>0.3096</v>
       </c>
       <c r="F1606" t="n">
         <v>0</v>
@@ -32780,7 +32780,7 @@
         <v>14</v>
       </c>
       <c r="E1607" t="n">
-        <v>0.335</v>
+        <v>0.3349</v>
       </c>
       <c r="F1607" t="n">
         <v>0</v>
@@ -32960,7 +32960,7 @@
         <v>14</v>
       </c>
       <c r="E1616" t="n">
-        <v>0.042</v>
+        <v>0.0419</v>
       </c>
       <c r="F1616" t="n">
         <v>0</v>
@@ -32980,10 +32980,10 @@
         <v>14</v>
       </c>
       <c r="E1617" t="n">
-        <v>0.01</v>
+        <v>0.0101</v>
       </c>
       <c r="F1617" t="n">
-        <v>0.7329</v>
+        <v>0.7273</v>
       </c>
     </row>
     <row r="1618">
@@ -33123,7 +33123,7 @@
         <v>0.0946</v>
       </c>
       <c r="F1624" t="n">
-        <v>0.5869</v>
+        <v>0.5862</v>
       </c>
     </row>
     <row r="1625">
@@ -33140,10 +33140,10 @@
         <v>14</v>
       </c>
       <c r="E1625" t="n">
-        <v>0.072</v>
+        <v>0.0719</v>
       </c>
       <c r="F1625" t="n">
-        <v>0.8783</v>
+        <v>0.8794</v>
       </c>
     </row>
     <row r="1626">
@@ -33260,7 +33260,7 @@
         <v>14</v>
       </c>
       <c r="E1631" t="n">
-        <v>0.2601</v>
+        <v>0.2603</v>
       </c>
       <c r="F1631" t="n">
         <v>0.0002</v>
@@ -33400,7 +33400,7 @@
         <v>15</v>
       </c>
       <c r="E1638" t="n">
-        <v>0.5167</v>
+        <v>0.5168</v>
       </c>
       <c r="F1638" t="n">
         <v>0</v>
@@ -33420,7 +33420,7 @@
         <v>15</v>
       </c>
       <c r="E1639" t="n">
-        <v>0.5349</v>
+        <v>0.535</v>
       </c>
       <c r="F1639" t="n">
         <v>0</v>
@@ -33620,7 +33620,7 @@
         <v>14</v>
       </c>
       <c r="E1649" t="n">
-        <v>0.2578</v>
+        <v>0.2577</v>
       </c>
       <c r="F1649" t="n">
         <v>0.0002</v>
@@ -33820,10 +33820,10 @@
         <v>14</v>
       </c>
       <c r="E1659" t="n">
-        <v>0.0056</v>
+        <v>0.0055</v>
       </c>
       <c r="F1659" t="n">
-        <v>0.998</v>
+        <v>0.9983</v>
       </c>
     </row>
     <row r="1660">
@@ -33960,10 +33960,10 @@
         <v>14</v>
       </c>
       <c r="E1666" t="n">
-        <v>0.0885</v>
+        <v>0.0886</v>
       </c>
       <c r="F1666" t="n">
-        <v>0.634</v>
+        <v>0.6333</v>
       </c>
     </row>
     <row r="1667">
@@ -33980,10 +33980,10 @@
         <v>14</v>
       </c>
       <c r="E1667" t="n">
-        <v>0.0608</v>
+        <v>0.0609</v>
       </c>
       <c r="F1667" t="n">
-        <v>0.9554</v>
+        <v>0.9546</v>
       </c>
     </row>
     <row r="1668">
@@ -34080,7 +34080,7 @@
         <v>14</v>
       </c>
       <c r="E1672" t="n">
-        <v>0.2658</v>
+        <v>0.2659</v>
       </c>
       <c r="F1672" t="n">
         <v>0.0001</v>
@@ -34103,7 +34103,7 @@
         <v>0.1464</v>
       </c>
       <c r="F1673" t="n">
-        <v>0.0954</v>
+        <v>0.0952</v>
       </c>
     </row>
     <row r="1674">
@@ -34180,10 +34180,10 @@
         <v>14</v>
       </c>
       <c r="E1677" t="n">
-        <v>0.1435</v>
+        <v>0.1436</v>
       </c>
       <c r="F1677" t="n">
-        <v>0.0121</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="1678">
@@ -34260,7 +34260,7 @@
         <v>15</v>
       </c>
       <c r="E1681" t="n">
-        <v>0.7478</v>
+        <v>0.748</v>
       </c>
       <c r="F1681" t="n">
         <v>0</v>
@@ -34440,7 +34440,7 @@
         <v>14</v>
       </c>
       <c r="E1690" t="n">
-        <v>0.3133</v>
+        <v>0.3129</v>
       </c>
       <c r="F1690" t="n">
         <v>0</v>
@@ -34460,7 +34460,7 @@
         <v>14</v>
       </c>
       <c r="E1691" t="n">
-        <v>0.2711</v>
+        <v>0.2709</v>
       </c>
       <c r="F1691" t="n">
         <v>0.0001</v>
@@ -34640,7 +34640,7 @@
         <v>14</v>
       </c>
       <c r="E1700" t="n">
-        <v>0.0319</v>
+        <v>0.0321</v>
       </c>
       <c r="F1700" t="n">
         <v>0</v>
@@ -34660,10 +34660,10 @@
         <v>14</v>
       </c>
       <c r="E1701" t="n">
-        <v>0.0208</v>
+        <v>0.0209</v>
       </c>
       <c r="F1701" t="n">
-        <v>0.0389</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="1702">
@@ -34800,10 +34800,10 @@
         <v>14</v>
       </c>
       <c r="E1708" t="n">
-        <v>0.0836</v>
+        <v>0.0834</v>
       </c>
       <c r="F1708" t="n">
-        <v>0.7115</v>
+        <v>0.7146</v>
       </c>
     </row>
     <row r="1709">
@@ -34820,10 +34820,10 @@
         <v>14</v>
       </c>
       <c r="E1709" t="n">
-        <v>0.083</v>
+        <v>0.0828</v>
       </c>
       <c r="F1709" t="n">
-        <v>0.721</v>
+        <v>0.7235</v>
       </c>
     </row>
     <row r="1710">
@@ -35000,7 +35000,7 @@
         <v>14</v>
       </c>
       <c r="E1718" t="n">
-        <v>0.1907</v>
+        <v>0.1903</v>
       </c>
       <c r="F1718" t="n">
         <v>0.0001</v>
@@ -35020,10 +35020,10 @@
         <v>14</v>
       </c>
       <c r="E1719" t="n">
-        <v>0.183</v>
+        <v>0.1828</v>
       </c>
       <c r="F1719" t="n">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="1720">
@@ -35080,7 +35080,7 @@
         <v>15</v>
       </c>
       <c r="E1722" t="n">
-        <v>0.5523</v>
+        <v>0.5527</v>
       </c>
       <c r="F1722" t="n">
         <v>0</v>
@@ -35280,10 +35280,10 @@
         <v>14</v>
       </c>
       <c r="E1732" t="n">
-        <v>0.2537</v>
+        <v>0.2541</v>
       </c>
       <c r="F1732" t="n">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="1733">
@@ -35300,7 +35300,7 @@
         <v>14</v>
       </c>
       <c r="E1733" t="n">
-        <v>0.3804</v>
+        <v>0.3799</v>
       </c>
       <c r="F1733" t="n">
         <v>0</v>
@@ -35480,7 +35480,7 @@
         <v>14</v>
       </c>
       <c r="E1742" t="n">
-        <v>0.0714</v>
+        <v>0.0711</v>
       </c>
       <c r="F1742" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>14</v>
       </c>
       <c r="E1743" t="n">
-        <v>0.0236</v>
+        <v>0.0238</v>
       </c>
       <c r="F1743" t="n">
-        <v>0.0084</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="1744">
@@ -35640,10 +35640,10 @@
         <v>14</v>
       </c>
       <c r="E1750" t="n">
-        <v>0.0836</v>
+        <v>0.084</v>
       </c>
       <c r="F1750" t="n">
-        <v>0.7366</v>
+        <v>0.7322</v>
       </c>
     </row>
     <row r="1751">
@@ -35660,10 +35660,10 @@
         <v>14</v>
       </c>
       <c r="E1751" t="n">
-        <v>0.0741</v>
+        <v>0.0736</v>
       </c>
       <c r="F1751" t="n">
-        <v>0.8558</v>
+        <v>0.8614</v>
       </c>
     </row>
     <row r="1752">
@@ -35760,7 +35760,7 @@
         <v>14</v>
       </c>
       <c r="E1756" t="n">
-        <v>0.2488</v>
+        <v>0.2489</v>
       </c>
       <c r="F1756" t="n">
         <v>0.0005</v>
@@ -35840,7 +35840,7 @@
         <v>14</v>
       </c>
       <c r="E1760" t="n">
-        <v>0.2386</v>
+        <v>0.2382</v>
       </c>
       <c r="F1760" t="n">
         <v>0</v>
@@ -35860,7 +35860,7 @@
         <v>14</v>
       </c>
       <c r="E1761" t="n">
-        <v>0.1792</v>
+        <v>0.1795</v>
       </c>
       <c r="F1761" t="n">
         <v>0.0005</v>
@@ -35920,7 +35920,7 @@
         <v>15</v>
       </c>
       <c r="E1764" t="n">
-        <v>0.5423</v>
+        <v>0.5425</v>
       </c>
       <c r="F1764" t="n">
         <v>0</v>
@@ -35940,7 +35940,7 @@
         <v>15</v>
       </c>
       <c r="E1765" t="n">
-        <v>0.6301</v>
+        <v>0.6297</v>
       </c>
       <c r="F1765" t="n">
         <v>0</v>
@@ -36140,7 +36140,7 @@
         <v>14</v>
       </c>
       <c r="E1775" t="n">
-        <v>0.3139</v>
+        <v>0.3138</v>
       </c>
       <c r="F1775" t="n">
         <v>0</v>
@@ -36320,7 +36320,7 @@
         <v>14</v>
       </c>
       <c r="E1784" t="n">
-        <v>0.0594</v>
+        <v>0.0595</v>
       </c>
       <c r="F1784" t="n">
         <v>0</v>
@@ -36480,10 +36480,10 @@
         <v>14</v>
       </c>
       <c r="E1792" t="n">
-        <v>0.0731</v>
+        <v>0.073</v>
       </c>
       <c r="F1792" t="n">
-        <v>0.8833</v>
+        <v>0.8848</v>
       </c>
     </row>
     <row r="1793">
@@ -36500,10 +36500,10 @@
         <v>14</v>
       </c>
       <c r="E1793" t="n">
-        <v>0.0787</v>
+        <v>0.0791</v>
       </c>
       <c r="F1793" t="n">
-        <v>0.8228</v>
+        <v>0.8184</v>
       </c>
     </row>
     <row r="1794">
@@ -36620,10 +36620,10 @@
         <v>14</v>
       </c>
       <c r="E1799" t="n">
-        <v>0.1855</v>
+        <v>0.1853</v>
       </c>
       <c r="F1799" t="n">
-        <v>0.0262</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="1800">
@@ -36680,7 +36680,7 @@
         <v>14</v>
       </c>
       <c r="E1802" t="n">
-        <v>0.2403</v>
+        <v>0.2404</v>
       </c>
       <c r="F1802" t="n">
         <v>0</v>
@@ -36700,7 +36700,7 @@
         <v>14</v>
       </c>
       <c r="E1803" t="n">
-        <v>0.1753</v>
+        <v>0.1754</v>
       </c>
       <c r="F1803" t="n">
         <v>0.0017</v>
@@ -36780,7 +36780,7 @@
         <v>15</v>
       </c>
       <c r="E1807" t="n">
-        <v>0.6103</v>
+        <v>0.6102</v>
       </c>
       <c r="F1807" t="n">
         <v>0</v>
@@ -36960,7 +36960,7 @@
         <v>14</v>
       </c>
       <c r="E1816" t="n">
-        <v>0.3714</v>
+        <v>0.3711</v>
       </c>
       <c r="F1816" t="n">
         <v>0</v>
@@ -36980,7 +36980,7 @@
         <v>14</v>
       </c>
       <c r="E1817" t="n">
-        <v>0.2437</v>
+        <v>0.2435</v>
       </c>
       <c r="F1817" t="n">
         <v>0.0033</v>
@@ -37160,7 +37160,7 @@
         <v>14</v>
       </c>
       <c r="E1826" t="n">
-        <v>0.0758</v>
+        <v>0.0761</v>
       </c>
       <c r="F1826" t="n">
         <v>0</v>
@@ -37180,10 +37180,10 @@
         <v>14</v>
       </c>
       <c r="E1827" t="n">
-        <v>0.0246</v>
+        <v>0.0243</v>
       </c>
       <c r="F1827" t="n">
-        <v>0.0346</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="1828">
@@ -37320,10 +37320,10 @@
         <v>14</v>
       </c>
       <c r="E1834" t="n">
-        <v>0.0811</v>
+        <v>0.0808</v>
       </c>
       <c r="F1834" t="n">
-        <v>0.8696</v>
+        <v>0.8721</v>
       </c>
     </row>
     <row r="1835">
@@ -37340,7 +37340,7 @@
         <v>14</v>
       </c>
       <c r="E1835" t="n">
-        <v>0.0543</v>
+        <v>0.0542</v>
       </c>
       <c r="F1835" t="n">
         <v>0.9973</v>
@@ -37440,10 +37440,10 @@
         <v>14</v>
       </c>
       <c r="E1840" t="n">
-        <v>0.2298</v>
+        <v>0.2302</v>
       </c>
       <c r="F1840" t="n">
-        <v>0.0074</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="1841">
@@ -37460,10 +37460,10 @@
         <v>14</v>
       </c>
       <c r="E1841" t="n">
-        <v>0.1742</v>
+        <v>0.1745</v>
       </c>
       <c r="F1841" t="n">
-        <v>0.0756</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="1842">
@@ -37520,7 +37520,7 @@
         <v>14</v>
       </c>
       <c r="E1844" t="n">
-        <v>0.2213</v>
+        <v>0.2216</v>
       </c>
       <c r="F1844" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>14</v>
       </c>
       <c r="E1845" t="n">
-        <v>0.2028</v>
+        <v>0.2031</v>
       </c>
       <c r="F1845" t="n">
         <v>0.0014</v>
@@ -37600,7 +37600,7 @@
         <v>15</v>
       </c>
       <c r="E1848" t="n">
-        <v>0.6003</v>
+        <v>0.6</v>
       </c>
       <c r="F1848" t="n">
         <v>0</v>
@@ -37620,7 +37620,7 @@
         <v>15</v>
       </c>
       <c r="E1849" t="n">
-        <v>0.8509</v>
+        <v>0.8507</v>
       </c>
       <c r="F1849" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>14</v>
       </c>
       <c r="E1858" t="n">
-        <v>0.2728</v>
+        <v>0.2729</v>
       </c>
       <c r="F1858" t="n">
         <v>0.0001</v>
@@ -37820,7 +37820,7 @@
         <v>14</v>
       </c>
       <c r="E1859" t="n">
-        <v>0.439</v>
+        <v>0.4389</v>
       </c>
       <c r="F1859" t="n">
         <v>0</v>
@@ -38000,7 +38000,7 @@
         <v>14</v>
       </c>
       <c r="E1868" t="n">
-        <v>0.0902</v>
+        <v>0.0903</v>
       </c>
       <c r="F1868" t="n">
         <v>0</v>
@@ -38160,10 +38160,10 @@
         <v>14</v>
       </c>
       <c r="E1876" t="n">
-        <v>0.0871</v>
+        <v>0.0872</v>
       </c>
       <c r="F1876" t="n">
-        <v>0.6546</v>
+        <v>0.6523</v>
       </c>
     </row>
     <row r="1877">
@@ -38180,10 +38180,10 @@
         <v>14</v>
       </c>
       <c r="E1877" t="n">
-        <v>0.0865</v>
+        <v>0.0867</v>
       </c>
       <c r="F1877" t="n">
-        <v>0.6622</v>
+        <v>0.6606</v>
       </c>
     </row>
     <row r="1878">
@@ -38280,7 +38280,7 @@
         <v>14</v>
       </c>
       <c r="E1882" t="n">
-        <v>0.3248</v>
+        <v>0.3244</v>
       </c>
       <c r="F1882" t="n">
         <v>0</v>
@@ -38360,7 +38360,7 @@
         <v>14</v>
       </c>
       <c r="E1886" t="n">
-        <v>0.2832</v>
+        <v>0.2833</v>
       </c>
       <c r="F1886" t="n">
         <v>0</v>
@@ -38440,7 +38440,7 @@
         <v>15</v>
       </c>
       <c r="E1890" t="n">
-        <v>0.5663</v>
+        <v>0.5667</v>
       </c>
       <c r="F1890" t="n">
         <v>0</v>
@@ -38460,7 +38460,7 @@
         <v>15</v>
       </c>
       <c r="E1891" t="n">
-        <v>0.6727</v>
+        <v>0.6729</v>
       </c>
       <c r="F1891" t="n">
         <v>0</v>
@@ -38640,7 +38640,7 @@
         <v>14</v>
       </c>
       <c r="E1900" t="n">
-        <v>0.2779</v>
+        <v>0.2777</v>
       </c>
       <c r="F1900" t="n">
         <v>0</v>
@@ -38660,7 +38660,7 @@
         <v>14</v>
       </c>
       <c r="E1901" t="n">
-        <v>0.2805</v>
+        <v>0.2807</v>
       </c>
       <c r="F1901" t="n">
         <v>0</v>
@@ -38840,7 +38840,7 @@
         <v>14</v>
       </c>
       <c r="E1910" t="n">
-        <v>0.043</v>
+        <v>0.0432</v>
       </c>
       <c r="F1910" t="n">
         <v>0</v>
@@ -38860,7 +38860,7 @@
         <v>14</v>
       </c>
       <c r="E1911" t="n">
-        <v>0.0313</v>
+        <v>0.0312</v>
       </c>
       <c r="F1911" t="n">
         <v>0.0002</v>
@@ -39000,10 +39000,10 @@
         <v>14</v>
       </c>
       <c r="E1918" t="n">
-        <v>0.0749</v>
+        <v>0.0748</v>
       </c>
       <c r="F1918" t="n">
-        <v>0.8332</v>
+        <v>0.8353</v>
       </c>
     </row>
     <row r="1919">
@@ -39023,7 +39023,7 @@
         <v>0.0717</v>
       </c>
       <c r="F1919" t="n">
-        <v>0.8697</v>
+        <v>0.8699</v>
       </c>
     </row>
     <row r="1920">
@@ -39120,7 +39120,7 @@
         <v>14</v>
       </c>
       <c r="E1924" t="n">
-        <v>0.2037</v>
+        <v>0.2036</v>
       </c>
       <c r="F1924" t="n">
         <v>0.0071</v>
@@ -39140,10 +39140,10 @@
         <v>14</v>
       </c>
       <c r="E1925" t="n">
-        <v>0.1935</v>
+        <v>0.1938</v>
       </c>
       <c r="F1925" t="n">
-        <v>0.0114</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="1926">
@@ -39200,7 +39200,7 @@
         <v>14</v>
       </c>
       <c r="E1928" t="n">
-        <v>0.1675</v>
+        <v>0.1677</v>
       </c>
       <c r="F1928" t="n">
         <v>0.0004</v>
@@ -39300,7 +39300,7 @@
         <v>15</v>
       </c>
       <c r="E1933" t="n">
-        <v>0.56</v>
+        <v>0.5601</v>
       </c>
       <c r="F1933" t="n">
         <v>0</v>
@@ -39500,7 +39500,7 @@
         <v>14</v>
       </c>
       <c r="E1943" t="n">
-        <v>0.465</v>
+        <v>0.4652</v>
       </c>
       <c r="F1943" t="n">
         <v>0</v>
@@ -39680,10 +39680,10 @@
         <v>14</v>
       </c>
       <c r="E1952" t="n">
-        <v>0.0127</v>
+        <v>0.0131</v>
       </c>
       <c r="F1952" t="n">
-        <v>0.2339</v>
+        <v>0.2037</v>
       </c>
     </row>
     <row r="1953">
@@ -39700,10 +39700,10 @@
         <v>14</v>
       </c>
       <c r="E1953" t="n">
-        <v>0.0223</v>
+        <v>0.0226</v>
       </c>
       <c r="F1953" t="n">
-        <v>0.0199</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="1954">
@@ -39840,10 +39840,10 @@
         <v>14</v>
       </c>
       <c r="E1960" t="n">
-        <v>0.0998</v>
+        <v>0.0997</v>
       </c>
       <c r="F1960" t="n">
-        <v>0.5566</v>
+        <v>0.5587</v>
       </c>
     </row>
     <row r="1961">
@@ -39860,10 +39860,10 @@
         <v>14</v>
       </c>
       <c r="E1961" t="n">
-        <v>0.0693</v>
+        <v>0.0691</v>
       </c>
       <c r="F1961" t="n">
-        <v>0.9231</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="1962">
@@ -39960,7 +39960,7 @@
         <v>14</v>
       </c>
       <c r="E1966" t="n">
-        <v>0.2681</v>
+        <v>0.268</v>
       </c>
       <c r="F1966" t="n">
         <v>0.0002</v>
@@ -39980,7 +39980,7 @@
         <v>14</v>
       </c>
       <c r="E1967" t="n">
-        <v>0.3173</v>
+        <v>0.3175</v>
       </c>
       <c r="F1967" t="n">
         <v>0</v>
@@ -40040,7 +40040,7 @@
         <v>14</v>
       </c>
       <c r="E1970" t="n">
-        <v>0.1793</v>
+        <v>0.1794</v>
       </c>
       <c r="F1970" t="n">
         <v>0.0002</v>
@@ -40060,7 +40060,7 @@
         <v>14</v>
       </c>
       <c r="E1971" t="n">
-        <v>0.2063</v>
+        <v>0.2065</v>
       </c>
       <c r="F1971" t="n">
         <v>0.0001</v>
@@ -40120,7 +40120,7 @@
         <v>15</v>
       </c>
       <c r="E1974" t="n">
-        <v>0.5291</v>
+        <v>0.5293</v>
       </c>
       <c r="F1974" t="n">
         <v>0</v>
@@ -40140,7 +40140,7 @@
         <v>15</v>
       </c>
       <c r="E1975" t="n">
-        <v>0.7716</v>
+        <v>0.7715</v>
       </c>
       <c r="F1975" t="n">
         <v>0</v>
@@ -40320,7 +40320,7 @@
         <v>14</v>
       </c>
       <c r="E1984" t="n">
-        <v>0.3423</v>
+        <v>0.3426</v>
       </c>
       <c r="F1984" t="n">
         <v>0</v>
@@ -40340,7 +40340,7 @@
         <v>14</v>
       </c>
       <c r="E1985" t="n">
-        <v>0.3282</v>
+        <v>0.3283</v>
       </c>
       <c r="F1985" t="n">
         <v>0</v>
@@ -40540,10 +40540,10 @@
         <v>14</v>
       </c>
       <c r="E1995" t="n">
-        <v>0.0146</v>
+        <v>0.0144</v>
       </c>
       <c r="F1995" t="n">
-        <v>0.2912</v>
+        <v>0.3015</v>
       </c>
     </row>
     <row r="1996">
@@ -40683,7 +40683,7 @@
         <v>0.082</v>
       </c>
       <c r="F2002" t="n">
-        <v>0.7908</v>
+        <v>0.7913</v>
       </c>
     </row>
     <row r="2003">
@@ -40700,10 +40700,10 @@
         <v>14</v>
       </c>
       <c r="E2003" t="n">
-        <v>0.0662</v>
+        <v>0.0663</v>
       </c>
       <c r="F2003" t="n">
-        <v>0.945</v>
+        <v>0.9447</v>
       </c>
     </row>
     <row r="2004">
@@ -40800,10 +40800,10 @@
         <v>14</v>
       </c>
       <c r="E2008" t="n">
-        <v>0.217</v>
+        <v>0.2168</v>
       </c>
       <c r="F2008" t="n">
-        <v>0.0053</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="2009">
@@ -40820,7 +40820,7 @@
         <v>14</v>
       </c>
       <c r="E2009" t="n">
-        <v>0.2372</v>
+        <v>0.2371</v>
       </c>
       <c r="F2009" t="n">
         <v>0.0017</v>
@@ -40880,7 +40880,7 @@
         <v>14</v>
       </c>
       <c r="E2012" t="n">
-        <v>0.1662</v>
+        <v>0.166</v>
       </c>
       <c r="F2012" t="n">
         <v>0.0005</v>
@@ -40900,7 +40900,7 @@
         <v>14</v>
       </c>
       <c r="E2013" t="n">
-        <v>0.2095</v>
+        <v>0.2094</v>
       </c>
       <c r="F2013" t="n">
         <v>0.0001</v>
@@ -40960,7 +40960,7 @@
         <v>15</v>
       </c>
       <c r="E2016" t="n">
-        <v>0.5657</v>
+        <v>0.5654</v>
       </c>
       <c r="F2016" t="n">
         <v>0</v>
@@ -40980,7 +40980,7 @@
         <v>15</v>
       </c>
       <c r="E2017" t="n">
-        <v>0.818</v>
+        <v>0.8178</v>
       </c>
       <c r="F2017" t="n">
         <v>0</v>
@@ -41180,7 +41180,7 @@
         <v>14</v>
       </c>
       <c r="E2027" t="n">
-        <v>0.3382</v>
+        <v>0.3379</v>
       </c>
       <c r="F2027" t="n">
         <v>0</v>
@@ -41380,10 +41380,10 @@
         <v>14</v>
       </c>
       <c r="E2037" t="n">
-        <v>0.0125</v>
+        <v>0.0124</v>
       </c>
       <c r="F2037" t="n">
-        <v>0.4854</v>
+        <v>0.4937</v>
       </c>
     </row>
     <row r="2038">
@@ -41523,7 +41523,7 @@
         <v>0.0789</v>
       </c>
       <c r="F2044" t="n">
-        <v>0.8283</v>
+        <v>0.8272</v>
       </c>
     </row>
     <row r="2045">
@@ -41540,10 +41540,10 @@
         <v>14</v>
       </c>
       <c r="E2045" t="n">
-        <v>0.0937</v>
+        <v>0.0938</v>
       </c>
       <c r="F2045" t="n">
-        <v>0.6372</v>
+        <v>0.6363</v>
       </c>
     </row>
     <row r="2046">
@@ -41640,10 +41640,10 @@
         <v>14</v>
       </c>
       <c r="E2050" t="n">
-        <v>0.1884</v>
+        <v>0.1885</v>
       </c>
       <c r="F2050" t="n">
-        <v>0.0229</v>
+        <v>0.0228</v>
       </c>
     </row>
     <row r="2051">
@@ -41660,10 +41660,10 @@
         <v>14</v>
       </c>
       <c r="E2051" t="n">
-        <v>0.1795</v>
+        <v>0.1792</v>
       </c>
       <c r="F2051" t="n">
-        <v>0.0345</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="2052">
@@ -41720,7 +41720,7 @@
         <v>14</v>
       </c>
       <c r="E2054" t="n">
-        <v>0.1785</v>
+        <v>0.1784</v>
       </c>
       <c r="F2054" t="n">
         <v>0.0003</v>
@@ -41740,7 +41740,7 @@
         <v>14</v>
       </c>
       <c r="E2055" t="n">
-        <v>0.1831</v>
+        <v>0.1828</v>
       </c>
       <c r="F2055" t="n">
         <v>0.0013</v>
@@ -41800,7 +41800,7 @@
         <v>15</v>
       </c>
       <c r="E2058" t="n">
-        <v>0.5183</v>
+        <v>0.5182</v>
       </c>
       <c r="F2058" t="n">
         <v>0</v>
@@ -41820,7 +41820,7 @@
         <v>15</v>
       </c>
       <c r="E2059" t="n">
-        <v>0.7886</v>
+        <v>0.7885</v>
       </c>
       <c r="F2059" t="n">
         <v>0</v>
@@ -42000,7 +42000,7 @@
         <v>14</v>
       </c>
       <c r="E2068" t="n">
-        <v>0.2422</v>
+        <v>0.2424</v>
       </c>
       <c r="F2068" t="n">
         <v>0.0011</v>
@@ -42200,7 +42200,7 @@
         <v>14</v>
       </c>
       <c r="E2078" t="n">
-        <v>0.0805</v>
+        <v>0.0801</v>
       </c>
       <c r="F2078" t="n">
         <v>0</v>
@@ -42223,7 +42223,7 @@
         <v>0.0126</v>
       </c>
       <c r="F2079" t="n">
-        <v>0.5054</v>
+        <v>0.5018</v>
       </c>
     </row>
     <row r="2080">
@@ -42360,10 +42360,10 @@
         <v>14</v>
       </c>
       <c r="E2086" t="n">
-        <v>0.0881</v>
+        <v>0.0884</v>
       </c>
       <c r="F2086" t="n">
-        <v>0.7027</v>
+        <v>0.6994</v>
       </c>
     </row>
     <row r="2087">
@@ -42480,7 +42480,7 @@
         <v>14</v>
       </c>
       <c r="E2092" t="n">
-        <v>0.3047</v>
+        <v>0.3049</v>
       </c>
       <c r="F2092" t="n">
         <v>0</v>
@@ -42500,10 +42500,10 @@
         <v>14</v>
       </c>
       <c r="E2093" t="n">
-        <v>0.1881</v>
+        <v>0.188</v>
       </c>
       <c r="F2093" t="n">
-        <v>0.0216</v>
+        <v>0.0217</v>
       </c>
     </row>
     <row r="2094">
@@ -42560,7 +42560,7 @@
         <v>14</v>
       </c>
       <c r="E2096" t="n">
-        <v>0.2705</v>
+        <v>0.27</v>
       </c>
       <c r="F2096" t="n">
         <v>0</v>
@@ -42580,7 +42580,7 @@
         <v>14</v>
       </c>
       <c r="E2097" t="n">
-        <v>0.1877</v>
+        <v>0.1876</v>
       </c>
       <c r="F2097" t="n">
         <v>0.0006</v>
@@ -42640,7 +42640,7 @@
         <v>15</v>
       </c>
       <c r="E2100" t="n">
-        <v>0.6021</v>
+        <v>0.6024</v>
       </c>
       <c r="F2100" t="n">
         <v>0</v>
@@ -42840,7 +42840,7 @@
         <v>14</v>
       </c>
       <c r="E2110" t="n">
-        <v>0.2603</v>
+        <v>0.2596</v>
       </c>
       <c r="F2110" t="n">
         <v>0.0003</v>
@@ -42860,7 +42860,7 @@
         <v>14</v>
       </c>
       <c r="E2111" t="n">
-        <v>0.4205</v>
+        <v>0.4203</v>
       </c>
       <c r="F2111" t="n">
         <v>0</v>
@@ -43040,7 +43040,7 @@
         <v>14</v>
       </c>
       <c r="E2120" t="n">
-        <v>0.046</v>
+        <v>0.0464</v>
       </c>
       <c r="F2120" t="n">
         <v>0</v>
@@ -43060,10 +43060,10 @@
         <v>14</v>
       </c>
       <c r="E2121" t="n">
-        <v>0.0061</v>
+        <v>0.0064</v>
       </c>
       <c r="F2121" t="n">
-        <v>0.9956</v>
+        <v>0.9926</v>
       </c>
     </row>
     <row r="2122">
@@ -43200,10 +43200,10 @@
         <v>14</v>
       </c>
       <c r="E2128" t="n">
-        <v>0.0759</v>
+        <v>0.076</v>
       </c>
       <c r="F2128" t="n">
-        <v>0.841</v>
+        <v>0.8408</v>
       </c>
     </row>
     <row r="2129">
@@ -43220,10 +43220,10 @@
         <v>14</v>
       </c>
       <c r="E2129" t="n">
-        <v>0.066</v>
+        <v>0.0663</v>
       </c>
       <c r="F2129" t="n">
-        <v>0.9361</v>
+        <v>0.934</v>
       </c>
     </row>
     <row r="2130">
@@ -43340,10 +43340,10 @@
         <v>14</v>
       </c>
       <c r="E2135" t="n">
-        <v>0.2199</v>
+        <v>0.2201</v>
       </c>
       <c r="F2135" t="n">
-        <v>0.0034</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="2136">
@@ -43400,7 +43400,7 @@
         <v>14</v>
       </c>
       <c r="E2138" t="n">
-        <v>0.2406</v>
+        <v>0.2412</v>
       </c>
       <c r="F2138" t="n">
         <v>0</v>
@@ -43420,7 +43420,7 @@
         <v>14</v>
       </c>
       <c r="E2139" t="n">
-        <v>0.207</v>
+        <v>0.2068</v>
       </c>
       <c r="F2139" t="n">
         <v>0</v>
@@ -43480,7 +43480,7 @@
         <v>15</v>
       </c>
       <c r="E2142" t="n">
-        <v>0.5315</v>
+        <v>0.5322</v>
       </c>
       <c r="F2142" t="n">
         <v>0</v>
@@ -43500,7 +43500,7 @@
         <v>15</v>
       </c>
       <c r="E2143" t="n">
-        <v>0.8837</v>
+        <v>0.8838</v>
       </c>
       <c r="F2143" t="n">
         <v>0</v>
@@ -43680,7 +43680,7 @@
         <v>14</v>
       </c>
       <c r="E2152" t="n">
-        <v>0.2704</v>
+        <v>0.2705</v>
       </c>
       <c r="F2152" t="n">
         <v>0.0002</v>
@@ -43700,7 +43700,7 @@
         <v>14</v>
       </c>
       <c r="E2153" t="n">
-        <v>0.3558</v>
+        <v>0.3559</v>
       </c>
       <c r="F2153" t="n">
         <v>0</v>
@@ -43900,10 +43900,10 @@
         <v>14</v>
       </c>
       <c r="E2163" t="n">
-        <v>0.0079</v>
+        <v>0.0078</v>
       </c>
       <c r="F2163" t="n">
-        <v>0.9494</v>
+        <v>0.9552</v>
       </c>
     </row>
     <row r="2164">
@@ -44063,7 +44063,7 @@
         <v>0.0718</v>
       </c>
       <c r="F2171" t="n">
-        <v>0.8959</v>
+        <v>0.8965</v>
       </c>
     </row>
     <row r="2172">
@@ -44160,7 +44160,7 @@
         <v>14</v>
       </c>
       <c r="E2176" t="n">
-        <v>0.2888</v>
+        <v>0.2887</v>
       </c>
       <c r="F2176" t="n">
         <v>0</v>
@@ -44180,7 +44180,7 @@
         <v>14</v>
       </c>
       <c r="E2177" t="n">
-        <v>0.2164</v>
+        <v>0.2165</v>
       </c>
       <c r="F2177" t="n">
         <v>0.0055</v>
@@ -44260,7 +44260,7 @@
         <v>14</v>
       </c>
       <c r="E2181" t="n">
-        <v>0.1945</v>
+        <v>0.1944</v>
       </c>
       <c r="F2181" t="n">
         <v>0.0004</v>
@@ -44340,7 +44340,7 @@
         <v>15</v>
       </c>
       <c r="E2185" t="n">
-        <v>0.6664</v>
+        <v>0.6665</v>
       </c>
       <c r="F2185" t="n">
         <v>0</v>
@@ -44520,7 +44520,7 @@
         <v>14</v>
       </c>
       <c r="E2194" t="n">
-        <v>0.3584</v>
+        <v>0.3585</v>
       </c>
       <c r="F2194" t="n">
         <v>0</v>
@@ -44540,7 +44540,7 @@
         <v>14</v>
       </c>
       <c r="E2195" t="n">
-        <v>0.4819</v>
+        <v>0.4821</v>
       </c>
       <c r="F2195" t="n">
         <v>0</v>
@@ -44720,7 +44720,7 @@
         <v>14</v>
       </c>
       <c r="E2204" t="n">
-        <v>0.0432</v>
+        <v>0.0434</v>
       </c>
       <c r="F2204" t="n">
         <v>0</v>
@@ -44740,10 +44740,10 @@
         <v>14</v>
       </c>
       <c r="E2205" t="n">
-        <v>0.0305</v>
+        <v>0.0307</v>
       </c>
       <c r="F2205" t="n">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="2206">
@@ -44883,7 +44883,7 @@
         <v>0.0896</v>
       </c>
       <c r="F2212" t="n">
-        <v>0.6738</v>
+        <v>0.6737</v>
       </c>
     </row>
     <row r="2213">
@@ -44900,10 +44900,10 @@
         <v>14</v>
       </c>
       <c r="E2213" t="n">
-        <v>0.0881</v>
+        <v>0.0879</v>
       </c>
       <c r="F2213" t="n">
-        <v>0.6938</v>
+        <v>0.6962</v>
       </c>
     </row>
     <row r="2214">
@@ -45000,10 +45000,10 @@
         <v>14</v>
       </c>
       <c r="E2218" t="n">
-        <v>0.231</v>
+        <v>0.2311</v>
       </c>
       <c r="F2218" t="n">
-        <v>0.0022</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="2219">
@@ -45020,10 +45020,10 @@
         <v>14</v>
       </c>
       <c r="E2219" t="n">
-        <v>0.2357</v>
+        <v>0.236</v>
       </c>
       <c r="F2219" t="n">
-        <v>0.0015</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="2220">
@@ -45080,7 +45080,7 @@
         <v>14</v>
       </c>
       <c r="E2222" t="n">
-        <v>0.246</v>
+        <v>0.2462</v>
       </c>
       <c r="F2222" t="n">
         <v>0</v>
@@ -45100,7 +45100,7 @@
         <v>14</v>
       </c>
       <c r="E2223" t="n">
-        <v>0.2268</v>
+        <v>0.227</v>
       </c>
       <c r="F2223" t="n">
         <v>0</v>
@@ -45160,7 +45160,7 @@
         <v>15</v>
       </c>
       <c r="E2226" t="n">
-        <v>0.5713</v>
+        <v>0.5716</v>
       </c>
       <c r="F2226" t="n">
         <v>0</v>
@@ -45360,7 +45360,7 @@
         <v>14</v>
       </c>
       <c r="E2236" t="n">
-        <v>0.3064</v>
+        <v>0.3068</v>
       </c>
       <c r="F2236" t="n">
         <v>0</v>
@@ -45580,10 +45580,10 @@
         <v>14</v>
       </c>
       <c r="E2247" t="n">
-        <v>0.0148</v>
+        <v>0.015</v>
       </c>
       <c r="F2247" t="n">
-        <v>0.2533</v>
+        <v>0.2383</v>
       </c>
     </row>
     <row r="2248">
@@ -45723,7 +45723,7 @@
         <v>0.0788</v>
       </c>
       <c r="F2254" t="n">
-        <v>0.8</v>
+        <v>0.7991</v>
       </c>
     </row>
     <row r="2255">
@@ -45740,10 +45740,10 @@
         <v>14</v>
       </c>
       <c r="E2255" t="n">
-        <v>0.098</v>
+        <v>0.0978</v>
       </c>
       <c r="F2255" t="n">
-        <v>0.5404</v>
+        <v>0.5434</v>
       </c>
     </row>
     <row r="2256">
@@ -45840,10 +45840,10 @@
         <v>14</v>
       </c>
       <c r="E2260" t="n">
-        <v>0.1933</v>
+        <v>0.1934</v>
       </c>
       <c r="F2260" t="n">
-        <v>0.0156</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="2261">
@@ -45860,7 +45860,7 @@
         <v>14</v>
       </c>
       <c r="E2261" t="n">
-        <v>0.2108</v>
+        <v>0.2109</v>
       </c>
       <c r="F2261" t="n">
         <v>0.0052</v>
@@ -45920,7 +45920,7 @@
         <v>14</v>
       </c>
       <c r="E2264" t="n">
-        <v>0.1712</v>
+        <v>0.1711</v>
       </c>
       <c r="F2264" t="n">
         <v>0.0003</v>
@@ -45940,7 +45940,7 @@
         <v>14</v>
       </c>
       <c r="E2265" t="n">
-        <v>0.1979</v>
+        <v>0.1977</v>
       </c>
       <c r="F2265" t="n">
         <v>0.0001</v>
@@ -46000,7 +46000,7 @@
         <v>15</v>
       </c>
       <c r="E2268" t="n">
-        <v>0.5038</v>
+        <v>0.5036</v>
       </c>
       <c r="F2268" t="n">
         <v>0</v>
@@ -46020,7 +46020,7 @@
         <v>15</v>
       </c>
       <c r="E2269" t="n">
-        <v>0.8804</v>
+        <v>0.8807</v>
       </c>
       <c r="F2269" t="n">
         <v>0</v>
@@ -46200,7 +46200,7 @@
         <v>14</v>
       </c>
       <c r="E2278" t="n">
-        <v>0.3552</v>
+        <v>0.355</v>
       </c>
       <c r="F2278" t="n">
         <v>0</v>
@@ -46220,7 +46220,7 @@
         <v>14</v>
       </c>
       <c r="E2279" t="n">
-        <v>0.3215</v>
+        <v>0.3214</v>
       </c>
       <c r="F2279" t="n">
         <v>0</v>
@@ -46420,10 +46420,10 @@
         <v>14</v>
       </c>
       <c r="E2289" t="n">
-        <v>0.0239</v>
+        <v>0.0238</v>
       </c>
       <c r="F2289" t="n">
-        <v>0.0083</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="2290">
@@ -46560,10 +46560,10 @@
         <v>14</v>
       </c>
       <c r="E2296" t="n">
-        <v>0.0979</v>
+        <v>0.0978</v>
       </c>
       <c r="F2296" t="n">
-        <v>0.5227</v>
+        <v>0.5236</v>
       </c>
     </row>
     <row r="2297">
@@ -46580,10 +46580,10 @@
         <v>14</v>
       </c>
       <c r="E2297" t="n">
-        <v>0.1127</v>
+        <v>0.1128</v>
       </c>
       <c r="F2297" t="n">
-        <v>0.3444</v>
+        <v>0.3437</v>
       </c>
     </row>
     <row r="2298">
@@ -46680,10 +46680,10 @@
         <v>14</v>
       </c>
       <c r="E2302" t="n">
-        <v>0.1971</v>
+        <v>0.1974</v>
       </c>
       <c r="F2302" t="n">
-        <v>0.0094</v>
+        <v>0.0093</v>
       </c>
     </row>
     <row r="2303">
@@ -46700,7 +46700,7 @@
         <v>14</v>
       </c>
       <c r="E2303" t="n">
-        <v>0.3103</v>
+        <v>0.3102</v>
       </c>
       <c r="F2303" t="n">
         <v>0</v>
@@ -46760,7 +46760,7 @@
         <v>14</v>
       </c>
       <c r="E2306" t="n">
-        <v>0.1829</v>
+        <v>0.1827</v>
       </c>
       <c r="F2306" t="n">
         <v>0.0001</v>
@@ -46780,7 +46780,7 @@
         <v>14</v>
       </c>
       <c r="E2307" t="n">
-        <v>0.1909</v>
+        <v>0.191</v>
       </c>
       <c r="F2307" t="n">
         <v>0.0002</v>
@@ -46840,7 +46840,7 @@
         <v>15</v>
       </c>
       <c r="E2310" t="n">
-        <v>0.5976</v>
+        <v>0.5978</v>
       </c>
       <c r="F2310" t="n">
         <v>0</v>
@@ -46860,7 +46860,7 @@
         <v>15</v>
       </c>
       <c r="E2311" t="n">
-        <v>0.5448</v>
+        <v>0.5447</v>
       </c>
       <c r="F2311" t="n">
         <v>0</v>
@@ -47040,7 +47040,7 @@
         <v>14</v>
       </c>
       <c r="E2320" t="n">
-        <v>0.4629</v>
+        <v>0.4631</v>
       </c>
       <c r="F2320" t="n">
         <v>0</v>
@@ -47060,7 +47060,7 @@
         <v>14</v>
       </c>
       <c r="E2321" t="n">
-        <v>0.3503</v>
+        <v>0.3505</v>
       </c>
       <c r="F2321" t="n">
         <v>0</v>
@@ -47260,10 +47260,10 @@
         <v>14</v>
       </c>
       <c r="E2331" t="n">
-        <v>0.0078</v>
+        <v>0.0077</v>
       </c>
       <c r="F2331" t="n">
-        <v>0.923</v>
+        <v>0.9318</v>
       </c>
     </row>
     <row r="2332">
@@ -47403,7 +47403,7 @@
         <v>0.0809</v>
       </c>
       <c r="F2338" t="n">
-        <v>0.7724</v>
+        <v>0.7725</v>
       </c>
     </row>
     <row r="2339">
@@ -47420,10 +47420,10 @@
         <v>14</v>
       </c>
       <c r="E2339" t="n">
-        <v>0.0745</v>
+        <v>0.0747</v>
       </c>
       <c r="F2339" t="n">
-        <v>0.8505</v>
+        <v>0.8489</v>
       </c>
     </row>
     <row r="2340">
@@ -47520,10 +47520,10 @@
         <v>14</v>
       </c>
       <c r="E2344" t="n">
-        <v>0.2092</v>
+        <v>0.2094</v>
       </c>
       <c r="F2344" t="n">
-        <v>0.0057</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="2345">
@@ -47540,10 +47540,10 @@
         <v>14</v>
       </c>
       <c r="E2345" t="n">
-        <v>0.198</v>
+        <v>0.1978</v>
       </c>
       <c r="F2345" t="n">
-        <v>0.0104</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="2346">
@@ -47600,7 +47600,7 @@
         <v>14</v>
       </c>
       <c r="E2348" t="n">
-        <v>0.2262</v>
+        <v>0.2264</v>
       </c>
       <c r="F2348" t="n">
         <v>0</v>
@@ -47620,7 +47620,7 @@
         <v>14</v>
       </c>
       <c r="E2349" t="n">
-        <v>0.188</v>
+        <v>0.1878</v>
       </c>
       <c r="F2349" t="n">
         <v>0.0004</v>
@@ -47680,7 +47680,7 @@
         <v>15</v>
       </c>
       <c r="E2352" t="n">
-        <v>0.502</v>
+        <v>0.5017</v>
       </c>
       <c r="F2352" t="n">
         <v>0</v>
@@ -47700,7 +47700,7 @@
         <v>15</v>
       </c>
       <c r="E2353" t="n">
-        <v>0.5155</v>
+        <v>0.5158</v>
       </c>
       <c r="F2353" t="n">
         <v>0</v>
@@ -47880,7 +47880,7 @@
         <v>14</v>
       </c>
       <c r="E2362" t="n">
-        <v>0.367</v>
+        <v>0.3669</v>
       </c>
       <c r="F2362" t="n">
         <v>0</v>
@@ -47900,7 +47900,7 @@
         <v>14</v>
       </c>
       <c r="E2363" t="n">
-        <v>0.3915</v>
+        <v>0.3916</v>
       </c>
       <c r="F2363" t="n">
         <v>0</v>
@@ -48103,7 +48103,7 @@
         <v>0.0103</v>
       </c>
       <c r="F2373" t="n">
-        <v>0.7113</v>
+        <v>0.7049</v>
       </c>
     </row>
     <row r="2374">
@@ -48243,7 +48243,7 @@
         <v>0.0781</v>
       </c>
       <c r="F2380" t="n">
-        <v>0.8296</v>
+        <v>0.8298</v>
       </c>
     </row>
     <row r="2381">
@@ -48260,10 +48260,10 @@
         <v>14</v>
       </c>
       <c r="E2381" t="n">
-        <v>0.0595</v>
+        <v>0.0594</v>
       </c>
       <c r="F2381" t="n">
-        <v>0.9772</v>
+        <v>0.9775</v>
       </c>
     </row>
     <row r="2382">
@@ -48360,10 +48360,10 @@
         <v>14</v>
       </c>
       <c r="E2386" t="n">
-        <v>0.1944</v>
+        <v>0.1945</v>
       </c>
       <c r="F2386" t="n">
-        <v>0.0185</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="2387">
@@ -48380,10 +48380,10 @@
         <v>14</v>
       </c>
       <c r="E2387" t="n">
-        <v>0.1959</v>
+        <v>0.1958</v>
       </c>
       <c r="F2387" t="n">
-        <v>0.0147</v>
+        <v>0.0148</v>
       </c>
     </row>
     <row r="2388">
@@ -48440,7 +48440,7 @@
         <v>14</v>
       </c>
       <c r="E2390" t="n">
-        <v>0.1977</v>
+        <v>0.1978</v>
       </c>
       <c r="F2390" t="n">
         <v>0</v>
@@ -48460,7 +48460,7 @@
         <v>14</v>
       </c>
       <c r="E2391" t="n">
-        <v>0.1811</v>
+        <v>0.181</v>
       </c>
       <c r="F2391" t="n">
         <v>0.0015</v>
@@ -48520,7 +48520,7 @@
         <v>15</v>
       </c>
       <c r="E2394" t="n">
-        <v>0.5993</v>
+        <v>0.5995</v>
       </c>
       <c r="F2394" t="n">
         <v>0</v>
@@ -48540,7 +48540,7 @@
         <v>15</v>
       </c>
       <c r="E2395" t="n">
-        <v>0.8179</v>
+        <v>0.8181</v>
       </c>
       <c r="F2395" t="n">
         <v>0</v>
@@ -48740,7 +48740,7 @@
         <v>14</v>
       </c>
       <c r="E2405" t="n">
-        <v>0.3726</v>
+        <v>0.3725</v>
       </c>
       <c r="F2405" t="n">
         <v>0</v>
@@ -48920,7 +48920,7 @@
         <v>14</v>
       </c>
       <c r="E2414" t="n">
-        <v>0.0334</v>
+        <v>0.0336</v>
       </c>
       <c r="F2414" t="n">
         <v>0</v>
@@ -48940,10 +48940,10 @@
         <v>14</v>
       </c>
       <c r="E2415" t="n">
-        <v>0.0104</v>
+        <v>0.0105</v>
       </c>
       <c r="F2415" t="n">
-        <v>0.7349</v>
+        <v>0.7326</v>
       </c>
     </row>
     <row r="2416">
@@ -49083,7 +49083,7 @@
         <v>0.0768</v>
       </c>
       <c r="F2422" t="n">
-        <v>0.8374</v>
+        <v>0.8382</v>
       </c>
     </row>
     <row r="2423">
@@ -49103,7 +49103,7 @@
         <v>0.0543</v>
       </c>
       <c r="F2423" t="n">
-        <v>0.9908</v>
+        <v>0.9909</v>
       </c>
     </row>
     <row r="2424">
@@ -49200,7 +49200,7 @@
         <v>14</v>
       </c>
       <c r="E2428" t="n">
-        <v>0.2503</v>
+        <v>0.2502</v>
       </c>
       <c r="F2428" t="n">
         <v>0.0007</v>
@@ -49220,7 +49220,7 @@
         <v>14</v>
       </c>
       <c r="E2429" t="n">
-        <v>0.2188</v>
+        <v>0.2186</v>
       </c>
       <c r="F2429" t="n">
         <v>0.004</v>
@@ -49300,7 +49300,7 @@
         <v>14</v>
       </c>
       <c r="E2433" t="n">
-        <v>0.2068</v>
+        <v>0.2067</v>
       </c>
       <c r="F2433" t="n">
         <v>0.0001</v>
@@ -49360,7 +49360,7 @@
         <v>15</v>
       </c>
       <c r="E2436" t="n">
-        <v>0.57</v>
+        <v>0.5699</v>
       </c>
       <c r="F2436" t="n">
         <v>0</v>
@@ -49380,7 +49380,7 @@
         <v>15</v>
       </c>
       <c r="E2437" t="n">
-        <v>0.8621</v>
+        <v>0.8617</v>
       </c>
       <c r="F2437" t="n">
         <v>0</v>
@@ -49560,7 +49560,7 @@
         <v>14</v>
       </c>
       <c r="E2446" t="n">
-        <v>0.2685</v>
+        <v>0.2683</v>
       </c>
       <c r="F2446" t="n">
         <v>0.0006</v>
@@ -49580,7 +49580,7 @@
         <v>14</v>
       </c>
       <c r="E2447" t="n">
-        <v>0.4649</v>
+        <v>0.4652</v>
       </c>
       <c r="F2447" t="n">
         <v>0</v>
@@ -49760,7 +49760,7 @@
         <v>14</v>
       </c>
       <c r="E2456" t="n">
-        <v>0.0457</v>
+        <v>0.0456</v>
       </c>
       <c r="F2456" t="n">
         <v>0</v>
@@ -49780,10 +49780,10 @@
         <v>14</v>
       </c>
       <c r="E2457" t="n">
-        <v>0.0178</v>
+        <v>0.0181</v>
       </c>
       <c r="F2457" t="n">
-        <v>0.1721</v>
+        <v>0.1585</v>
       </c>
     </row>
     <row r="2458">
@@ -49920,10 +49920,10 @@
         <v>14</v>
       </c>
       <c r="E2464" t="n">
-        <v>0.0866</v>
+        <v>0.0867</v>
       </c>
       <c r="F2464" t="n">
-        <v>0.7948</v>
+        <v>0.7937</v>
       </c>
     </row>
     <row r="2465">
@@ -49940,10 +49940,10 @@
         <v>14</v>
       </c>
       <c r="E2465" t="n">
-        <v>0.0674</v>
+        <v>0.0673</v>
       </c>
       <c r="F2465" t="n">
-        <v>0.961</v>
+        <v>0.9618</v>
       </c>
     </row>
     <row r="2466">
@@ -50040,10 +50040,10 @@
         <v>14</v>
       </c>
       <c r="E2470" t="n">
-        <v>0.1918</v>
+        <v>0.1923</v>
       </c>
       <c r="F2470" t="n">
-        <v>0.0325</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="2471">
@@ -50060,10 +50060,10 @@
         <v>14</v>
       </c>
       <c r="E2471" t="n">
-        <v>0.1971</v>
+        <v>0.1974</v>
       </c>
       <c r="F2471" t="n">
-        <v>0.0258</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="2472">
@@ -50120,10 +50120,10 @@
         <v>14</v>
       </c>
       <c r="E2474" t="n">
-        <v>0.1602</v>
+        <v>0.16</v>
       </c>
       <c r="F2474" t="n">
-        <v>0.0042</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="2475">
@@ -50140,10 +50140,10 @@
         <v>14</v>
       </c>
       <c r="E2475" t="n">
-        <v>0.1747</v>
+        <v>0.175</v>
       </c>
       <c r="F2475" t="n">
-        <v>0.004</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="2476">
@@ -50200,7 +50200,7 @@
         <v>15</v>
       </c>
       <c r="E2478" t="n">
-        <v>0.5721</v>
+        <v>0.5723</v>
       </c>
       <c r="F2478" t="n">
         <v>0</v>
@@ -50220,7 +50220,7 @@
         <v>15</v>
       </c>
       <c r="E2479" t="n">
-        <v>0.8492</v>
+        <v>0.8493</v>
       </c>
       <c r="F2479" t="n">
         <v>0</v>
@@ -50400,7 +50400,7 @@
         <v>14</v>
       </c>
       <c r="E2488" t="n">
-        <v>0.3337</v>
+        <v>0.3336</v>
       </c>
       <c r="F2488" t="n">
         <v>0</v>
@@ -50420,7 +50420,7 @@
         <v>14</v>
       </c>
       <c r="E2489" t="n">
-        <v>0.2735</v>
+        <v>0.274</v>
       </c>
       <c r="F2489" t="n">
         <v>0.0001</v>
@@ -50600,7 +50600,7 @@
         <v>14</v>
       </c>
       <c r="E2498" t="n">
-        <v>0.0493</v>
+        <v>0.0492</v>
       </c>
       <c r="F2498" t="n">
         <v>0</v>
@@ -50620,10 +50620,10 @@
         <v>14</v>
       </c>
       <c r="E2499" t="n">
-        <v>0.0076</v>
+        <v>0.008</v>
       </c>
       <c r="F2499" t="n">
-        <v>0.9753</v>
+        <v>0.9577</v>
       </c>
     </row>
     <row r="2500">
@@ -50763,7 +50763,7 @@
         <v>0.0856</v>
       </c>
       <c r="F2506" t="n">
-        <v>0.7357</v>
+        <v>0.7369</v>
       </c>
     </row>
     <row r="2507">
@@ -50780,10 +50780,10 @@
         <v>14</v>
       </c>
       <c r="E2507" t="n">
-        <v>0.0598</v>
+        <v>0.0593</v>
       </c>
       <c r="F2507" t="n">
-        <v>0.9763</v>
+        <v>0.9782</v>
       </c>
     </row>
     <row r="2508">
@@ -50880,7 +50880,7 @@
         <v>14</v>
       </c>
       <c r="E2512" t="n">
-        <v>0.2087</v>
+        <v>0.2086</v>
       </c>
       <c r="F2512" t="n">
         <v>0.0076</v>
@@ -50900,10 +50900,10 @@
         <v>14</v>
       </c>
       <c r="E2513" t="n">
-        <v>0.2267</v>
+        <v>0.2271</v>
       </c>
       <c r="F2513" t="n">
-        <v>0.0028</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="2514">
@@ -50960,7 +50960,7 @@
         <v>14</v>
       </c>
       <c r="E2516" t="n">
-        <v>0.1873</v>
+        <v>0.1872</v>
       </c>
       <c r="F2516" t="n">
         <v>0.0001</v>
@@ -50980,7 +50980,7 @@
         <v>14</v>
       </c>
       <c r="E2517" t="n">
-        <v>0.1841</v>
+        <v>0.1846</v>
       </c>
       <c r="F2517" t="n">
         <v>0.0016</v>
@@ -51040,7 +51040,7 @@
         <v>15</v>
       </c>
       <c r="E2520" t="n">
-        <v>0.5253</v>
+        <v>0.5251</v>
       </c>
       <c r="F2520" t="n">
         <v>0</v>
@@ -51060,7 +51060,7 @@
         <v>15</v>
       </c>
       <c r="E2521" t="n">
-        <v>0.7273</v>
+        <v>0.7276</v>
       </c>
       <c r="F2521" t="n">
         <v>0</v>
@@ -51240,7 +51240,7 @@
         <v>14</v>
       </c>
       <c r="E2530" t="n">
-        <v>0.2555</v>
+        <v>0.2553</v>
       </c>
       <c r="F2530" t="n">
         <v>0.0007</v>
@@ -51260,7 +51260,7 @@
         <v>14</v>
       </c>
       <c r="E2531" t="n">
-        <v>0.3024</v>
+        <v>0.3026</v>
       </c>
       <c r="F2531" t="n">
         <v>0</v>
@@ -51440,7 +51440,7 @@
         <v>14</v>
       </c>
       <c r="E2540" t="n">
-        <v>0.0458</v>
+        <v>0.046</v>
       </c>
       <c r="F2540" t="n">
         <v>0</v>
@@ -51463,7 +51463,7 @@
         <v>0.0116</v>
       </c>
       <c r="F2541" t="n">
-        <v>0.6834</v>
+        <v>0.6764</v>
       </c>
     </row>
     <row r="2542">
@@ -51603,7 +51603,7 @@
         <v>0.0803</v>
       </c>
       <c r="F2548" t="n">
-        <v>0.8269</v>
+        <v>0.8263</v>
       </c>
     </row>
     <row r="2549">
@@ -51623,7 +51623,7 @@
         <v>0.0655</v>
       </c>
       <c r="F2549" t="n">
-        <v>0.9559</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="2550">
@@ -51720,10 +51720,10 @@
         <v>14</v>
       </c>
       <c r="E2554" t="n">
-        <v>0.2063</v>
+        <v>0.2061</v>
       </c>
       <c r="F2554" t="n">
-        <v>0.0111</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="2555">
@@ -51740,10 +51740,10 @@
         <v>14</v>
       </c>
       <c r="E2555" t="n">
-        <v>0.1649</v>
+        <v>0.1647</v>
       </c>
       <c r="F2555" t="n">
-        <v>0.0765</v>
+        <v>0.0771</v>
       </c>
     </row>
     <row r="2556">
@@ -51800,7 +51800,7 @@
         <v>14</v>
       </c>
       <c r="E2558" t="n">
-        <v>0.2095</v>
+        <v>0.2097</v>
       </c>
       <c r="F2558" t="n">
         <v>0</v>
@@ -51820,10 +51820,10 @@
         <v>14</v>
       </c>
       <c r="E2559" t="n">
-        <v>0.1552</v>
+        <v>0.1553</v>
       </c>
       <c r="F2559" t="n">
-        <v>0.0134</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="2560">
@@ -51880,7 +51880,7 @@
         <v>15</v>
       </c>
       <c r="E2562" t="n">
-        <v>0.5134</v>
+        <v>0.5133</v>
       </c>
       <c r="F2562" t="n">
         <v>0</v>
@@ -52080,7 +52080,7 @@
         <v>14</v>
       </c>
       <c r="E2572" t="n">
-        <v>0.3694</v>
+        <v>0.3696</v>
       </c>
       <c r="F2572" t="n">
         <v>0</v>
@@ -52100,7 +52100,7 @@
         <v>14</v>
       </c>
       <c r="E2573" t="n">
-        <v>0.2638</v>
+        <v>0.264</v>
       </c>
       <c r="F2573" t="n">
         <v>0.0006</v>
@@ -52280,7 +52280,7 @@
         <v>14</v>
       </c>
       <c r="E2582" t="n">
-        <v>0.0472</v>
+        <v>0.0473</v>
       </c>
       <c r="F2582" t="n">
         <v>0</v>
@@ -52303,7 +52303,7 @@
         <v>0.0059</v>
       </c>
       <c r="F2583" t="n">
-        <v>0.9992</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="2584">
@@ -52443,7 +52443,7 @@
         <v>0.0951</v>
       </c>
       <c r="F2590" t="n">
-        <v>0.6706</v>
+        <v>0.6702</v>
       </c>
     </row>
     <row r="2591">
@@ -52460,10 +52460,10 @@
         <v>14</v>
       </c>
       <c r="E2591" t="n">
-        <v>0.073</v>
+        <v>0.0731</v>
       </c>
       <c r="F2591" t="n">
-        <v>0.9167</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="2592">
@@ -52580,10 +52580,10 @@
         <v>14</v>
       </c>
       <c r="E2597" t="n">
-        <v>0.2121</v>
+        <v>0.2123</v>
       </c>
       <c r="F2597" t="n">
-        <v>0.0108</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="2598">
@@ -52640,7 +52640,7 @@
         <v>14</v>
       </c>
       <c r="E2600" t="n">
-        <v>0.2568</v>
+        <v>0.2569</v>
       </c>
       <c r="F2600" t="n">
         <v>0</v>
@@ -52660,10 +52660,10 @@
         <v>14</v>
       </c>
       <c r="E2601" t="n">
-        <v>0.1582</v>
+        <v>0.158</v>
       </c>
       <c r="F2601" t="n">
-        <v>0.0099</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="2602">
@@ -52720,7 +52720,7 @@
         <v>15</v>
       </c>
       <c r="E2604" t="n">
-        <v>0.4903</v>
+        <v>0.4904</v>
       </c>
       <c r="F2604" t="n">
         <v>0</v>
@@ -52740,7 +52740,7 @@
         <v>15</v>
       </c>
       <c r="E2605" t="n">
-        <v>0.8153</v>
+        <v>0.8154</v>
       </c>
       <c r="F2605" t="n">
         <v>0</v>
@@ -53120,7 +53120,7 @@
         <v>14</v>
       </c>
       <c r="E2624" t="n">
-        <v>0.0307</v>
+        <v>0.0306</v>
       </c>
       <c r="F2624" t="n">
         <v>0</v>
@@ -53140,10 +53140,10 @@
         <v>14</v>
       </c>
       <c r="E2625" t="n">
-        <v>0.0247</v>
+        <v>0.0248</v>
       </c>
       <c r="F2625" t="n">
-        <v>0.0026</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="2626">
@@ -53300,10 +53300,10 @@
         <v>14</v>
       </c>
       <c r="E2633" t="n">
-        <v>0.0497</v>
+        <v>0.0495</v>
       </c>
       <c r="F2633" t="n">
-        <v>0.9956</v>
+        <v>0.9959</v>
       </c>
     </row>
     <row r="2634">
@@ -53400,10 +53400,10 @@
         <v>14</v>
       </c>
       <c r="E2638" t="n">
-        <v>0.209</v>
+        <v>0.2089</v>
       </c>
       <c r="F2638" t="n">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="2639">
@@ -53500,7 +53500,7 @@
         <v>14</v>
       </c>
       <c r="E2643" t="n">
-        <v>0.1833</v>
+        <v>0.1836</v>
       </c>
       <c r="F2643" t="n">
         <v>0.0002</v>
@@ -53560,7 +53560,7 @@
         <v>15</v>
       </c>
       <c r="E2646" t="n">
-        <v>0.5803</v>
+        <v>0.5804</v>
       </c>
       <c r="F2646" t="n">
         <v>0</v>
@@ -53760,7 +53760,7 @@
         <v>14</v>
       </c>
       <c r="E2656" t="n">
-        <v>0.2319</v>
+        <v>0.2321</v>
       </c>
       <c r="F2656" t="n">
         <v>0.0012</v>
@@ -53780,7 +53780,7 @@
         <v>14</v>
       </c>
       <c r="E2657" t="n">
-        <v>0.2832</v>
+        <v>0.2833</v>
       </c>
       <c r="F2657" t="n">
         <v>0</v>
@@ -53960,7 +53960,7 @@
         <v>14</v>
       </c>
       <c r="E2666" t="n">
-        <v>0.0379</v>
+        <v>0.0377</v>
       </c>
       <c r="F2666" t="n">
         <v>0</v>
@@ -53980,10 +53980,10 @@
         <v>14</v>
       </c>
       <c r="E2667" t="n">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
       <c r="F2667" t="n">
-        <v>1</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="2668">
@@ -54120,10 +54120,10 @@
         <v>14</v>
       </c>
       <c r="E2674" t="n">
-        <v>0.0669</v>
+        <v>0.0671</v>
       </c>
       <c r="F2674" t="n">
-        <v>0.9168</v>
+        <v>0.9156</v>
       </c>
     </row>
     <row r="2675">
@@ -54143,7 +54143,7 @@
         <v>0.0626</v>
       </c>
       <c r="F2675" t="n">
-        <v>0.9496</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="2676">
@@ -54240,10 +54240,10 @@
         <v>14</v>
       </c>
       <c r="E2680" t="n">
-        <v>0.212</v>
+        <v>0.2121</v>
       </c>
       <c r="F2680" t="n">
-        <v>0.0041</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="2681">
@@ -54263,7 +54263,7 @@
         <v>0.1905</v>
       </c>
       <c r="F2681" t="n">
-        <v>0.0134</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="2682">
@@ -54320,7 +54320,7 @@
         <v>14</v>
       </c>
       <c r="E2684" t="n">
-        <v>0.1871</v>
+        <v>0.1869</v>
       </c>
       <c r="F2684" t="n">
         <v>0.0001</v>
@@ -54400,7 +54400,7 @@
         <v>15</v>
       </c>
       <c r="E2688" t="n">
-        <v>0.8433</v>
+        <v>0.8432</v>
       </c>
       <c r="F2688" t="n">
         <v>0</v>
@@ -54600,7 +54600,7 @@
         <v>14</v>
       </c>
       <c r="E2698" t="n">
-        <v>0.3283</v>
+        <v>0.3282</v>
       </c>
       <c r="F2698" t="n">
         <v>0</v>
@@ -54620,7 +54620,7 @@
         <v>14</v>
       </c>
       <c r="E2699" t="n">
-        <v>0.3466</v>
+        <v>0.3463</v>
       </c>
       <c r="F2699" t="n">
         <v>0</v>
@@ -54800,7 +54800,7 @@
         <v>14</v>
       </c>
       <c r="E2708" t="n">
-        <v>0.0267</v>
+        <v>0.027</v>
       </c>
       <c r="F2708" t="n">
         <v>0.0001</v>
@@ -54820,7 +54820,7 @@
         <v>14</v>
       </c>
       <c r="E2709" t="n">
-        <v>0.0315</v>
+        <v>0.0318</v>
       </c>
       <c r="F2709" t="n">
         <v>0.0001</v>
@@ -54960,10 +54960,10 @@
         <v>14</v>
       </c>
       <c r="E2716" t="n">
-        <v>0.1041</v>
+        <v>0.1039</v>
       </c>
       <c r="F2716" t="n">
-        <v>0.3988</v>
+        <v>0.4014</v>
       </c>
     </row>
     <row r="2717">
@@ -54983,7 +54983,7 @@
         <v>0.082</v>
       </c>
       <c r="F2717" t="n">
-        <v>0.7015</v>
+        <v>0.7021</v>
       </c>
     </row>
     <row r="2718">
@@ -55080,7 +55080,7 @@
         <v>14</v>
       </c>
       <c r="E2722" t="n">
-        <v>0.2202</v>
+        <v>0.22</v>
       </c>
       <c r="F2722" t="n">
         <v>0.0015</v>
@@ -55100,10 +55100,10 @@
         <v>14</v>
       </c>
       <c r="E2723" t="n">
-        <v>0.2048</v>
+        <v>0.2045</v>
       </c>
       <c r="F2723" t="n">
-        <v>0.0044</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="2724">
@@ -55160,7 +55160,7 @@
         <v>14</v>
       </c>
       <c r="E2726" t="n">
-        <v>0.1965</v>
+        <v>0.1964</v>
       </c>
       <c r="F2726" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>14</v>
       </c>
       <c r="E2727" t="n">
-        <v>0.1745</v>
+        <v>0.1742</v>
       </c>
       <c r="F2727" t="n">
         <v>0.0008</v>
@@ -55240,7 +55240,7 @@
         <v>15</v>
       </c>
       <c r="E2730" t="n">
-        <v>0.4942</v>
+        <v>0.494</v>
       </c>
       <c r="F2730" t="n">
         <v>0</v>
@@ -55440,7 +55440,7 @@
         <v>14</v>
       </c>
       <c r="E2740" t="n">
-        <v>0.3389</v>
+        <v>0.3387</v>
       </c>
       <c r="F2740" t="n">
         <v>0</v>
@@ -55460,7 +55460,7 @@
         <v>14</v>
       </c>
       <c r="E2741" t="n">
-        <v>0.314</v>
+        <v>0.3145</v>
       </c>
       <c r="F2741" t="n">
         <v>0</v>
@@ -55640,7 +55640,7 @@
         <v>14</v>
       </c>
       <c r="E2750" t="n">
-        <v>0.0597</v>
+        <v>0.0594</v>
       </c>
       <c r="F2750" t="n">
         <v>0</v>
@@ -55660,10 +55660,10 @@
         <v>14</v>
       </c>
       <c r="E2751" t="n">
-        <v>0.0284</v>
+        <v>0.0277</v>
       </c>
       <c r="F2751" t="n">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="2752">
@@ -55800,10 +55800,10 @@
         <v>14</v>
       </c>
       <c r="E2758" t="n">
-        <v>0.0901</v>
+        <v>0.0903</v>
       </c>
       <c r="F2758" t="n">
-        <v>0.6119</v>
+        <v>0.6082</v>
       </c>
     </row>
     <row r="2759">
@@ -55820,10 +55820,10 @@
         <v>14</v>
       </c>
       <c r="E2759" t="n">
-        <v>0.0847</v>
+        <v>0.0853</v>
       </c>
       <c r="F2759" t="n">
-        <v>0.6887</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="2760">
@@ -55920,7 +55920,7 @@
         <v>14</v>
       </c>
       <c r="E2764" t="n">
-        <v>0.3671</v>
+        <v>0.3669</v>
       </c>
       <c r="F2764" t="n">
         <v>0</v>
@@ -56000,7 +56000,7 @@
         <v>14</v>
       </c>
       <c r="E2768" t="n">
-        <v>0.279</v>
+        <v>0.2788</v>
       </c>
       <c r="F2768" t="n">
         <v>0</v>
@@ -56020,10 +56020,10 @@
         <v>14</v>
       </c>
       <c r="E2769" t="n">
-        <v>0.1638</v>
+        <v>0.1632</v>
       </c>
       <c r="F2769" t="n">
-        <v>0.0015</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="2770">
@@ -56080,7 +56080,7 @@
         <v>15</v>
       </c>
       <c r="E2772" t="n">
-        <v>0.8542</v>
+        <v>0.8541</v>
       </c>
       <c r="F2772" t="n">
         <v>0</v>
@@ -56100,7 +56100,7 @@
         <v>15</v>
       </c>
       <c r="E2773" t="n">
-        <v>0.9548</v>
+        <v>0.9547</v>
       </c>
       <c r="F2773" t="n">
         <v>0</v>
@@ -56280,7 +56280,7 @@
         <v>14</v>
       </c>
       <c r="E2782" t="n">
-        <v>0.2722</v>
+        <v>0.2724</v>
       </c>
       <c r="F2782" t="n">
         <v>0</v>
@@ -56300,7 +56300,7 @@
         <v>14</v>
       </c>
       <c r="E2783" t="n">
-        <v>0.2597</v>
+        <v>0.2596</v>
       </c>
       <c r="F2783" t="n">
         <v>0.0001</v>
@@ -56480,10 +56480,10 @@
         <v>14</v>
       </c>
       <c r="E2792" t="n">
-        <v>0.0212</v>
+        <v>0.0214</v>
       </c>
       <c r="F2792" t="n">
-        <v>0.0039</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="2793">
@@ -56500,10 +56500,10 @@
         <v>14</v>
       </c>
       <c r="E2793" t="n">
-        <v>0.0169</v>
+        <v>0.0167</v>
       </c>
       <c r="F2793" t="n">
-        <v>0.1146</v>
+        <v>0.1195</v>
       </c>
     </row>
     <row r="2794">
@@ -56640,10 +56640,10 @@
         <v>14</v>
       </c>
       <c r="E2800" t="n">
-        <v>0.0516</v>
+        <v>0.0514</v>
       </c>
       <c r="F2800" t="n">
-        <v>0.9892</v>
+        <v>0.9896</v>
       </c>
     </row>
     <row r="2801">
@@ -56660,10 +56660,10 @@
         <v>14</v>
       </c>
       <c r="E2801" t="n">
-        <v>0.0627</v>
+        <v>0.0626</v>
       </c>
       <c r="F2801" t="n">
-        <v>0.9335</v>
+        <v>0.9336</v>
       </c>
     </row>
     <row r="2802">
@@ -56760,10 +56760,10 @@
         <v>14</v>
       </c>
       <c r="E2806" t="n">
-        <v>0.1921</v>
+        <v>0.1919</v>
       </c>
       <c r="F2806" t="n">
-        <v>0.0085</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="2807">
@@ -56840,7 +56840,7 @@
         <v>14</v>
       </c>
       <c r="E2810" t="n">
-        <v>0.1735</v>
+        <v>0.1738</v>
       </c>
       <c r="F2810" t="n">
         <v>0.0001</v>
@@ -56863,7 +56863,7 @@
         <v>0.1736</v>
       </c>
       <c r="F2811" t="n">
-        <v>0.0009</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="2812">
@@ -56920,7 +56920,7 @@
         <v>15</v>
       </c>
       <c r="E2814" t="n">
-        <v>0.5659</v>
+        <v>0.5662</v>
       </c>
       <c r="F2814" t="n">
         <v>0</v>
@@ -56940,7 +56940,7 @@
         <v>15</v>
       </c>
       <c r="E2815" t="n">
-        <v>0.5044</v>
+        <v>0.5043</v>
       </c>
       <c r="F2815" t="n">
         <v>0</v>
@@ -57120,7 +57120,7 @@
         <v>14</v>
       </c>
       <c r="E2824" t="n">
-        <v>0.3085</v>
+        <v>0.3084</v>
       </c>
       <c r="F2824" t="n">
         <v>0</v>
@@ -57140,7 +57140,7 @@
         <v>14</v>
       </c>
       <c r="E2825" t="n">
-        <v>0.3072</v>
+        <v>0.3076</v>
       </c>
       <c r="F2825" t="n">
         <v>0</v>
@@ -57320,10 +57320,10 @@
         <v>14</v>
       </c>
       <c r="E2834" t="n">
-        <v>0.0248</v>
+        <v>0.0251</v>
       </c>
       <c r="F2834" t="n">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="2835">
@@ -57340,10 +57340,10 @@
         <v>14</v>
       </c>
       <c r="E2835" t="n">
-        <v>0.0165</v>
+        <v>0.0164</v>
       </c>
       <c r="F2835" t="n">
-        <v>0.1818</v>
+        <v>0.1854</v>
       </c>
     </row>
     <row r="2836">
@@ -57483,7 +57483,7 @@
         <v>0.0721</v>
       </c>
       <c r="F2842" t="n">
-        <v>0.8363</v>
+        <v>0.8364</v>
       </c>
     </row>
     <row r="2843">
@@ -57500,10 +57500,10 @@
         <v>14</v>
       </c>
       <c r="E2843" t="n">
-        <v>0.0555</v>
+        <v>0.0552</v>
       </c>
       <c r="F2843" t="n">
-        <v>0.9766</v>
+        <v>0.9777</v>
       </c>
     </row>
     <row r="2844">
@@ -57600,7 +57600,7 @@
         <v>14</v>
       </c>
       <c r="E2848" t="n">
-        <v>0.231</v>
+        <v>0.2312</v>
       </c>
       <c r="F2848" t="n">
         <v>0.0008</v>
@@ -57623,7 +57623,7 @@
         <v>0.1466</v>
       </c>
       <c r="F2849" t="n">
-        <v>0.0831</v>
+        <v>0.0829</v>
       </c>
     </row>
     <row r="2850">
@@ -57680,10 +57680,10 @@
         <v>14</v>
       </c>
       <c r="E2852" t="n">
-        <v>0.1636</v>
+        <v>0.1634</v>
       </c>
       <c r="F2852" t="n">
-        <v>0.0004</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="2853">
@@ -57700,10 +57700,10 @@
         <v>14</v>
       </c>
       <c r="E2853" t="n">
-        <v>0.1351</v>
+        <v>0.1354</v>
       </c>
       <c r="F2853" t="n">
-        <v>0.026</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="2854">
@@ -57760,7 +57760,7 @@
         <v>15</v>
       </c>
       <c r="E2856" t="n">
-        <v>0.6403</v>
+        <v>0.6405</v>
       </c>
       <c r="F2856" t="n">
         <v>0</v>
@@ -57780,7 +57780,7 @@
         <v>15</v>
       </c>
       <c r="E2857" t="n">
-        <v>0.5105</v>
+        <v>0.5102</v>
       </c>
       <c r="F2857" t="n">
         <v>0</v>
@@ -57980,7 +57980,7 @@
         <v>14</v>
       </c>
       <c r="E2867" t="n">
-        <v>0.3704</v>
+        <v>0.3699</v>
       </c>
       <c r="F2867" t="n">
         <v>0</v>
@@ -58163,7 +58163,7 @@
         <v>0.0143</v>
       </c>
       <c r="F2876" t="n">
-        <v>0.0936</v>
+        <v>0.0956</v>
       </c>
     </row>
     <row r="2877">
@@ -58180,10 +58180,10 @@
         <v>14</v>
       </c>
       <c r="E2877" t="n">
-        <v>0.0123</v>
+        <v>0.0125</v>
       </c>
       <c r="F2877" t="n">
-        <v>0.5379</v>
+        <v>0.5133</v>
       </c>
     </row>
     <row r="2878">
@@ -58320,10 +58320,10 @@
         <v>14</v>
       </c>
       <c r="E2884" t="n">
-        <v>0.0833</v>
+        <v>0.0831</v>
       </c>
       <c r="F2884" t="n">
-        <v>0.676</v>
+        <v>0.6779</v>
       </c>
     </row>
     <row r="2885">
@@ -58340,10 +58340,10 @@
         <v>14</v>
       </c>
       <c r="E2885" t="n">
-        <v>0.1151</v>
+        <v>0.1158</v>
       </c>
       <c r="F2885" t="n">
-        <v>0.2732</v>
+        <v>0.2668</v>
       </c>
     </row>
     <row r="2886">
@@ -58440,7 +58440,7 @@
         <v>14</v>
       </c>
       <c r="E2890" t="n">
-        <v>0.2279</v>
+        <v>0.2278</v>
       </c>
       <c r="F2890" t="n">
         <v>0.0009</v>
@@ -58460,7 +58460,7 @@
         <v>14</v>
       </c>
       <c r="E2891" t="n">
-        <v>0.2497</v>
+        <v>0.2502</v>
       </c>
       <c r="F2891" t="n">
         <v>0.0002</v>
@@ -58520,7 +58520,7 @@
         <v>14</v>
       </c>
       <c r="E2894" t="n">
-        <v>0.1864</v>
+        <v>0.1865</v>
       </c>
       <c r="F2894" t="n">
         <v>0</v>
@@ -58540,7 +58540,7 @@
         <v>14</v>
       </c>
       <c r="E2895" t="n">
-        <v>0.198</v>
+        <v>0.1985</v>
       </c>
       <c r="F2895" t="n">
         <v>0.0002</v>
@@ -58600,7 +58600,7 @@
         <v>15</v>
       </c>
       <c r="E2898" t="n">
-        <v>0.5667</v>
+        <v>0.5664</v>
       </c>
       <c r="F2898" t="n">
         <v>0</v>
@@ -58620,7 +58620,7 @@
         <v>15</v>
       </c>
       <c r="E2899" t="n">
-        <v>0.5741</v>
+        <v>0.5735</v>
       </c>
       <c r="F2899" t="n">
         <v>0</v>
@@ -58820,7 +58820,7 @@
         <v>14</v>
       </c>
       <c r="E2909" t="n">
-        <v>0.2504</v>
+        <v>0.2508</v>
       </c>
       <c r="F2909" t="n">
         <v>0.0002</v>
@@ -59000,7 +59000,7 @@
         <v>14</v>
       </c>
       <c r="E2918" t="n">
-        <v>0.0235</v>
+        <v>0.0234</v>
       </c>
       <c r="F2918" t="n">
         <v>0.0008</v>
@@ -59020,7 +59020,7 @@
         <v>14</v>
       </c>
       <c r="E2919" t="n">
-        <v>0.03</v>
+        <v>0.0299</v>
       </c>
       <c r="F2919" t="n">
         <v>0.0002</v>
@@ -59163,7 +59163,7 @@
         <v>0.0888</v>
       </c>
       <c r="F2926" t="n">
-        <v>0.5956</v>
+        <v>0.5955</v>
       </c>
     </row>
     <row r="2927">
@@ -59180,10 +59180,10 @@
         <v>14</v>
       </c>
       <c r="E2927" t="n">
-        <v>0.0702</v>
+        <v>0.0703</v>
       </c>
       <c r="F2927" t="n">
-        <v>0.8535</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="2928">
@@ -59280,7 +59280,7 @@
         <v>14</v>
       </c>
       <c r="E2932" t="n">
-        <v>0.2089</v>
+        <v>0.209</v>
       </c>
       <c r="F2932" t="n">
         <v>0.0029</v>
@@ -59300,10 +59300,10 @@
         <v>14</v>
       </c>
       <c r="E2933" t="n">
-        <v>0.1837</v>
+        <v>0.1841</v>
       </c>
       <c r="F2933" t="n">
-        <v>0.0126</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="2934">
@@ -59360,7 +59360,7 @@
         <v>14</v>
       </c>
       <c r="E2936" t="n">
-        <v>0.1758</v>
+        <v>0.1762</v>
       </c>
       <c r="F2936" t="n">
         <v>0.0001</v>
@@ -59380,7 +59380,7 @@
         <v>14</v>
       </c>
       <c r="E2937" t="n">
-        <v>0.2041</v>
+        <v>0.2045</v>
       </c>
       <c r="F2937" t="n">
         <v>0</v>
@@ -59460,7 +59460,7 @@
         <v>15</v>
       </c>
       <c r="E2941" t="n">
-        <v>0.5516</v>
+        <v>0.5518</v>
       </c>
       <c r="F2941" t="n">
         <v>0</v>
@@ -59640,7 +59640,7 @@
         <v>14</v>
       </c>
       <c r="E2950" t="n">
-        <v>0.4177</v>
+        <v>0.4175</v>
       </c>
       <c r="F2950" t="n">
         <v>0</v>
@@ -59840,10 +59840,10 @@
         <v>14</v>
       </c>
       <c r="E2960" t="n">
-        <v>0.0187</v>
+        <v>0.0186</v>
       </c>
       <c r="F2960" t="n">
-        <v>0.0123</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="2961">
@@ -59860,10 +59860,10 @@
         <v>14</v>
       </c>
       <c r="E2961" t="n">
-        <v>0.0065</v>
+        <v>0.0066</v>
       </c>
       <c r="F2961" t="n">
-        <v>0.9889</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="2962">
@@ -60000,10 +60000,10 @@
         <v>14</v>
       </c>
       <c r="E2968" t="n">
-        <v>0.0711</v>
+        <v>0.0712</v>
       </c>
       <c r="F2968" t="n">
-        <v>0.849</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="2969">
@@ -60020,10 +60020,10 @@
         <v>14</v>
       </c>
       <c r="E2969" t="n">
-        <v>0.0818</v>
+        <v>0.0819</v>
       </c>
       <c r="F2969" t="n">
-        <v>0.7053</v>
+        <v>0.7042</v>
       </c>
     </row>
     <row r="2970">
@@ -60120,7 +60120,7 @@
         <v>14</v>
       </c>
       <c r="E2974" t="n">
-        <v>0.211</v>
+        <v>0.2111</v>
       </c>
       <c r="F2974" t="n">
         <v>0.003</v>
@@ -60140,7 +60140,7 @@
         <v>14</v>
       </c>
       <c r="E2975" t="n">
-        <v>0.1923</v>
+        <v>0.1924</v>
       </c>
       <c r="F2975" t="n">
         <v>0.0084</v>
@@ -60200,7 +60200,7 @@
         <v>14</v>
       </c>
       <c r="E2978" t="n">
-        <v>0.1683</v>
+        <v>0.1682</v>
       </c>
       <c r="F2978" t="n">
         <v>0.0002</v>
@@ -60280,7 +60280,7 @@
         <v>15</v>
       </c>
       <c r="E2982" t="n">
-        <v>0.5137</v>
+        <v>0.5134</v>
       </c>
       <c r="F2982" t="n">
         <v>0</v>
@@ -60300,7 +60300,7 @@
         <v>15</v>
       </c>
       <c r="E2983" t="n">
-        <v>0.5545</v>
+        <v>0.5543</v>
       </c>
       <c r="F2983" t="n">
         <v>0</v>
@@ -60480,7 +60480,7 @@
         <v>14</v>
       </c>
       <c r="E2992" t="n">
-        <v>0.2555</v>
+        <v>0.2554</v>
       </c>
       <c r="F2992" t="n">
         <v>0.0002</v>
@@ -60500,7 +60500,7 @@
         <v>14</v>
       </c>
       <c r="E2993" t="n">
-        <v>0.3597</v>
+        <v>0.36</v>
       </c>
       <c r="F2993" t="n">
         <v>0</v>
@@ -60680,10 +60680,10 @@
         <v>14</v>
       </c>
       <c r="E3002" t="n">
-        <v>0.0123</v>
+        <v>0.0124</v>
       </c>
       <c r="F3002" t="n">
-        <v>0.2576</v>
+        <v>0.2503</v>
       </c>
     </row>
     <row r="3003">
@@ -60700,10 +60700,10 @@
         <v>14</v>
       </c>
       <c r="E3003" t="n">
-        <v>0.0068</v>
+        <v>0.0071</v>
       </c>
       <c r="F3003" t="n">
-        <v>0.9811</v>
+        <v>0.9739</v>
       </c>
     </row>
     <row r="3004">
@@ -60840,10 +60840,10 @@
         <v>14</v>
       </c>
       <c r="E3010" t="n">
-        <v>0.0699</v>
+        <v>0.0697</v>
       </c>
       <c r="F3010" t="n">
-        <v>0.8732</v>
+        <v>0.8753</v>
       </c>
     </row>
     <row r="3011">
@@ -60860,10 +60860,10 @@
         <v>14</v>
       </c>
       <c r="E3011" t="n">
-        <v>0.0777</v>
+        <v>0.0774</v>
       </c>
       <c r="F3011" t="n">
-        <v>0.778</v>
+        <v>0.7819</v>
       </c>
     </row>
     <row r="3012">
@@ -60960,7 +60960,7 @@
         <v>14</v>
       </c>
       <c r="E3016" t="n">
-        <v>0.2118</v>
+        <v>0.212</v>
       </c>
       <c r="F3016" t="n">
         <v>0.0031</v>
@@ -60980,7 +60980,7 @@
         <v>14</v>
       </c>
       <c r="E3017" t="n">
-        <v>0.2198</v>
+        <v>0.2195</v>
       </c>
       <c r="F3017" t="n">
         <v>0.0019</v>
@@ -61040,7 +61040,7 @@
         <v>14</v>
       </c>
       <c r="E3020" t="n">
-        <v>0.2023</v>
+        <v>0.2025</v>
       </c>
       <c r="F3020" t="n">
         <v>0</v>
@@ -61060,7 +61060,7 @@
         <v>14</v>
       </c>
       <c r="E3021" t="n">
-        <v>0.1918</v>
+        <v>0.1915</v>
       </c>
       <c r="F3021" t="n">
         <v>0.0003</v>
@@ -61120,7 +61120,7 @@
         <v>15</v>
       </c>
       <c r="E3024" t="n">
-        <v>0.6481</v>
+        <v>0.648</v>
       </c>
       <c r="F3024" t="n">
         <v>0</v>
@@ -61140,7 +61140,7 @@
         <v>15</v>
       </c>
       <c r="E3025" t="n">
-        <v>0.766</v>
+        <v>0.7662</v>
       </c>
       <c r="F3025" t="n">
         <v>0</v>
@@ -61320,7 +61320,7 @@
         <v>14</v>
       </c>
       <c r="E3034" t="n">
-        <v>0.3297</v>
+        <v>0.3294</v>
       </c>
       <c r="F3034" t="n">
         <v>0</v>
@@ -61340,7 +61340,7 @@
         <v>14</v>
       </c>
       <c r="E3035" t="n">
-        <v>0.3679</v>
+        <v>0.3675</v>
       </c>
       <c r="F3035" t="n">
         <v>0</v>
@@ -61520,10 +61520,10 @@
         <v>14</v>
       </c>
       <c r="E3044" t="n">
-        <v>0.0215</v>
+        <v>0.0213</v>
       </c>
       <c r="F3044" t="n">
-        <v>0.0019</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="3045">
@@ -61543,7 +61543,7 @@
         <v>0.0096</v>
       </c>
       <c r="F3045" t="n">
-        <v>0.7643</v>
+        <v>0.7673</v>
       </c>
     </row>
     <row r="3046">
@@ -61680,10 +61680,10 @@
         <v>14</v>
       </c>
       <c r="E3052" t="n">
-        <v>0.0605</v>
+        <v>0.0606</v>
       </c>
       <c r="F3052" t="n">
-        <v>0.9462</v>
+        <v>0.9461</v>
       </c>
     </row>
     <row r="3053">
@@ -61700,10 +61700,10 @@
         <v>14</v>
       </c>
       <c r="E3053" t="n">
-        <v>0.0459</v>
+        <v>0.0456</v>
       </c>
       <c r="F3053" t="n">
-        <v>0.9974</v>
+        <v>0.9977</v>
       </c>
     </row>
     <row r="3054">
@@ -61800,10 +61800,10 @@
         <v>14</v>
       </c>
       <c r="E3058" t="n">
-        <v>0.2097</v>
+        <v>0.2094</v>
       </c>
       <c r="F3058" t="n">
-        <v>0.0027</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="3059">
@@ -61820,7 +61820,7 @@
         <v>14</v>
       </c>
       <c r="E3059" t="n">
-        <v>0.2079</v>
+        <v>0.2075</v>
       </c>
       <c r="F3059" t="n">
         <v>0.0031</v>
@@ -61880,7 +61880,7 @@
         <v>14</v>
       </c>
       <c r="E3062" t="n">
-        <v>0.1786</v>
+        <v>0.1783</v>
       </c>
       <c r="F3062" t="n">
         <v>0.0001</v>
@@ -61900,7 +61900,7 @@
         <v>14</v>
       </c>
       <c r="E3063" t="n">
-        <v>0.1766</v>
+        <v>0.1763</v>
       </c>
       <c r="F3063" t="n">
         <v>0.0006</v>
@@ -61980,7 +61980,7 @@
         <v>15</v>
       </c>
       <c r="E3067" t="n">
-        <v>0.743</v>
+        <v>0.7429</v>
       </c>
       <c r="F3067" t="n">
         <v>0</v>
@@ -62160,7 +62160,7 @@
         <v>14</v>
       </c>
       <c r="E3076" t="n">
-        <v>0.3234</v>
+        <v>0.3233</v>
       </c>
       <c r="F3076" t="n">
         <v>0</v>
@@ -62180,7 +62180,7 @@
         <v>14</v>
       </c>
       <c r="E3077" t="n">
-        <v>0.3686</v>
+        <v>0.3685</v>
       </c>
       <c r="F3077" t="n">
         <v>0</v>
@@ -62380,10 +62380,10 @@
         <v>14</v>
       </c>
       <c r="E3087" t="n">
-        <v>0.0204</v>
+        <v>0.0202</v>
       </c>
       <c r="F3087" t="n">
-        <v>0.0361</v>
+        <v>0.0387</v>
       </c>
     </row>
     <row r="3088">
@@ -62520,10 +62520,10 @@
         <v>14</v>
       </c>
       <c r="E3094" t="n">
-        <v>0.0658</v>
+        <v>0.0656</v>
       </c>
       <c r="F3094" t="n">
-        <v>0.906</v>
+        <v>0.9079</v>
       </c>
     </row>
     <row r="3095">
@@ -62540,10 +62540,10 @@
         <v>14</v>
       </c>
       <c r="E3095" t="n">
-        <v>0.0629</v>
+        <v>0.063</v>
       </c>
       <c r="F3095" t="n">
-        <v>0.9315</v>
+        <v>0.9304</v>
       </c>
     </row>
     <row r="3096">
@@ -62640,10 +62640,10 @@
         <v>14</v>
       </c>
       <c r="E3100" t="n">
-        <v>0.1797</v>
+        <v>0.1798</v>
       </c>
       <c r="F3100" t="n">
-        <v>0.0179</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="3101">
@@ -62660,10 +62660,10 @@
         <v>14</v>
       </c>
       <c r="E3101" t="n">
-        <v>0.1783</v>
+        <v>0.1782</v>
       </c>
       <c r="F3101" t="n">
-        <v>0.0181</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="3102">
@@ -62720,7 +62720,7 @@
         <v>14</v>
       </c>
       <c r="E3104" t="n">
-        <v>0.1773</v>
+        <v>0.1772</v>
       </c>
       <c r="F3104" t="n">
         <v>0.0001</v>
@@ -62800,7 +62800,7 @@
         <v>15</v>
       </c>
       <c r="E3108" t="n">
-        <v>0.5864</v>
+        <v>0.5865</v>
       </c>
       <c r="F3108" t="n">
         <v>0</v>
@@ -62820,7 +62820,7 @@
         <v>15</v>
       </c>
       <c r="E3109" t="n">
-        <v>0.7226</v>
+        <v>0.7223</v>
       </c>
       <c r="F3109" t="n">
         <v>0</v>
@@ -63020,7 +63020,7 @@
         <v>14</v>
       </c>
       <c r="E3119" t="n">
-        <v>0.442</v>
+        <v>0.4419</v>
       </c>
       <c r="F3119" t="n">
         <v>0</v>
@@ -63203,7 +63203,7 @@
         <v>0.0213</v>
       </c>
       <c r="F3128" t="n">
-        <v>0.0029</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="3129">
@@ -63220,10 +63220,10 @@
         <v>14</v>
       </c>
       <c r="E3129" t="n">
-        <v>0.0131</v>
+        <v>0.0132</v>
       </c>
       <c r="F3129" t="n">
-        <v>0.4828</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="3130">
@@ -63363,7 +63363,7 @@
         <v>0.0798</v>
       </c>
       <c r="F3136" t="n">
-        <v>0.7333</v>
+        <v>0.7338</v>
       </c>
     </row>
     <row r="3137">
@@ -63380,10 +63380,10 @@
         <v>14</v>
       </c>
       <c r="E3137" t="n">
-        <v>0.0846</v>
+        <v>0.0845</v>
       </c>
       <c r="F3137" t="n">
-        <v>0.6644</v>
+        <v>0.6668</v>
       </c>
     </row>
     <row r="3138">
@@ -63500,7 +63500,7 @@
         <v>14</v>
       </c>
       <c r="E3143" t="n">
-        <v>0.3046</v>
+        <v>0.3043</v>
       </c>
       <c r="F3143" t="n">
         <v>0</v>
@@ -63580,7 +63580,7 @@
         <v>14</v>
       </c>
       <c r="E3147" t="n">
-        <v>0.2396</v>
+        <v>0.2393</v>
       </c>
       <c r="F3147" t="n">
         <v>0</v>
@@ -63640,7 +63640,7 @@
         <v>15</v>
       </c>
       <c r="E3150" t="n">
-        <v>0.6137</v>
+        <v>0.6139</v>
       </c>
       <c r="F3150" t="n">
         <v>0</v>
@@ -63660,7 +63660,7 @@
         <v>15</v>
       </c>
       <c r="E3151" t="n">
-        <v>0.8619</v>
+        <v>0.8618</v>
       </c>
       <c r="F3151" t="n">
         <v>0</v>
@@ -63840,7 +63840,7 @@
         <v>14</v>
       </c>
       <c r="E3160" t="n">
-        <v>0.2731</v>
+        <v>0.2729</v>
       </c>
       <c r="F3160" t="n">
         <v>0.0001</v>
@@ -63860,7 +63860,7 @@
         <v>14</v>
       </c>
       <c r="E3161" t="n">
-        <v>0.3404</v>
+        <v>0.3406</v>
       </c>
       <c r="F3161" t="n">
         <v>0</v>
@@ -64040,10 +64040,10 @@
         <v>14</v>
       </c>
       <c r="E3170" t="n">
-        <v>0.0091</v>
+        <v>0.0089</v>
       </c>
       <c r="F3170" t="n">
-        <v>0.6255</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="3171">
@@ -64060,10 +64060,10 @@
         <v>14</v>
       </c>
       <c r="E3171" t="n">
-        <v>0.0167</v>
+        <v>0.0169</v>
       </c>
       <c r="F3171" t="n">
-        <v>0.2046</v>
+        <v>0.1944</v>
       </c>
     </row>
     <row r="3172">
@@ -64203,7 +64203,7 @@
         <v>0.0899</v>
       </c>
       <c r="F3178" t="n">
-        <v>0.6146</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="3179">
@@ -64223,7 +64223,7 @@
         <v>0.0866</v>
       </c>
       <c r="F3179" t="n">
-        <v>0.6607</v>
+        <v>0.6619</v>
       </c>
     </row>
     <row r="3180">
@@ -64320,7 +64320,7 @@
         <v>14</v>
       </c>
       <c r="E3184" t="n">
-        <v>0.259</v>
+        <v>0.2588</v>
       </c>
       <c r="F3184" t="n">
         <v>0.0001</v>
@@ -64400,7 +64400,7 @@
         <v>14</v>
       </c>
       <c r="E3188" t="n">
-        <v>0.1888</v>
+        <v>0.1886</v>
       </c>
       <c r="F3188" t="n">
         <v>0</v>
@@ -64480,7 +64480,7 @@
         <v>15</v>
       </c>
       <c r="E3192" t="n">
-        <v>0.6627</v>
+        <v>0.6626</v>
       </c>
       <c r="F3192" t="n">
         <v>0</v>
@@ -64680,7 +64680,7 @@
         <v>14</v>
       </c>
       <c r="E3202" t="n">
-        <v>0.27</v>
+        <v>0.2703</v>
       </c>
       <c r="F3202" t="n">
         <v>0</v>
@@ -64700,7 +64700,7 @@
         <v>14</v>
       </c>
       <c r="E3203" t="n">
-        <v>0.2358</v>
+        <v>0.2362</v>
       </c>
       <c r="F3203" t="n">
         <v>0.0005</v>
@@ -64880,10 +64880,10 @@
         <v>14</v>
       </c>
       <c r="E3212" t="n">
-        <v>0.0253</v>
+        <v>0.0256</v>
       </c>
       <c r="F3212" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="3213">
@@ -64900,10 +64900,10 @@
         <v>14</v>
       </c>
       <c r="E3213" t="n">
-        <v>0.0059</v>
+        <v>0.0064</v>
       </c>
       <c r="F3213" t="n">
-        <v>0.992</v>
+        <v>0.9814</v>
       </c>
     </row>
     <row r="3214">
@@ -65043,7 +65043,7 @@
         <v>0.0887</v>
       </c>
       <c r="F3220" t="n">
-        <v>0.5962</v>
+        <v>0.5971</v>
       </c>
     </row>
     <row r="3221">
@@ -65060,10 +65060,10 @@
         <v>14</v>
       </c>
       <c r="E3221" t="n">
-        <v>0.0626</v>
+        <v>0.0622</v>
       </c>
       <c r="F3221" t="n">
-        <v>0.9306</v>
+        <v>0.9339</v>
       </c>
     </row>
     <row r="3222">
@@ -65180,10 +65180,10 @@
         <v>14</v>
       </c>
       <c r="E3227" t="n">
-        <v>0.2008</v>
+        <v>0.2004</v>
       </c>
       <c r="F3227" t="n">
-        <v>0.0047</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="3228">
@@ -65240,7 +65240,7 @@
         <v>14</v>
       </c>
       <c r="E3230" t="n">
-        <v>0.1803</v>
+        <v>0.1806</v>
       </c>
       <c r="F3230" t="n">
         <v>0</v>
@@ -65260,7 +65260,7 @@
         <v>14</v>
       </c>
       <c r="E3231" t="n">
-        <v>0.1765</v>
+        <v>0.1761</v>
       </c>
       <c r="F3231" t="n">
         <v>0.0004</v>
@@ -65320,7 +65320,7 @@
         <v>15</v>
       </c>
       <c r="E3234" t="n">
-        <v>0.5212</v>
+        <v>0.5213</v>
       </c>
       <c r="F3234" t="n">
         <v>0</v>
@@ -65340,7 +65340,7 @@
         <v>15</v>
       </c>
       <c r="E3235" t="n">
-        <v>0.6602</v>
+        <v>0.6608</v>
       </c>
       <c r="F3235" t="n">
         <v>0</v>
@@ -65540,7 +65540,7 @@
         <v>14</v>
       </c>
       <c r="E3245" t="n">
-        <v>0.3995</v>
+        <v>0.3996</v>
       </c>
       <c r="F3245" t="n">
         <v>0</v>
@@ -65720,7 +65720,7 @@
         <v>14</v>
       </c>
       <c r="E3254" t="n">
-        <v>0.0284</v>
+        <v>0.0283</v>
       </c>
       <c r="F3254" t="n">
         <v>0</v>
@@ -65740,10 +65740,10 @@
         <v>14</v>
       </c>
       <c r="E3255" t="n">
-        <v>0.0176</v>
+        <v>0.0174</v>
       </c>
       <c r="F3255" t="n">
-        <v>0.1037</v>
+        <v>0.1117</v>
       </c>
     </row>
     <row r="3256">
@@ -65880,10 +65880,10 @@
         <v>14</v>
       </c>
       <c r="E3262" t="n">
-        <v>0.0694</v>
+        <v>0.0696</v>
       </c>
       <c r="F3262" t="n">
-        <v>0.8682</v>
+        <v>0.8658</v>
       </c>
     </row>
     <row r="3263">
@@ -65900,10 +65900,10 @@
         <v>14</v>
       </c>
       <c r="E3263" t="n">
-        <v>0.0627</v>
+        <v>0.0625</v>
       </c>
       <c r="F3263" t="n">
-        <v>0.9332</v>
+        <v>0.9345</v>
       </c>
     </row>
     <row r="3264">
@@ -66000,7 +66000,7 @@
         <v>14</v>
       </c>
       <c r="E3268" t="n">
-        <v>0.2152</v>
+        <v>0.2155</v>
       </c>
       <c r="F3268" t="n">
         <v>0.0021</v>
@@ -66020,10 +66020,10 @@
         <v>14</v>
       </c>
       <c r="E3269" t="n">
-        <v>0.1899</v>
+        <v>0.1897</v>
       </c>
       <c r="F3269" t="n">
-        <v>0.0096</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="3270">
@@ -66080,7 +66080,7 @@
         <v>14</v>
       </c>
       <c r="E3272" t="n">
-        <v>0.1499</v>
+        <v>0.1496</v>
       </c>
       <c r="F3272" t="n">
         <v>0.0017</v>
@@ -66100,10 +66100,10 @@
         <v>14</v>
       </c>
       <c r="E3273" t="n">
-        <v>0.1519</v>
+        <v>0.1517</v>
       </c>
       <c r="F3273" t="n">
-        <v>0.0057</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="3274">
@@ -66160,7 +66160,7 @@
         <v>15</v>
       </c>
       <c r="E3276" t="n">
-        <v>0.5385</v>
+        <v>0.5383</v>
       </c>
       <c r="F3276" t="n">
         <v>0</v>
@@ -66180,7 +66180,7 @@
         <v>15</v>
       </c>
       <c r="E3277" t="n">
-        <v>0.6481</v>
+        <v>0.6483</v>
       </c>
       <c r="F3277" t="n">
         <v>0</v>
@@ -66360,7 +66360,7 @@
         <v>14</v>
       </c>
       <c r="E3286" t="n">
-        <v>0.3765</v>
+        <v>0.3766</v>
       </c>
       <c r="F3286" t="n">
         <v>0</v>
@@ -66380,7 +66380,7 @@
         <v>14</v>
       </c>
       <c r="E3287" t="n">
-        <v>0.2739</v>
+        <v>0.2738</v>
       </c>
       <c r="F3287" t="n">
         <v>0</v>
@@ -66580,10 +66580,10 @@
         <v>14</v>
       </c>
       <c r="E3297" t="n">
-        <v>0.0167</v>
+        <v>0.0168</v>
       </c>
       <c r="F3297" t="n">
-        <v>0.1346</v>
+        <v>0.1286</v>
       </c>
     </row>
     <row r="3298">
@@ -66720,10 +66720,10 @@
         <v>14</v>
       </c>
       <c r="E3304" t="n">
-        <v>0.0803</v>
+        <v>0.0805</v>
       </c>
       <c r="F3304" t="n">
-        <v>0.7191</v>
+        <v>0.7157</v>
       </c>
     </row>
     <row r="3305">
@@ -66743,7 +66743,7 @@
         <v>0.0548</v>
       </c>
       <c r="F3305" t="n">
-        <v>0.978</v>
+        <v>0.9779</v>
       </c>
     </row>
     <row r="3306">
@@ -66840,7 +66840,7 @@
         <v>14</v>
       </c>
       <c r="E3310" t="n">
-        <v>0.2353</v>
+        <v>0.2351</v>
       </c>
       <c r="F3310" t="n">
         <v>0.0005</v>
@@ -66860,10 +66860,10 @@
         <v>14</v>
       </c>
       <c r="E3311" t="n">
-        <v>0.1874</v>
+        <v>0.1876</v>
       </c>
       <c r="F3311" t="n">
-        <v>0.0103</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="3312">
@@ -66940,7 +66940,7 @@
         <v>14</v>
       </c>
       <c r="E3315" t="n">
-        <v>0.1582</v>
+        <v>0.1581</v>
       </c>
       <c r="F3315" t="n">
         <v>0.0033</v>
@@ -67000,7 +67000,7 @@
         <v>15</v>
       </c>
       <c r="E3318" t="n">
-        <v>0.5162</v>
+        <v>0.5161</v>
       </c>
       <c r="F3318" t="n">
         <v>0</v>
@@ -67020,7 +67020,7 @@
         <v>15</v>
       </c>
       <c r="E3319" t="n">
-        <v>0.7188</v>
+        <v>0.7187</v>
       </c>
       <c r="F3319" t="n">
         <v>0</v>
@@ -67200,7 +67200,7 @@
         <v>14</v>
       </c>
       <c r="E3328" t="n">
-        <v>0.3098</v>
+        <v>0.3102</v>
       </c>
       <c r="F3328" t="n">
         <v>0</v>
@@ -67220,7 +67220,7 @@
         <v>14</v>
       </c>
       <c r="E3329" t="n">
-        <v>0.3044</v>
+        <v>0.3039</v>
       </c>
       <c r="F3329" t="n">
         <v>0</v>
@@ -67400,10 +67400,10 @@
         <v>14</v>
       </c>
       <c r="E3338" t="n">
-        <v>0.0215</v>
+        <v>0.0218</v>
       </c>
       <c r="F3338" t="n">
-        <v>0.0024</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="3339">
@@ -67420,10 +67420,10 @@
         <v>14</v>
       </c>
       <c r="E3339" t="n">
-        <v>0.0117</v>
+        <v>0.0118</v>
       </c>
       <c r="F3339" t="n">
-        <v>0.5656</v>
+        <v>0.5493</v>
       </c>
     </row>
     <row r="3340">
@@ -67563,7 +67563,7 @@
         <v>0.0834</v>
       </c>
       <c r="F3346" t="n">
-        <v>0.6908</v>
+        <v>0.6902</v>
       </c>
     </row>
     <row r="3347">
@@ -67580,10 +67580,10 @@
         <v>14</v>
       </c>
       <c r="E3347" t="n">
-        <v>0.0572</v>
+        <v>0.0575</v>
       </c>
       <c r="F3347" t="n">
-        <v>0.9706</v>
+        <v>0.9695</v>
       </c>
     </row>
     <row r="3348">
@@ -67680,10 +67680,10 @@
         <v>14</v>
       </c>
       <c r="E3352" t="n">
-        <v>0.1973</v>
+        <v>0.1977</v>
       </c>
       <c r="F3352" t="n">
-        <v>0.0068</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="3353">
@@ -67700,10 +67700,10 @@
         <v>14</v>
       </c>
       <c r="E3353" t="n">
-        <v>0.1463</v>
+        <v>0.1466</v>
       </c>
       <c r="F3353" t="n">
-        <v>0.0879</v>
+        <v>0.0869</v>
       </c>
     </row>
     <row r="3354">
@@ -67760,7 +67760,7 @@
         <v>14</v>
       </c>
       <c r="E3356" t="n">
-        <v>0.1821</v>
+        <v>0.1825</v>
       </c>
       <c r="F3356" t="n">
         <v>0.0001</v>
@@ -67780,10 +67780,10 @@
         <v>14</v>
       </c>
       <c r="E3357" t="n">
-        <v>0.133</v>
+        <v>0.1332</v>
       </c>
       <c r="F3357" t="n">
-        <v>0.0201</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="3358">
@@ -67840,7 +67840,7 @@
         <v>15</v>
       </c>
       <c r="E3360" t="n">
-        <v>0.513</v>
+        <v>0.5134</v>
       </c>
       <c r="F3360" t="n">
         <v>0</v>
@@ -67860,7 +67860,7 @@
         <v>15</v>
       </c>
       <c r="E3361" t="n">
-        <v>0.6426</v>
+        <v>0.6423</v>
       </c>
       <c r="F3361" t="n">
         <v>0</v>
@@ -68040,7 +68040,7 @@
         <v>14</v>
       </c>
       <c r="E3370" t="n">
-        <v>0.3244</v>
+        <v>0.3243</v>
       </c>
       <c r="F3370" t="n">
         <v>0</v>
@@ -68060,7 +68060,7 @@
         <v>14</v>
       </c>
       <c r="E3371" t="n">
-        <v>0.3427</v>
+        <v>0.343</v>
       </c>
       <c r="F3371" t="n">
         <v>0</v>
@@ -68240,10 +68240,10 @@
         <v>14</v>
       </c>
       <c r="E3380" t="n">
-        <v>0.0116</v>
+        <v>0.0117</v>
       </c>
       <c r="F3380" t="n">
-        <v>0.3128</v>
+        <v>0.3049</v>
       </c>
     </row>
     <row r="3381">
@@ -68260,10 +68260,10 @@
         <v>14</v>
       </c>
       <c r="E3381" t="n">
-        <v>0.0084</v>
+        <v>0.0081</v>
       </c>
       <c r="F3381" t="n">
-        <v>0.9206</v>
+        <v>0.9384</v>
       </c>
     </row>
     <row r="3382">
@@ -68400,10 +68400,10 @@
         <v>14</v>
       </c>
       <c r="E3388" t="n">
-        <v>0.0676</v>
+        <v>0.0675</v>
       </c>
       <c r="F3388" t="n">
-        <v>0.8928</v>
+        <v>0.8938</v>
       </c>
     </row>
     <row r="3389">
@@ -68420,10 +68420,10 @@
         <v>14</v>
       </c>
       <c r="E3389" t="n">
-        <v>0.0585</v>
+        <v>0.0588</v>
       </c>
       <c r="F3389" t="n">
-        <v>0.9642</v>
+        <v>0.9623</v>
       </c>
     </row>
     <row r="3390">
@@ -68540,7 +68540,7 @@
         <v>14</v>
       </c>
       <c r="E3395" t="n">
-        <v>0.236</v>
+        <v>0.2358</v>
       </c>
       <c r="F3395" t="n">
         <v>0.0007</v>
@@ -68620,10 +68620,10 @@
         <v>14</v>
       </c>
       <c r="E3399" t="n">
-        <v>0.1737</v>
+        <v>0.174</v>
       </c>
       <c r="F3399" t="n">
-        <v>0.0013</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="3400">
@@ -68680,7 +68680,7 @@
         <v>15</v>
       </c>
       <c r="E3402" t="n">
-        <v>0.4893</v>
+        <v>0.4894</v>
       </c>
       <c r="F3402" t="n">
         <v>0</v>
@@ -68880,7 +68880,7 @@
         <v>14</v>
       </c>
       <c r="E3412" t="n">
-        <v>0.2458</v>
+        <v>0.2457</v>
       </c>
       <c r="F3412" t="n">
         <v>0.0003</v>
@@ -68900,7 +68900,7 @@
         <v>14</v>
       </c>
       <c r="E3413" t="n">
-        <v>0.2535</v>
+        <v>0.2529</v>
       </c>
       <c r="F3413" t="n">
         <v>0.0002</v>
@@ -69100,10 +69100,10 @@
         <v>14</v>
       </c>
       <c r="E3423" t="n">
-        <v>0.0204</v>
+        <v>0.0208</v>
       </c>
       <c r="F3423" t="n">
-        <v>0.0458</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="3424">
@@ -69240,10 +69240,10 @@
         <v>14</v>
       </c>
       <c r="E3430" t="n">
-        <v>0.084</v>
+        <v>0.0838</v>
       </c>
       <c r="F3430" t="n">
-        <v>0.6906</v>
+        <v>0.6927</v>
       </c>
     </row>
     <row r="3431">
@@ -69260,10 +69260,10 @@
         <v>14</v>
       </c>
       <c r="E3431" t="n">
-        <v>0.0795</v>
+        <v>0.0792</v>
       </c>
       <c r="F3431" t="n">
-        <v>0.7532</v>
+        <v>0.7567</v>
       </c>
     </row>
     <row r="3432">
@@ -69360,7 +69360,7 @@
         <v>14</v>
       </c>
       <c r="E3436" t="n">
-        <v>0.2597</v>
+        <v>0.2596</v>
       </c>
       <c r="F3436" t="n">
         <v>0.0001</v>
@@ -69380,10 +69380,10 @@
         <v>14</v>
       </c>
       <c r="E3437" t="n">
-        <v>0.1687</v>
+        <v>0.1685</v>
       </c>
       <c r="F3437" t="n">
-        <v>0.0332</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="3438">
@@ -69440,7 +69440,7 @@
         <v>14</v>
       </c>
       <c r="E3440" t="n">
-        <v>0.2169</v>
+        <v>0.217</v>
       </c>
       <c r="F3440" t="n">
         <v>0</v>
@@ -69460,10 +69460,10 @@
         <v>14</v>
       </c>
       <c r="E3441" t="n">
-        <v>0.1554</v>
+        <v>0.1547</v>
       </c>
       <c r="F3441" t="n">
-        <v>0.0067</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="3442">
@@ -69540,7 +69540,7 @@
         <v>15</v>
       </c>
       <c r="E3445" t="n">
-        <v>0.7749</v>
+        <v>0.7744</v>
       </c>
       <c r="F3445" t="n">
         <v>0</v>
@@ -69720,7 +69720,7 @@
         <v>14</v>
       </c>
       <c r="E3454" t="n">
-        <v>0.2494</v>
+        <v>0.2492</v>
       </c>
       <c r="F3454" t="n">
         <v>0.0004</v>
@@ -69740,7 +69740,7 @@
         <v>14</v>
       </c>
       <c r="E3455" t="n">
-        <v>0.3356</v>
+        <v>0.3355</v>
       </c>
       <c r="F3455" t="n">
         <v>0</v>
@@ -69920,7 +69920,7 @@
         <v>14</v>
       </c>
       <c r="E3464" t="n">
-        <v>0.0474</v>
+        <v>0.0473</v>
       </c>
       <c r="F3464" t="n">
         <v>0</v>
@@ -69943,7 +69943,7 @@
         <v>0.0213</v>
       </c>
       <c r="F3465" t="n">
-        <v>0.0234</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="3466">
@@ -70080,10 +70080,10 @@
         <v>14</v>
       </c>
       <c r="E3472" t="n">
-        <v>0.0855</v>
+        <v>0.0856</v>
       </c>
       <c r="F3472" t="n">
-        <v>0.7033</v>
+        <v>0.7014</v>
       </c>
     </row>
     <row r="3473">
@@ -70100,10 +70100,10 @@
         <v>14</v>
       </c>
       <c r="E3473" t="n">
-        <v>0.0542</v>
+        <v>0.0541</v>
       </c>
       <c r="F3473" t="n">
-        <v>0.9883</v>
+        <v>0.9885</v>
       </c>
     </row>
     <row r="3474">
@@ -70200,7 +70200,7 @@
         <v>14</v>
       </c>
       <c r="E3478" t="n">
-        <v>0.2004</v>
+        <v>0.2003</v>
       </c>
       <c r="F3478" t="n">
         <v>0.0085</v>
@@ -70220,7 +70220,7 @@
         <v>14</v>
       </c>
       <c r="E3479" t="n">
-        <v>0.2033</v>
+        <v>0.2031</v>
       </c>
       <c r="F3479" t="n">
         <v>0.0073</v>
@@ -70280,7 +70280,7 @@
         <v>14</v>
       </c>
       <c r="E3482" t="n">
-        <v>0.1985</v>
+        <v>0.1984</v>
       </c>
       <c r="F3482" t="n">
         <v>0</v>
@@ -70300,7 +70300,7 @@
         <v>14</v>
       </c>
       <c r="E3483" t="n">
-        <v>0.1651</v>
+        <v>0.1652</v>
       </c>
       <c r="F3483" t="n">
         <v>0.0022</v>
@@ -70360,7 +70360,7 @@
         <v>15</v>
       </c>
       <c r="E3486" t="n">
-        <v>0.5141</v>
+        <v>0.5142</v>
       </c>
       <c r="F3486" t="n">
         <v>0</v>
@@ -70380,7 +70380,7 @@
         <v>15</v>
       </c>
       <c r="E3487" t="n">
-        <v>0.7619</v>
+        <v>0.7617</v>
       </c>
       <c r="F3487" t="n">
         <v>0</v>
@@ -70560,7 +70560,7 @@
         <v>14</v>
       </c>
       <c r="E3496" t="n">
-        <v>0.3576</v>
+        <v>0.3575</v>
       </c>
       <c r="F3496" t="n">
         <v>0</v>
@@ -70760,7 +70760,7 @@
         <v>14</v>
       </c>
       <c r="E3506" t="n">
-        <v>0.0349</v>
+        <v>0.0351</v>
       </c>
       <c r="F3506" t="n">
         <v>0</v>
@@ -70920,10 +70920,10 @@
         <v>14</v>
       </c>
       <c r="E3514" t="n">
-        <v>0.0555</v>
+        <v>0.0556</v>
       </c>
       <c r="F3514" t="n">
-        <v>0.9919</v>
+        <v>0.9918</v>
       </c>
     </row>
     <row r="3515">
@@ -70940,10 +70940,10 @@
         <v>14</v>
       </c>
       <c r="E3515" t="n">
-        <v>0.0657</v>
+        <v>0.0658</v>
       </c>
       <c r="F3515" t="n">
-        <v>0.9549</v>
+        <v>0.9541</v>
       </c>
     </row>
     <row r="3516">
@@ -71040,10 +71040,10 @@
         <v>14</v>
       </c>
       <c r="E3520" t="n">
-        <v>0.2135</v>
+        <v>0.2134</v>
       </c>
       <c r="F3520" t="n">
-        <v>0.0092</v>
+        <v>0.0093</v>
       </c>
     </row>
     <row r="3521">
@@ -71120,7 +71120,7 @@
         <v>14</v>
       </c>
       <c r="E3524" t="n">
-        <v>0.1958</v>
+        <v>0.1959</v>
       </c>
       <c r="F3524" t="n">
         <v>0.0001</v>
@@ -71140,10 +71140,10 @@
         <v>14</v>
       </c>
       <c r="E3525" t="n">
-        <v>0.1709</v>
+        <v>0.1711</v>
       </c>
       <c r="F3525" t="n">
-        <v>0.0029</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="3526">
@@ -71200,7 +71200,7 @@
         <v>15</v>
       </c>
       <c r="E3528" t="n">
-        <v>0.585</v>
+        <v>0.5847</v>
       </c>
       <c r="F3528" t="n">
         <v>0</v>
@@ -71403,7 +71403,7 @@
         <v>0.2504</v>
       </c>
       <c r="F3538" t="n">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="3539">
@@ -71420,7 +71420,7 @@
         <v>14</v>
       </c>
       <c r="E3539" t="n">
-        <v>0.3097</v>
+        <v>0.3095</v>
       </c>
       <c r="F3539" t="n">
         <v>0</v>
@@ -71600,10 +71600,10 @@
         <v>14</v>
       </c>
       <c r="E3548" t="n">
-        <v>0.0112</v>
+        <v>0.0111</v>
       </c>
       <c r="F3548" t="n">
-        <v>0.3877</v>
+        <v>0.3927</v>
       </c>
     </row>
     <row r="3549">
@@ -71620,10 +71620,10 @@
         <v>14</v>
       </c>
       <c r="E3549" t="n">
-        <v>0.0162</v>
+        <v>0.0166</v>
       </c>
       <c r="F3549" t="n">
-        <v>0.1915</v>
+        <v>0.1698</v>
       </c>
     </row>
     <row r="3550">
@@ -71760,10 +71760,10 @@
         <v>14</v>
       </c>
       <c r="E3556" t="n">
-        <v>0.0888</v>
+        <v>0.0889</v>
       </c>
       <c r="F3556" t="n">
-        <v>0.6483</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="3557">
@@ -71780,10 +71780,10 @@
         <v>14</v>
       </c>
       <c r="E3557" t="n">
-        <v>0.0693</v>
+        <v>0.0695</v>
       </c>
       <c r="F3557" t="n">
-        <v>0.8952</v>
+        <v>0.8925</v>
       </c>
     </row>
     <row r="3558">
@@ -71900,10 +71900,10 @@
         <v>14</v>
       </c>
       <c r="E3563" t="n">
-        <v>0.1576</v>
+        <v>0.1579</v>
       </c>
       <c r="F3563" t="n">
-        <v>0.0648</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="3564">
@@ -71960,7 +71960,7 @@
         <v>14</v>
       </c>
       <c r="E3566" t="n">
-        <v>0.1593</v>
+        <v>0.1591</v>
       </c>
       <c r="F3566" t="n">
         <v>0.001</v>
@@ -71980,7 +71980,7 @@
         <v>14</v>
       </c>
       <c r="E3567" t="n">
-        <v>0.1624</v>
+        <v>0.1623</v>
       </c>
       <c r="F3567" t="n">
         <v>0.004</v>
@@ -72040,7 +72040,7 @@
         <v>15</v>
       </c>
       <c r="E3570" t="n">
-        <v>0.5578</v>
+        <v>0.5579</v>
       </c>
       <c r="F3570" t="n">
         <v>0</v>
@@ -72060,7 +72060,7 @@
         <v>15</v>
       </c>
       <c r="E3571" t="n">
-        <v>0.5534</v>
+        <v>0.5537</v>
       </c>
       <c r="F3571" t="n">
         <v>0</v>
@@ -72240,7 +72240,7 @@
         <v>14</v>
       </c>
       <c r="E3580" t="n">
-        <v>0.2157</v>
+        <v>0.2156</v>
       </c>
       <c r="F3580" t="n">
         <v>0.0036</v>
@@ -72260,7 +72260,7 @@
         <v>14</v>
       </c>
       <c r="E3581" t="n">
-        <v>0.3081</v>
+        <v>0.3085</v>
       </c>
       <c r="F3581" t="n">
         <v>0</v>
@@ -72440,10 +72440,10 @@
         <v>14</v>
       </c>
       <c r="E3590" t="n">
-        <v>0.023</v>
+        <v>0.0228</v>
       </c>
       <c r="F3590" t="n">
-        <v>0.0016</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="3591">
@@ -72460,10 +72460,10 @@
         <v>14</v>
       </c>
       <c r="E3591" t="n">
-        <v>0.0273</v>
+        <v>0.0269</v>
       </c>
       <c r="F3591" t="n">
-        <v>0.003</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="3592">
@@ -72600,10 +72600,10 @@
         <v>14</v>
       </c>
       <c r="E3598" t="n">
-        <v>0.0603</v>
+        <v>0.0605</v>
       </c>
       <c r="F3598" t="n">
-        <v>0.9655</v>
+        <v>0.9647</v>
       </c>
     </row>
     <row r="3599">
@@ -72620,10 +72620,10 @@
         <v>14</v>
       </c>
       <c r="E3599" t="n">
-        <v>0.0677</v>
+        <v>0.0682</v>
       </c>
       <c r="F3599" t="n">
-        <v>0.9139</v>
+        <v>0.9102</v>
       </c>
     </row>
     <row r="3600">
@@ -72720,10 +72720,10 @@
         <v>14</v>
       </c>
       <c r="E3604" t="n">
-        <v>0.2012</v>
+        <v>0.2011</v>
       </c>
       <c r="F3604" t="n">
-        <v>0.0081</v>
+        <v>0.0082</v>
       </c>
     </row>
     <row r="3605">
@@ -72740,10 +72740,10 @@
         <v>14</v>
       </c>
       <c r="E3605" t="n">
-        <v>0.1678</v>
+        <v>0.1679</v>
       </c>
       <c r="F3605" t="n">
-        <v>0.0434</v>
+        <v>0.0432</v>
       </c>
     </row>
     <row r="3606">
@@ -72800,7 +72800,7 @@
         <v>14</v>
       </c>
       <c r="E3608" t="n">
-        <v>0.1966</v>
+        <v>0.1965</v>
       </c>
       <c r="F3608" t="n">
         <v>0</v>
@@ -72823,7 +72823,7 @@
         <v>0.1633</v>
       </c>
       <c r="F3609" t="n">
-        <v>0.0031</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="3610">
@@ -72900,7 +72900,7 @@
         <v>15</v>
       </c>
       <c r="E3613" t="n">
-        <v>0.5106</v>
+        <v>0.5111</v>
       </c>
       <c r="F3613" t="n">
         <v>0</v>
